--- a/Data/databases/temp.xlsx
+++ b/Data/databases/temp.xlsx
@@ -109,6 +109,9 @@
     <t>H200 SU</t>
   </si>
   <si>
+    <t>autoclave</t>
+  </si>
+  <si>
     <t>eol MUD</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
     <t>metal working, average for metal product manufacturing</t>
   </si>
   <si>
-    <t>autoclave</t>
-  </si>
-  <si>
     <t>alkylbenzene sulfonate production, linear, petrochemical</t>
   </si>
   <si>
@@ -319,7 +319,7 @@
     <t>eol</t>
   </si>
   <si>
-    <t>H200 H2S</t>
+    <t>H2S</t>
   </si>
   <si>
     <t>deinked pulp, wet lap</t>
@@ -1112,7 +1112,7 @@
         <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1395,42 +1395,42 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>0.0194794377344</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
         <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>-0.955089761096813</v>
+        <v>0.0194794377344</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
         <v>153</v>
@@ -1441,19 +1441,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>-0.191017952219363</v>
+        <v>-0.955089761096813</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
         <v>153</v>
@@ -1464,19 +1464,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>-0.00695778380725223</v>
+        <v>-0.191017952219363</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G37" t="s">
         <v>153</v>
@@ -1490,16 +1490,16 @@
         <v>32</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>-0.00695778380725223</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
         <v>153</v>
@@ -1510,122 +1510,119 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>96</v>
       </c>
-      <c r="D39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1633,25 +1630,22 @@
         <v>34</v>
       </c>
       <c r="B49">
-        <v>0.517616381850369</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
         <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1659,19 +1653,16 @@
         <v>35</v>
       </c>
       <c r="B50">
-        <v>503.113060897341</v>
+        <v>0.517616381850369</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
         <v>153</v>
@@ -1685,142 +1676,139 @@
         <v>36</v>
       </c>
       <c r="B51">
+        <v>503.113060897341</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" t="s">
+        <v>153</v>
+      </c>
+      <c r="H51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
         <v>-0.472423164182603</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>105</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>143</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>149</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>153</v>
-      </c>
-      <c r="H51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
+      <c r="G52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
       </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>0.0081936987704918</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
         <v>86</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1828,10 +1816,10 @@
         <v>38</v>
       </c>
       <c r="B62">
-        <v>0.003849</v>
+        <v>0.0081936987704918</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
         <v>86</v>
@@ -1851,13 +1839,13 @@
         <v>39</v>
       </c>
       <c r="B63">
-        <v>0.000306352459016393</v>
+        <v>0.003849</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
         <v>89</v>
@@ -1874,13 +1862,13 @@
         <v>40</v>
       </c>
       <c r="B64">
-        <v>0.0081936987704918</v>
+        <v>0.000306352459016393</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
         <v>89</v>
@@ -1897,13 +1885,13 @@
         <v>41</v>
       </c>
       <c r="B65">
-        <v>0.00486127049180327</v>
+        <v>0.0081936987704918</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E65" t="s">
         <v>89</v>
@@ -1920,139 +1908,139 @@
         <v>42</v>
       </c>
       <c r="B66">
+        <v>0.00486127049180327</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>153</v>
+      </c>
+      <c r="H66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67">
         <v>0.00936116803278688</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>111</v>
       </c>
-      <c r="D66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>153</v>
-      </c>
-      <c r="H66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>153</v>
+      </c>
+      <c r="H67" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" t="s">
-        <v>91</v>
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>150</v>
-      </c>
-      <c r="G74" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>150</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B76">
-        <v>0.0488576587057554</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E76" t="s">
         <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2060,13 +2048,13 @@
         <v>44</v>
       </c>
       <c r="B77">
-        <v>0.659432659451237</v>
+        <v>0.0488576587057554</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
         <v>89</v>
@@ -2083,139 +2071,139 @@
         <v>45</v>
       </c>
       <c r="B78">
+        <v>0.659432659451237</v>
+      </c>
+      <c r="C78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79">
         <v>0.291709681843007</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>114</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>144</v>
       </c>
-      <c r="E78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s">
-        <v>153</v>
-      </c>
-      <c r="H78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>17</v>
+      <c r="E79" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s">
+        <v>153</v>
+      </c>
+      <c r="H79" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" t="s">
-        <v>92</v>
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>150</v>
-      </c>
-      <c r="G86" t="s">
-        <v>151</v>
-      </c>
-      <c r="H86" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
       </c>
+      <c r="F87" t="s">
+        <v>150</v>
+      </c>
       <c r="G87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>0.0452187</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
         <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2223,10 +2211,10 @@
         <v>47</v>
       </c>
       <c r="B89">
-        <v>0.0002702</v>
+        <v>0.0452187</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
         <v>86</v>
@@ -2246,10 +2234,10 @@
         <v>48</v>
       </c>
       <c r="B90">
-        <v>0.1108104</v>
+        <v>0.0002702</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
         <v>86</v>
@@ -2269,7 +2257,7 @@
         <v>49</v>
       </c>
       <c r="B91">
-        <v>0.003849</v>
+        <v>0.1108104</v>
       </c>
       <c r="C91" t="s">
         <v>56</v>
@@ -2289,119 +2277,119 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B92">
+        <v>0.003849</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s">
+        <v>153</v>
+      </c>
+      <c r="H92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93">
         <v>0.1601483</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>103</v>
       </c>
-      <c r="D92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D93" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" t="s">
         <v>98</v>
       </c>
-      <c r="G92" t="s">
-        <v>153</v>
-      </c>
-      <c r="H92" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>50</v>
+      <c r="G93" t="s">
+        <v>153</v>
+      </c>
+      <c r="H93" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" t="s">
-        <v>93</v>
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" t="s">
-        <v>150</v>
-      </c>
-      <c r="G100" t="s">
-        <v>151</v>
-      </c>
-      <c r="H100" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>150</v>
       </c>
       <c r="G101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2409,10 +2397,10 @@
         <v>51</v>
       </c>
       <c r="B102">
-        <v>0.075</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D102" t="s">
         <v>86</v>
@@ -2421,10 +2409,10 @@
         <v>89</v>
       </c>
       <c r="G102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -2432,139 +2420,139 @@
         <v>52</v>
       </c>
       <c r="B103">
+        <v>0.075</v>
+      </c>
+      <c r="C103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E103" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" t="s">
+        <v>153</v>
+      </c>
+      <c r="H103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104">
         <v>0.925</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>118</v>
       </c>
-      <c r="D103" t="s">
-        <v>86</v>
-      </c>
-      <c r="E103" t="s">
-        <v>89</v>
-      </c>
-      <c r="G103" t="s">
-        <v>153</v>
-      </c>
-      <c r="H103" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" t="s">
-        <v>28</v>
+      <c r="D104" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s">
+        <v>153</v>
+      </c>
+      <c r="H104" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" t="s">
-        <v>87</v>
-      </c>
-      <c r="C111" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
-        <v>150</v>
-      </c>
-      <c r="G111" t="s">
-        <v>151</v>
-      </c>
-      <c r="H111" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>87</v>
       </c>
       <c r="C112" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
       </c>
+      <c r="F112" t="s">
+        <v>150</v>
+      </c>
       <c r="G112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B113">
-        <v>3.2790945E-05</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D113" t="s">
         <v>86</v>
       </c>
       <c r="E113" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -2572,13 +2560,13 @@
         <v>39</v>
       </c>
       <c r="B114">
-        <v>2.20411595174872E-05</v>
+        <v>3.2790945E-05</v>
       </c>
       <c r="C114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D114" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E114" t="s">
         <v>89</v>
@@ -2592,13 +2580,13 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B115">
-        <v>2.15801068272796E-07</v>
+        <v>2.20411595174872E-05</v>
       </c>
       <c r="C115" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D115" t="s">
         <v>144</v>
@@ -2618,13 +2606,13 @@
         <v>54</v>
       </c>
       <c r="B116">
-        <v>5.22129092734137E-07</v>
+        <v>2.15801068272796E-07</v>
       </c>
       <c r="C116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="E116" t="s">
         <v>89</v>
@@ -2638,10 +2626,10 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B117">
-        <v>3.10593519238663E-06</v>
+        <v>5.22129092734137E-07</v>
       </c>
       <c r="C117" t="s">
         <v>120</v>
@@ -2661,259 +2649,259 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B118">
+        <v>3.10593519238663E-06</v>
+      </c>
+      <c r="C118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" t="s">
+        <v>89</v>
+      </c>
+      <c r="G118" t="s">
+        <v>153</v>
+      </c>
+      <c r="H118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119">
         <v>1.01033619739448E-06</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>93</v>
       </c>
-      <c r="D118" t="s">
-        <v>86</v>
-      </c>
-      <c r="E118" t="s">
-        <v>89</v>
-      </c>
-      <c r="G118" t="s">
-        <v>153</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="D119" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" t="s">
+        <v>153</v>
+      </c>
+      <c r="H119" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" t="s">
-        <v>91</v>
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" t="s">
-        <v>87</v>
-      </c>
-      <c r="C126" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" t="s">
-        <v>150</v>
-      </c>
-      <c r="G126" t="s">
-        <v>151</v>
-      </c>
-      <c r="H126" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>87</v>
       </c>
       <c r="C127" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>150</v>
       </c>
       <c r="G127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" t="s">
+        <v>89</v>
+      </c>
+      <c r="G128" t="s">
+        <v>152</v>
+      </c>
+      <c r="H128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
         <v>113</v>
       </c>
-      <c r="D128" t="s">
-        <v>86</v>
-      </c>
-      <c r="E128" t="s">
-        <v>89</v>
-      </c>
-      <c r="G128" t="s">
-        <v>153</v>
-      </c>
-      <c r="H128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" t="s">
-        <v>26</v>
+      <c r="D129" t="s">
+        <v>86</v>
+      </c>
+      <c r="E129" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129" t="s">
+        <v>153</v>
+      </c>
+      <c r="H129" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" t="s">
-        <v>92</v>
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" t="s">
-        <v>87</v>
-      </c>
-      <c r="C136" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" t="s">
-        <v>150</v>
-      </c>
-      <c r="G136" t="s">
-        <v>151</v>
-      </c>
-      <c r="H136" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>26</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>87</v>
       </c>
       <c r="C137" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
       </c>
+      <c r="F137" t="s">
+        <v>150</v>
+      </c>
       <c r="G137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B138">
-        <v>2.53E-05</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D138" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E138" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -2921,7 +2909,7 @@
         <v>56</v>
       </c>
       <c r="B139">
-        <v>3.2790945E-05</v>
+        <v>2.53E-05</v>
       </c>
       <c r="C139" t="s">
         <v>56</v>
@@ -2941,16 +2929,16 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B140">
-        <v>0.0001808748</v>
+        <v>3.2790945E-05</v>
       </c>
       <c r="C140" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D140" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="E140" t="s">
         <v>89</v>
@@ -2964,13 +2952,13 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B141">
-        <v>0.000239976081173181</v>
+        <v>0.0001808748</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="D141" t="s">
         <v>86</v>
@@ -2982,24 +2970,24 @@
         <v>153</v>
       </c>
       <c r="H141" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B142">
-        <v>0.03125</v>
+        <v>0.000239976081173181</v>
       </c>
       <c r="C142" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D142" t="s">
         <v>86</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G142" t="s">
         <v>153</v>
@@ -3010,13 +2998,13 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B143">
-        <v>0.0277777777777777</v>
+        <v>0.03125</v>
       </c>
       <c r="C143" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D143" t="s">
         <v>86</v>
@@ -3031,138 +3019,135 @@
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" t="s">
-        <v>32</v>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144">
+        <v>0.0277777777777777</v>
+      </c>
+      <c r="C144" t="s">
+        <v>121</v>
+      </c>
+      <c r="D144" t="s">
+        <v>86</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>153</v>
+      </c>
+      <c r="H144" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" t="s">
-        <v>87</v>
-      </c>
-      <c r="C151" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" t="s">
-        <v>150</v>
-      </c>
-      <c r="G151" t="s">
-        <v>151</v>
-      </c>
-      <c r="H151" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>87</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
         <v>12</v>
       </c>
-      <c r="F152">
-        <v>0</v>
+      <c r="F152" t="s">
+        <v>150</v>
       </c>
       <c r="G152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B153">
-        <v>0.00167999999999999</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D153" t="s">
         <v>86</v>
       </c>
       <c r="E153" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B154">
         <v>0.00167999999999999</v>
       </c>
       <c r="C154" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D154" t="s">
         <v>86</v>
@@ -3180,344 +3165,347 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" t="s">
-        <v>29</v>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>50</v>
+      </c>
+      <c r="B155">
+        <v>0.00167999999999999</v>
+      </c>
+      <c r="C155" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" t="s">
+        <v>86</v>
+      </c>
+      <c r="E155" t="s">
+        <v>89</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>153</v>
+      </c>
+      <c r="H155" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>10</v>
-      </c>
-      <c r="B158" t="s">
-        <v>94</v>
+        <v>9</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
         <v>14</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>87</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>10</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>11</v>
       </c>
-      <c r="E162" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" t="s">
         <v>151</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G163" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
         <v>29</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
         <v>94</v>
       </c>
-      <c r="D163" t="s">
-        <v>86</v>
-      </c>
-      <c r="E163" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="D164" t="s">
+        <v>86</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" t="s">
         <v>152</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G164" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
         <v>58</v>
       </c>
-      <c r="B164">
+      <c r="B165">
         <v>0.0052</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>122</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>144</v>
       </c>
-      <c r="E164" t="s">
-        <v>89</v>
-      </c>
-      <c r="F164" t="s">
-        <v>153</v>
-      </c>
-      <c r="G164" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
+      <c r="E165" t="s">
+        <v>89</v>
+      </c>
+      <c r="F165" t="s">
+        <v>153</v>
+      </c>
+      <c r="G165" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
         <v>59</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <v>15</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>123</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>145</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E166" t="s">
         <v>98</v>
       </c>
-      <c r="F165" t="s">
-        <v>153</v>
-      </c>
-      <c r="G165" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
+      <c r="F166" t="s">
+        <v>153</v>
+      </c>
+      <c r="G166" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
         <v>60</v>
       </c>
-      <c r="B166">
+      <c r="B167">
         <v>70</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>124</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>146</v>
       </c>
-      <c r="E166" t="s">
-        <v>89</v>
-      </c>
-      <c r="F166" t="s">
-        <v>153</v>
-      </c>
-      <c r="G166" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
+      <c r="E167" t="s">
+        <v>89</v>
+      </c>
+      <c r="F167" t="s">
+        <v>153</v>
+      </c>
+      <c r="G167" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
         <v>61</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>140</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>125</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>144</v>
       </c>
-      <c r="E167" t="s">
-        <v>89</v>
-      </c>
-      <c r="F167" t="s">
-        <v>153</v>
-      </c>
-      <c r="G167" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
+      <c r="E168" t="s">
+        <v>89</v>
+      </c>
+      <c r="F168" t="s">
+        <v>153</v>
+      </c>
+      <c r="G168" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
         <v>62</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <v>-0.21</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>126</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>146</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E169" t="s">
         <v>149</v>
       </c>
-      <c r="F168" t="s">
-        <v>153</v>
-      </c>
-      <c r="G168" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
+      <c r="F169" t="s">
+        <v>153</v>
+      </c>
+      <c r="G169" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
         <v>8</v>
       </c>
-      <c r="B170" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
         <v>9</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
         <v>10</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
         <v>11</v>
       </c>
-      <c r="B173" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>12</v>
-      </c>
       <c r="B174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>14</v>
-      </c>
-      <c r="B176" t="s">
-        <v>87</v>
-      </c>
-      <c r="C176" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" t="s">
-        <v>150</v>
-      </c>
-      <c r="G176" t="s">
-        <v>151</v>
-      </c>
-      <c r="H176" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>57</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B177" t="s">
+        <v>87</v>
       </c>
       <c r="C177" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
       </c>
+      <c r="F177" t="s">
+        <v>150</v>
+      </c>
       <c r="G177" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H177" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B178">
-        <v>10.9</v>
+        <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D178" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="E178" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H178" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B179">
-        <v>280</v>
+        <v>10.9</v>
       </c>
       <c r="C179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E179" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G179" t="s">
         <v>153</v>
@@ -3528,533 +3516,533 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B180">
-        <v>-0.28</v>
+        <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D180" t="s">
         <v>146</v>
       </c>
       <c r="E180" t="s">
+        <v>89</v>
+      </c>
+      <c r="G180" t="s">
+        <v>153</v>
+      </c>
+      <c r="H180" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>62</v>
+      </c>
+      <c r="B181">
+        <v>-0.28</v>
+      </c>
+      <c r="C181" t="s">
+        <v>126</v>
+      </c>
+      <c r="D181" t="s">
+        <v>146</v>
+      </c>
+      <c r="E181" t="s">
         <v>149</v>
       </c>
-      <c r="G180" t="s">
-        <v>153</v>
-      </c>
-      <c r="H180" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" t="s">
-        <v>23</v>
+      <c r="G181" t="s">
+        <v>153</v>
+      </c>
+      <c r="H181" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>9</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>10</v>
-      </c>
-      <c r="B184" t="s">
-        <v>96</v>
+        <v>9</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>14</v>
-      </c>
-      <c r="B188" t="s">
-        <v>87</v>
-      </c>
-      <c r="C188" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188" t="s">
-        <v>11</v>
-      </c>
-      <c r="E188" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" t="s">
-        <v>150</v>
-      </c>
-      <c r="G188" t="s">
-        <v>151</v>
-      </c>
-      <c r="H188" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>87</v>
       </c>
       <c r="C189" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
       </c>
+      <c r="F189" t="s">
+        <v>150</v>
+      </c>
       <c r="G189" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H189" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>96</v>
+      </c>
+      <c r="D190" t="s">
+        <v>86</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>152</v>
+      </c>
+      <c r="H190" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
         <v>59</v>
       </c>
-      <c r="B190">
+      <c r="B191">
         <v>0.07066666666666667</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>123</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>145</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E191" t="s">
         <v>98</v>
       </c>
-      <c r="G190" t="s">
-        <v>153</v>
-      </c>
-      <c r="H190" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" t="s">
-        <v>21</v>
+      <c r="G191" t="s">
+        <v>153</v>
+      </c>
+      <c r="H191" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>9</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>10</v>
-      </c>
-      <c r="B194" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B197" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>14</v>
-      </c>
-      <c r="B198" t="s">
-        <v>87</v>
-      </c>
-      <c r="C198" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" t="s">
-        <v>150</v>
-      </c>
-      <c r="G198" t="s">
-        <v>151</v>
-      </c>
-      <c r="H198" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>21</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
+        <v>87</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>97</v>
+        <v>12</v>
+      </c>
+      <c r="F199" t="s">
+        <v>150</v>
       </c>
       <c r="G199" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H199" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D200" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E200" t="s">
         <v>97</v>
       </c>
       <c r="G200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H200" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" t="s">
-        <v>19</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>63</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>127</v>
+      </c>
+      <c r="D201" t="s">
+        <v>144</v>
+      </c>
+      <c r="E201" t="s">
+        <v>97</v>
+      </c>
+      <c r="G201" t="s">
+        <v>153</v>
+      </c>
+      <c r="H201" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>9</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>10</v>
-      </c>
-      <c r="B204" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B207" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>14</v>
-      </c>
-      <c r="B208" t="s">
-        <v>87</v>
-      </c>
-      <c r="C208" t="s">
-        <v>10</v>
-      </c>
-      <c r="D208" t="s">
-        <v>11</v>
-      </c>
-      <c r="E208" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" t="s">
-        <v>150</v>
-      </c>
-      <c r="G208" t="s">
-        <v>151</v>
-      </c>
-      <c r="H208" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>19</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B209" t="s">
+        <v>87</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>98</v>
+        <v>12</v>
+      </c>
+      <c r="F209" t="s">
+        <v>150</v>
       </c>
       <c r="G209" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H209" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="D210" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="E210" t="s">
         <v>98</v>
       </c>
       <c r="G210" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H210" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>8</v>
-      </c>
-      <c r="B212" t="s">
-        <v>65</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>64</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>128</v>
+      </c>
+      <c r="D211" t="s">
+        <v>145</v>
+      </c>
+      <c r="E211" t="s">
+        <v>98</v>
+      </c>
+      <c r="G211" t="s">
+        <v>153</v>
+      </c>
+      <c r="H211" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>9</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>10</v>
-      </c>
-      <c r="B214" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B217" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>14</v>
-      </c>
-      <c r="B218" t="s">
-        <v>87</v>
-      </c>
-      <c r="C218" t="s">
-        <v>10</v>
-      </c>
-      <c r="D218" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" t="s">
-        <v>150</v>
-      </c>
-      <c r="G218" t="s">
-        <v>151</v>
-      </c>
-      <c r="H218" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>65</v>
-      </c>
-      <c r="B219">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>87</v>
       </c>
       <c r="C219" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="F219" t="s">
+        <v>150</v>
       </c>
       <c r="G219" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H219" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B220">
-        <v>0.28851</v>
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>65</v>
+      </c>
+      <c r="D220" t="s">
+        <v>86</v>
       </c>
       <c r="E220" t="s">
         <v>99</v>
       </c>
-      <c r="F220" t="s">
-        <v>154</v>
-      </c>
       <c r="G220" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H220" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221" t="s">
-        <v>65</v>
-      </c>
-      <c r="D221" t="s">
-        <v>86</v>
+        <v>0.28851</v>
       </c>
       <c r="E221" t="s">
         <v>99</v>
       </c>
+      <c r="F221" t="s">
+        <v>154</v>
+      </c>
       <c r="G221" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H221" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B222">
-        <v>6.5545E-08</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="D222" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="E222" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G222" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H222" t="s">
         <v>157</v>
@@ -4062,19 +4050,19 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B223">
-        <v>0.23457</v>
+        <v>6.5545E-08</v>
       </c>
       <c r="C223" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D223" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E223" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G223" t="s">
         <v>153</v>
@@ -4085,130 +4073,130 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
+        <v>59</v>
+      </c>
+      <c r="B224">
+        <v>0.23457</v>
+      </c>
+      <c r="C224" t="s">
+        <v>123</v>
+      </c>
+      <c r="D224" t="s">
+        <v>145</v>
+      </c>
+      <c r="E224" t="s">
+        <v>98</v>
+      </c>
+      <c r="G224" t="s">
+        <v>153</v>
+      </c>
+      <c r="H224" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
         <v>68</v>
       </c>
-      <c r="B224">
+      <c r="B225">
         <v>6.5545E-08</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>130</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D225" t="s">
         <v>147</v>
       </c>
-      <c r="E224" t="s">
-        <v>12</v>
-      </c>
-      <c r="G224" t="s">
-        <v>153</v>
-      </c>
-      <c r="H224" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" t="s">
-        <v>8</v>
-      </c>
-      <c r="B226" t="s">
-        <v>20</v>
+      <c r="E225" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" t="s">
+        <v>153</v>
+      </c>
+      <c r="H225" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>9</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B227" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>10</v>
-      </c>
-      <c r="B228" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B229" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B231" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>14</v>
-      </c>
-      <c r="B232" t="s">
-        <v>87</v>
-      </c>
-      <c r="C232" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" t="s">
-        <v>11</v>
-      </c>
-      <c r="E232" t="s">
-        <v>12</v>
-      </c>
-      <c r="F232" t="s">
-        <v>150</v>
-      </c>
-      <c r="G232" t="s">
-        <v>151</v>
-      </c>
-      <c r="H232" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>20</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>87</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D233" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="F233" t="s">
+        <v>150</v>
       </c>
       <c r="G233" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H233" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B234">
-        <v>0.1026</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D234" t="s">
         <v>86</v>
@@ -4217,7 +4205,7 @@
         <v>99</v>
       </c>
       <c r="G234" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H234" t="s">
         <v>156</v>
@@ -4225,16 +4213,16 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B235">
-        <v>0.0513</v>
+        <v>0.1026</v>
       </c>
       <c r="C235" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="D235" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="E235" t="s">
         <v>99</v>
@@ -4243,21 +4231,21 @@
         <v>153</v>
       </c>
       <c r="H235" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B236">
-        <v>0.4487</v>
+        <v>0.0513</v>
       </c>
       <c r="C236" t="s">
         <v>131</v>
       </c>
       <c r="D236" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E236" t="s">
         <v>99</v>
@@ -4271,16 +4259,16 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B237">
-        <v>0.20513</v>
+        <v>0.4487</v>
       </c>
       <c r="C237" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D237" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E237" t="s">
         <v>99</v>
@@ -4294,16 +4282,16 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B238">
-        <v>0.1795</v>
+        <v>0.20513</v>
       </c>
       <c r="C238" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D238" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E238" t="s">
         <v>99</v>
@@ -4317,16 +4305,16 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B239">
-        <v>0.0128</v>
+        <v>0.1795</v>
       </c>
       <c r="C239" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="D239" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E239" t="s">
         <v>99</v>
@@ -4338,135 +4326,135 @@
         <v>157</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
-      <c r="A241" t="s">
-        <v>8</v>
-      </c>
-      <c r="B241" t="s">
-        <v>22</v>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>73</v>
+      </c>
+      <c r="B240">
+        <v>0.0128</v>
+      </c>
+      <c r="C240" t="s">
+        <v>73</v>
+      </c>
+      <c r="D240" t="s">
+        <v>146</v>
+      </c>
+      <c r="E240" t="s">
+        <v>99</v>
+      </c>
+      <c r="G240" t="s">
+        <v>153</v>
+      </c>
+      <c r="H240" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>9</v>
-      </c>
-      <c r="B242">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B242" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>10</v>
-      </c>
-      <c r="B243" t="s">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B244" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B246" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>14</v>
-      </c>
-      <c r="B247" t="s">
-        <v>87</v>
-      </c>
-      <c r="C247" t="s">
-        <v>10</v>
-      </c>
-      <c r="D247" t="s">
-        <v>11</v>
-      </c>
-      <c r="E247" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" t="s">
-        <v>150</v>
-      </c>
-      <c r="G247" t="s">
-        <v>151</v>
-      </c>
-      <c r="H247" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>22</v>
-      </c>
-      <c r="B248">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B248" t="s">
+        <v>87</v>
       </c>
       <c r="C248" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E248" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="F248" t="s">
+        <v>150</v>
       </c>
       <c r="G248" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H248" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B249">
-        <v>0.0415541309106406</v>
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D249" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="E249" t="s">
         <v>89</v>
       </c>
       <c r="G249" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H249" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B250">
-        <v>0.271672758270046</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C250" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D250" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E250" t="s">
         <v>89</v>
@@ -4480,13 +4468,13 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B251">
-        <v>0.527439277456811</v>
+        <v>0.271672758270046</v>
       </c>
       <c r="C251" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D251" t="s">
         <v>147</v>
@@ -4503,13 +4491,13 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B252">
-        <v>0.159333833362503</v>
+        <v>0.527439277456811</v>
       </c>
       <c r="C252" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D252" t="s">
         <v>147</v>
@@ -4524,135 +4512,135 @@
         <v>157</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>8</v>
-      </c>
-      <c r="B254" t="s">
-        <v>31</v>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>77</v>
+      </c>
+      <c r="B253">
+        <v>0.159333833362503</v>
+      </c>
+      <c r="C253" t="s">
+        <v>137</v>
+      </c>
+      <c r="D253" t="s">
+        <v>147</v>
+      </c>
+      <c r="E253" t="s">
+        <v>89</v>
+      </c>
+      <c r="G253" t="s">
+        <v>153</v>
+      </c>
+      <c r="H253" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>9</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B255" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>10</v>
-      </c>
-      <c r="B256" t="s">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B257" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B259" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>14</v>
-      </c>
-      <c r="B260" t="s">
-        <v>87</v>
-      </c>
-      <c r="C260" t="s">
-        <v>10</v>
-      </c>
-      <c r="D260" t="s">
-        <v>11</v>
-      </c>
-      <c r="E260" t="s">
-        <v>12</v>
-      </c>
-      <c r="F260" t="s">
-        <v>150</v>
-      </c>
-      <c r="G260" t="s">
-        <v>151</v>
-      </c>
-      <c r="H260" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>31</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B261" t="s">
+        <v>87</v>
       </c>
       <c r="C261" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D261" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E261" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="F261" t="s">
+        <v>150</v>
       </c>
       <c r="G261" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H261" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B262">
-        <v>0.0415541309106406</v>
+        <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D262" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="E262" t="s">
         <v>89</v>
       </c>
       <c r="G262" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H262" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B263">
-        <v>0.527439277456811</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C263" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D263" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E263" t="s">
         <v>89</v>
@@ -4666,13 +4654,13 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B264">
-        <v>0.159333833362503</v>
+        <v>0.527439277456811</v>
       </c>
       <c r="C264" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D264" t="s">
         <v>147</v>
@@ -4687,109 +4675,109 @@
         <v>157</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
-      <c r="A266" t="s">
-        <v>8</v>
-      </c>
-      <c r="B266" t="s">
-        <v>30</v>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>77</v>
+      </c>
+      <c r="B265">
+        <v>0.159333833362503</v>
+      </c>
+      <c r="C265" t="s">
+        <v>137</v>
+      </c>
+      <c r="D265" t="s">
+        <v>147</v>
+      </c>
+      <c r="E265" t="s">
+        <v>89</v>
+      </c>
+      <c r="G265" t="s">
+        <v>153</v>
+      </c>
+      <c r="H265" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>9</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B267" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>10</v>
-      </c>
-      <c r="B268" t="s">
-        <v>101</v>
+        <v>9</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B269" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B271" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>14</v>
-      </c>
-      <c r="B272" t="s">
-        <v>87</v>
-      </c>
-      <c r="C272" t="s">
-        <v>10</v>
-      </c>
-      <c r="D272" t="s">
-        <v>11</v>
-      </c>
-      <c r="E272" t="s">
-        <v>12</v>
-      </c>
-      <c r="F272" t="s">
-        <v>150</v>
-      </c>
-      <c r="G272" t="s">
-        <v>151</v>
-      </c>
-      <c r="H272" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>30</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B273" t="s">
+        <v>87</v>
       </c>
       <c r="C273" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D273" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E273" t="s">
         <v>12</v>
       </c>
+      <c r="F273" t="s">
+        <v>150</v>
+      </c>
       <c r="G273" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H273" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D274" t="s">
         <v>86</v>
@@ -4798,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="G274" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H274" t="s">
         <v>156</v>
@@ -4806,13 +4794,13 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B275">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D275" t="s">
         <v>86</v>
@@ -4832,7 +4820,7 @@
         <v>79</v>
       </c>
       <c r="B276">
-        <v>0.07099999999999999</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="C276" t="s">
         <v>138</v>
@@ -4855,7 +4843,7 @@
         <v>76</v>
       </c>
       <c r="B277">
-        <v>0.00727</v>
+        <v>-0.00727</v>
       </c>
       <c r="C277" t="s">
         <v>136</v>
@@ -4878,7 +4866,7 @@
         <v>64</v>
       </c>
       <c r="B278">
-        <v>-0.92</v>
+        <v>-0.1470914457375</v>
       </c>
       <c r="C278" t="s">
         <v>128</v>
@@ -4901,7 +4889,7 @@
         <v>20</v>
       </c>
       <c r="B279">
-        <v>-3.3</v>
+        <v>-2.647646023275</v>
       </c>
       <c r="C279" t="s">
         <v>20</v>
@@ -4924,7 +4912,7 @@
         <v>80</v>
       </c>
       <c r="B280">
-        <v>0.00316</v>
+        <v>-0.00316</v>
       </c>
       <c r="C280" t="s">
         <v>139</v>
@@ -5104,7 +5092,7 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B293">
         <v>0.0028</v>

--- a/Data/databases/temp.xlsx
+++ b/Data/databases/temp.xlsx
@@ -1398,7 +1398,7 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C34" t="s">
         <v>95</v>

--- a/Data/databases/temp.xlsx
+++ b/Data/databases/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="159">
   <si>
     <t>Database</t>
   </si>
@@ -73,7 +73,7 @@
     <t>SUD raw materials</t>
   </si>
   <si>
-    <t>mixed electricity mix</t>
+    <t>market for electricity, high voltage</t>
   </si>
   <si>
     <t>mixed heating grid</t>
@@ -208,9 +208,6 @@
     <t>market for transport, freight, lorry 16-32 metric ton, EURO6</t>
   </si>
   <si>
-    <t>market for electricity, high voltage</t>
-  </si>
-  <si>
     <t>heat production from hot water</t>
   </si>
   <si>
@@ -310,157 +307,157 @@
     <t>ton kilometer</t>
   </si>
   <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>eol</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>electricity, high voltage</t>
+  </si>
+  <si>
+    <t>deinked pulp, wet lap</t>
+  </si>
+  <si>
+    <t>electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>tap water</t>
+  </si>
+  <si>
+    <t>wastewater, unpolluted</t>
+  </si>
+  <si>
+    <t>acrylonitrile-butadiene-styrene copolymer</t>
+  </si>
+  <si>
+    <t>iron-nickel-chromium alloy</t>
+  </si>
+  <si>
+    <t>nylon 6</t>
+  </si>
+  <si>
+    <t>polycarbonate</t>
+  </si>
+  <si>
+    <t>silicone product</t>
+  </si>
+  <si>
+    <t>synthetic rubber</t>
+  </si>
+  <si>
+    <t>corrugated board box</t>
+  </si>
+  <si>
+    <t>packaging film, low density polyethylene</t>
+  </si>
+  <si>
+    <t>paper, woodfree, uncoated</t>
+  </si>
+  <si>
+    <t>cable, unspecified</t>
+  </si>
+  <si>
+    <t>electronic component, active, unspecified</t>
+  </si>
+  <si>
+    <t>copper, anode</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>nylon 6-6</t>
+  </si>
+  <si>
+    <t>polyphenylene sulfide</t>
+  </si>
+  <si>
+    <t>autoclave operation</t>
+  </si>
+  <si>
+    <t>alkylbenzene sulfonate, linear, petrochemical</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>water, deionised</t>
+  </si>
+  <si>
+    <t>water, completely softened</t>
+  </si>
+  <si>
+    <t>wastewater, average</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
+  </si>
+  <si>
+    <t>auxiliary heating unit, electric, 5kW</t>
+  </si>
+  <si>
+    <t>solar collector system, Cu flat plate collector, multiple dwelling, hot water</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, other than natural gas</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, other than natural gas</t>
+  </si>
+  <si>
+    <t>hazardous waste, for incineration</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>waste polyethylene</t>
+  </si>
+  <si>
+    <t>waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>waste polypropylene</t>
+  </si>
+  <si>
+    <t>waste paper, sorted</t>
+  </si>
+  <si>
+    <t>textile, nonwoven polypropylene</t>
+  </si>
+  <si>
+    <t>transport, freight train</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
     <t>kilowatt hour</t>
-  </si>
-  <si>
-    <t>megajoule</t>
-  </si>
-  <si>
-    <t>eol</t>
-  </si>
-  <si>
-    <t>H2S</t>
-  </si>
-  <si>
-    <t>deinked pulp, wet lap</t>
-  </si>
-  <si>
-    <t>electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>tap water</t>
-  </si>
-  <si>
-    <t>wastewater, unpolluted</t>
-  </si>
-  <si>
-    <t>acrylonitrile-butadiene-styrene copolymer</t>
-  </si>
-  <si>
-    <t>iron-nickel-chromium alloy</t>
-  </si>
-  <si>
-    <t>nylon 6</t>
-  </si>
-  <si>
-    <t>polycarbonate</t>
-  </si>
-  <si>
-    <t>silicone product</t>
-  </si>
-  <si>
-    <t>synthetic rubber</t>
-  </si>
-  <si>
-    <t>corrugated board box</t>
-  </si>
-  <si>
-    <t>packaging film, low density polyethylene</t>
-  </si>
-  <si>
-    <t>paper, woodfree, uncoated</t>
-  </si>
-  <si>
-    <t>cable, unspecified</t>
-  </si>
-  <si>
-    <t>electronic component, active, unspecified</t>
-  </si>
-  <si>
-    <t>copper, anode</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>nylon 6-6</t>
-  </si>
-  <si>
-    <t>polyphenylene sulfide</t>
-  </si>
-  <si>
-    <t>autoclave operation</t>
-  </si>
-  <si>
-    <t>alkylbenzene sulfonate, linear, petrochemical</t>
-  </si>
-  <si>
-    <t>electricity, low voltage</t>
-  </si>
-  <si>
-    <t>water, deionised</t>
-  </si>
-  <si>
-    <t>water, completely softened</t>
-  </si>
-  <si>
-    <t>wastewater, average</t>
-  </si>
-  <si>
-    <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
-  </si>
-  <si>
-    <t>electricity, high voltage</t>
-  </si>
-  <si>
-    <t>auxiliary heating unit, electric, 5kW</t>
-  </si>
-  <si>
-    <t>solar collector system, Cu flat plate collector, multiple dwelling, hot water</t>
-  </si>
-  <si>
-    <t>heat, district or industrial, other than natural gas</t>
-  </si>
-  <si>
-    <t>heat, district or industrial, natural gas</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, other than natural gas</t>
-  </si>
-  <si>
-    <t>hazardous waste, for incineration</t>
-  </si>
-  <si>
-    <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>waste polyethylene</t>
-  </si>
-  <si>
-    <t>waste plastic, mixture</t>
-  </si>
-  <si>
-    <t>waste polypropylene</t>
-  </si>
-  <si>
-    <t>waste paper, sorted</t>
-  </si>
-  <si>
-    <t>textile, nonwoven polypropylene</t>
-  </si>
-  <si>
-    <t>transport, freight train</t>
-  </si>
-  <si>
-    <t>transport, freight, sea, container ship</t>
-  </si>
-  <si>
-    <t>RoW</t>
-  </si>
-  <si>
-    <t>RER</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>Europe without Switzerland</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>US</t>
   </si>
   <si>
     <t>cubic meter</t>
@@ -851,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -912,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -933,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -945,13 +942,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
         <v>150</v>
       </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -962,16 +959,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -985,16 +982,16 @@
         <v>0.0302</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
@@ -1008,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
@@ -1031,16 +1028,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
         <v>1</v>
@@ -1054,19 +1051,19 @@
         <v>-0.8410066</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1080,13 +1077,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
         <v>1</v>
@@ -1103,13 +1100,13 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
         <v>1</v>
@@ -1123,16 +1120,16 @@
         <v>-0.190318021979733</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
         <v>1</v>
@@ -1146,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
@@ -1169,16 +1166,16 @@
         <v>-0.00147402197973334</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
         <v>1</v>
@@ -1205,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1213,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1234,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1246,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
         <v>150</v>
       </c>
-      <c r="G27" t="s">
-        <v>151</v>
-      </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1263,16 +1260,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
         <v>1</v>
@@ -1286,16 +1283,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -1309,16 +1306,16 @@
         <v>0.005126815</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
         <v>1</v>
@@ -1332,16 +1329,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H31" t="s">
         <v>1</v>
@@ -1355,16 +1352,16 @@
         <v>0.03125</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32" t="s">
         <v>1</v>
@@ -1378,16 +1375,16 @@
         <v>0.25</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H33" t="s">
         <v>1</v>
@@ -1401,16 +1398,16 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s">
         <v>156</v>
@@ -1427,13 +1424,13 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
         <v>1</v>
@@ -1450,13 +1447,13 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" t="s">
         <v>1</v>
@@ -1470,16 +1467,16 @@
         <v>-0.191017952219363</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H37" t="s">
         <v>1</v>
@@ -1493,16 +1490,16 @@
         <v>-0.00695778380725223</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" t="s">
         <v>1</v>
@@ -1519,13 +1516,13 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
         <v>1</v>
@@ -1539,16 +1536,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
         <v>1</v>
@@ -1583,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1591,7 +1588,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1604,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -1616,13 +1613,13 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" t="s">
         <v>150</v>
       </c>
-      <c r="G48" t="s">
-        <v>151</v>
-      </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1636,16 +1633,16 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1656,19 +1653,19 @@
         <v>0.517616381850369</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1679,19 +1676,19 @@
         <v>503.113060897341</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1702,19 +1699,19 @@
         <v>-0.472423164182603</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1738,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1746,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1767,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -1779,13 +1776,13 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" t="s">
         <v>150</v>
       </c>
-      <c r="G60" t="s">
-        <v>151</v>
-      </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1796,19 +1793,19 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1819,19 +1816,19 @@
         <v>0.0081936987704918</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -1842,19 +1839,19 @@
         <v>0.003849</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -1865,19 +1862,19 @@
         <v>0.000306352459016393</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -1888,19 +1885,19 @@
         <v>0.0081936987704918</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1911,19 +1908,19 @@
         <v>0.00486127049180327</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -1934,19 +1931,19 @@
         <v>0.00936116803278688</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -1970,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -1978,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -1986,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -1999,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -2011,13 +2008,13 @@
         <v>12</v>
       </c>
       <c r="F75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" t="s">
         <v>150</v>
       </c>
-      <c r="G75" t="s">
-        <v>151</v>
-      </c>
       <c r="H75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2028,19 +2025,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2051,19 +2048,19 @@
         <v>0.0488576587057554</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2074,19 +2071,19 @@
         <v>0.659432659451237</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2097,19 +2094,19 @@
         <v>0.291709681843007</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2133,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2141,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2162,7 +2159,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -2174,13 +2171,13 @@
         <v>12</v>
       </c>
       <c r="F87" t="s">
+        <v>149</v>
+      </c>
+      <c r="G87" t="s">
         <v>150</v>
       </c>
-      <c r="G87" t="s">
-        <v>151</v>
-      </c>
       <c r="H87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2191,19 +2188,19 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2214,19 +2211,19 @@
         <v>0.0452187</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2237,19 +2234,19 @@
         <v>0.0002702</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2263,16 +2260,16 @@
         <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2286,16 +2283,16 @@
         <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2306,19 +2303,19 @@
         <v>0.1601483</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2342,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2350,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2358,7 +2355,7 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2371,7 +2368,7 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -2383,13 +2380,13 @@
         <v>12</v>
       </c>
       <c r="F101" t="s">
+        <v>149</v>
+      </c>
+      <c r="G101" t="s">
         <v>150</v>
       </c>
-      <c r="G101" t="s">
-        <v>151</v>
-      </c>
       <c r="H101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2400,19 +2397,19 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -2423,19 +2420,19 @@
         <v>0.075</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2446,19 +2443,19 @@
         <v>0.925</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -2482,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -2490,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -2511,7 +2508,7 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -2523,13 +2520,13 @@
         <v>12</v>
       </c>
       <c r="F112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G112" t="s">
         <v>150</v>
       </c>
-      <c r="G112" t="s">
-        <v>151</v>
-      </c>
       <c r="H112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -2540,19 +2537,19 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -2563,19 +2560,19 @@
         <v>3.2790945E-05</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -2586,19 +2583,19 @@
         <v>2.20411595174872E-05</v>
       </c>
       <c r="C115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -2609,19 +2606,19 @@
         <v>2.15801068272796E-07</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -2632,19 +2629,19 @@
         <v>5.22129092734137E-07</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -2655,19 +2652,19 @@
         <v>3.10593519238663E-06</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -2678,19 +2675,19 @@
         <v>1.01033619739448E-06</v>
       </c>
       <c r="C119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -2714,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -2722,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -2730,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -2743,7 +2740,7 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
@@ -2755,13 +2752,13 @@
         <v>12</v>
       </c>
       <c r="F127" t="s">
+        <v>149</v>
+      </c>
+      <c r="G127" t="s">
         <v>150</v>
       </c>
-      <c r="G127" t="s">
-        <v>151</v>
-      </c>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -2772,19 +2769,19 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E128" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -2795,19 +2792,19 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -2831,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -2839,7 +2836,7 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -2860,7 +2857,7 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C137" t="s">
         <v>10</v>
@@ -2872,13 +2869,13 @@
         <v>12</v>
       </c>
       <c r="F137" t="s">
+        <v>149</v>
+      </c>
+      <c r="G137" t="s">
         <v>150</v>
       </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -2889,19 +2886,19 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D138" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E138" t="s">
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -2915,16 +2912,16 @@
         <v>56</v>
       </c>
       <c r="D139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -2938,16 +2935,16 @@
         <v>57</v>
       </c>
       <c r="D140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -2958,19 +2955,19 @@
         <v>0.0001808748</v>
       </c>
       <c r="C141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D141" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E141" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -2984,16 +2981,16 @@
         <v>34</v>
       </c>
       <c r="D142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E142" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3004,19 +3001,19 @@
         <v>0.03125</v>
       </c>
       <c r="C143" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3027,19 +3024,19 @@
         <v>0.0277777777777777</v>
       </c>
       <c r="C144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E144" t="s">
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H144" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3071,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -3092,7 +3089,7 @@
         <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C152" t="s">
         <v>10</v>
@@ -3104,13 +3101,13 @@
         <v>12</v>
       </c>
       <c r="F152" t="s">
+        <v>149</v>
+      </c>
+      <c r="G152" t="s">
         <v>150</v>
       </c>
-      <c r="G152" t="s">
-        <v>151</v>
-      </c>
       <c r="H152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -3124,7 +3121,7 @@
         <v>33</v>
       </c>
       <c r="D153" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E153" t="s">
         <v>12</v>
@@ -3133,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -3147,22 +3144,22 @@
         <v>0.00167999999999999</v>
       </c>
       <c r="C154" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E154" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -3176,19 +3173,19 @@
         <v>57</v>
       </c>
       <c r="D155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E155" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -3212,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -3220,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3241,7 +3238,7 @@
         <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
@@ -3253,10 +3250,10 @@
         <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3267,19 +3264,19 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D164" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E164" t="s">
         <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3290,19 +3287,19 @@
         <v>0.0052</v>
       </c>
       <c r="C165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D165" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E165" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F165" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3313,19 +3310,19 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D166" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E166" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F166" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -3336,19 +3333,19 @@
         <v>70</v>
       </c>
       <c r="C167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D167" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F167" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3359,19 +3356,19 @@
         <v>140</v>
       </c>
       <c r="C168" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E168" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F168" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3382,19 +3379,19 @@
         <v>-0.21</v>
       </c>
       <c r="C169" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D169" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G169" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3418,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3426,7 +3423,7 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -3447,7 +3444,7 @@
         <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C177" t="s">
         <v>10</v>
@@ -3459,13 +3456,13 @@
         <v>12</v>
       </c>
       <c r="F177" t="s">
+        <v>149</v>
+      </c>
+      <c r="G177" t="s">
         <v>150</v>
       </c>
-      <c r="G177" t="s">
-        <v>151</v>
-      </c>
       <c r="H177" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -3476,19 +3473,19 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D178" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E178" t="s">
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H178" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -3499,19 +3496,19 @@
         <v>10.9</v>
       </c>
       <c r="C179" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D179" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E179" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H179" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -3522,19 +3519,19 @@
         <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D180" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E180" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G180" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -3545,19 +3542,19 @@
         <v>-0.28</v>
       </c>
       <c r="C181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D181" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E181" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G181" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -3581,7 +3578,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -3589,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -3610,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C189" t="s">
         <v>10</v>
@@ -3622,13 +3619,13 @@
         <v>12</v>
       </c>
       <c r="F189" t="s">
+        <v>149</v>
+      </c>
+      <c r="G189" t="s">
         <v>150</v>
       </c>
-      <c r="G189" t="s">
-        <v>151</v>
-      </c>
       <c r="H189" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -3639,19 +3636,19 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D190" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H190" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -3662,19 +3659,19 @@
         <v>0.07066666666666667</v>
       </c>
       <c r="C191" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D191" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E191" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G191" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H191" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -3706,7 +3703,7 @@
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -3714,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -3727,7 +3724,7 @@
         <v>14</v>
       </c>
       <c r="B199" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C199" t="s">
         <v>10</v>
@@ -3739,13 +3736,13 @@
         <v>12</v>
       </c>
       <c r="F199" t="s">
+        <v>149</v>
+      </c>
+      <c r="G199" t="s">
         <v>150</v>
       </c>
-      <c r="G199" t="s">
-        <v>151</v>
-      </c>
       <c r="H199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -3759,16 +3756,16 @@
         <v>21</v>
       </c>
       <c r="D200" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E200" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G200" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H200" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -3779,19 +3776,19 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D201" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E201" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H201" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -3799,7 +3796,7 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -3815,7 +3812,7 @@
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -3823,7 +3820,7 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -3831,7 +3828,7 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -3844,7 +3841,7 @@
         <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C209" t="s">
         <v>10</v>
@@ -3856,474 +3853,474 @@
         <v>12</v>
       </c>
       <c r="F209" t="s">
+        <v>149</v>
+      </c>
+      <c r="G209" t="s">
         <v>150</v>
       </c>
-      <c r="G209" t="s">
-        <v>151</v>
-      </c>
       <c r="H209" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D210" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E210" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G210" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H210" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
+        <v>65</v>
+      </c>
+      <c r="B211">
+        <v>0.28851</v>
+      </c>
+      <c r="E211" t="s">
+        <v>97</v>
+      </c>
+      <c r="F211" t="s">
+        <v>153</v>
+      </c>
+      <c r="G211" t="s">
+        <v>157</v>
+      </c>
+      <c r="H211" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
         <v>64</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>128</v>
-      </c>
-      <c r="D211" t="s">
-        <v>145</v>
-      </c>
-      <c r="E211" t="s">
-        <v>98</v>
-      </c>
-      <c r="G211" t="s">
-        <v>153</v>
-      </c>
-      <c r="H211" t="s">
-        <v>157</v>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>64</v>
+      </c>
+      <c r="D212" t="s">
+        <v>85</v>
+      </c>
+      <c r="E212" t="s">
+        <v>97</v>
+      </c>
+      <c r="G212" t="s">
+        <v>151</v>
+      </c>
+      <c r="H212" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>8</v>
-      </c>
-      <c r="B213" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B213">
+        <v>6.5545E-08</v>
+      </c>
+      <c r="C213" t="s">
+        <v>127</v>
+      </c>
+      <c r="D213" t="s">
+        <v>145</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>152</v>
+      </c>
+      <c r="H213" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0.23457</v>
+      </c>
+      <c r="C214" t="s">
+        <v>122</v>
+      </c>
+      <c r="D214" t="s">
+        <v>141</v>
+      </c>
+      <c r="E214" t="s">
+        <v>147</v>
+      </c>
+      <c r="G214" t="s">
+        <v>152</v>
+      </c>
+      <c r="H214" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>10</v>
-      </c>
-      <c r="B215" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" t="s">
-        <v>11</v>
-      </c>
-      <c r="B216" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="B215">
+        <v>6.5545E-08</v>
+      </c>
+      <c r="C215" t="s">
+        <v>128</v>
+      </c>
+      <c r="D215" t="s">
+        <v>145</v>
+      </c>
+      <c r="E215" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>152</v>
+      </c>
+      <c r="H215" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>87</v>
-      </c>
-      <c r="C219" t="s">
-        <v>10</v>
-      </c>
-      <c r="D219" t="s">
-        <v>11</v>
-      </c>
-      <c r="E219" t="s">
-        <v>12</v>
-      </c>
-      <c r="F219" t="s">
-        <v>150</v>
-      </c>
-      <c r="G219" t="s">
-        <v>151</v>
-      </c>
-      <c r="H219" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>65</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>65</v>
-      </c>
-      <c r="D220" t="s">
-        <v>86</v>
-      </c>
-      <c r="E220" t="s">
-        <v>99</v>
-      </c>
-      <c r="G220" t="s">
-        <v>152</v>
-      </c>
-      <c r="H220" t="s">
-        <v>156</v>
+        <v>11</v>
+      </c>
+      <c r="B220" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>66</v>
-      </c>
-      <c r="B221">
-        <v>0.28851</v>
-      </c>
-      <c r="E221" t="s">
-        <v>99</v>
-      </c>
-      <c r="F221" t="s">
-        <v>154</v>
-      </c>
-      <c r="G221" t="s">
-        <v>158</v>
-      </c>
-      <c r="H221" t="s">
-        <v>159</v>
+        <v>12</v>
+      </c>
+      <c r="B221" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>65</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-      <c r="C222" t="s">
-        <v>65</v>
-      </c>
-      <c r="D222" t="s">
-        <v>86</v>
-      </c>
-      <c r="E222" t="s">
-        <v>99</v>
-      </c>
-      <c r="G222" t="s">
-        <v>152</v>
-      </c>
-      <c r="H222" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>67</v>
-      </c>
-      <c r="B223">
-        <v>6.5545E-08</v>
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>86</v>
       </c>
       <c r="C223" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
         <v>12</v>
       </c>
+      <c r="F223" t="s">
+        <v>149</v>
+      </c>
       <c r="G223" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H223" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B224">
-        <v>0.23457</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="D224" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="E224" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G224" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H224" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
+        <v>64</v>
+      </c>
+      <c r="B225">
+        <v>0.1026</v>
+      </c>
+      <c r="C225" t="s">
+        <v>64</v>
+      </c>
+      <c r="D225" t="s">
+        <v>85</v>
+      </c>
+      <c r="E225" t="s">
+        <v>97</v>
+      </c>
+      <c r="G225" t="s">
+        <v>152</v>
+      </c>
+      <c r="H225" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
         <v>68</v>
       </c>
-      <c r="B225">
-        <v>6.5545E-08</v>
-      </c>
-      <c r="C225" t="s">
-        <v>130</v>
-      </c>
-      <c r="D225" t="s">
-        <v>147</v>
-      </c>
-      <c r="E225" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" t="s">
-        <v>153</v>
-      </c>
-      <c r="H225" t="s">
-        <v>157</v>
+      <c r="B226">
+        <v>0.0513</v>
+      </c>
+      <c r="C226" t="s">
+        <v>129</v>
+      </c>
+      <c r="D226" t="s">
+        <v>144</v>
+      </c>
+      <c r="E226" t="s">
+        <v>97</v>
+      </c>
+      <c r="G226" t="s">
+        <v>152</v>
+      </c>
+      <c r="H226" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>8</v>
-      </c>
-      <c r="B227" t="s">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="B227">
+        <v>0.4487</v>
+      </c>
+      <c r="C227" t="s">
+        <v>129</v>
+      </c>
+      <c r="D227" t="s">
+        <v>145</v>
+      </c>
+      <c r="E227" t="s">
+        <v>97</v>
+      </c>
+      <c r="G227" t="s">
+        <v>152</v>
+      </c>
+      <c r="H227" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0.20513</v>
+      </c>
+      <c r="C228" t="s">
+        <v>130</v>
+      </c>
+      <c r="D228" t="s">
+        <v>144</v>
+      </c>
+      <c r="E228" t="s">
+        <v>97</v>
+      </c>
+      <c r="G228" t="s">
+        <v>152</v>
+      </c>
+      <c r="H228" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>10</v>
-      </c>
-      <c r="B229" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="B229">
+        <v>0.1795</v>
+      </c>
+      <c r="C229" t="s">
+        <v>131</v>
+      </c>
+      <c r="D229" t="s">
+        <v>145</v>
+      </c>
+      <c r="E229" t="s">
+        <v>97</v>
+      </c>
+      <c r="G229" t="s">
+        <v>152</v>
+      </c>
+      <c r="H229" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>11</v>
-      </c>
-      <c r="B230" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>12</v>
-      </c>
-      <c r="B231" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="B230">
+        <v>0.0128</v>
+      </c>
+      <c r="C230" t="s">
+        <v>72</v>
+      </c>
+      <c r="D230" t="s">
+        <v>144</v>
+      </c>
+      <c r="E230" t="s">
+        <v>97</v>
+      </c>
+      <c r="G230" t="s">
+        <v>152</v>
+      </c>
+      <c r="H230" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>14</v>
-      </c>
-      <c r="B233" t="s">
-        <v>87</v>
-      </c>
-      <c r="C233" t="s">
-        <v>10</v>
-      </c>
-      <c r="D233" t="s">
-        <v>11</v>
-      </c>
-      <c r="E233" t="s">
-        <v>12</v>
-      </c>
-      <c r="F233" t="s">
-        <v>150</v>
-      </c>
-      <c r="G233" t="s">
-        <v>151</v>
-      </c>
-      <c r="H233" t="s">
-        <v>155</v>
+        <v>9</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>20</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
-        <v>20</v>
-      </c>
-      <c r="D234" t="s">
-        <v>86</v>
-      </c>
-      <c r="E234" t="s">
-        <v>99</v>
-      </c>
-      <c r="G234" t="s">
-        <v>152</v>
-      </c>
-      <c r="H234" t="s">
-        <v>156</v>
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>65</v>
-      </c>
-      <c r="B235">
-        <v>0.1026</v>
-      </c>
-      <c r="C235" t="s">
-        <v>65</v>
-      </c>
-      <c r="D235" t="s">
-        <v>86</v>
-      </c>
-      <c r="E235" t="s">
-        <v>99</v>
-      </c>
-      <c r="G235" t="s">
-        <v>153</v>
-      </c>
-      <c r="H235" t="s">
-        <v>156</v>
+        <v>11</v>
+      </c>
+      <c r="B235" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>69</v>
-      </c>
-      <c r="B236">
-        <v>0.0513</v>
-      </c>
-      <c r="C236" t="s">
-        <v>131</v>
-      </c>
-      <c r="D236" t="s">
-        <v>146</v>
-      </c>
-      <c r="E236" t="s">
-        <v>99</v>
-      </c>
-      <c r="G236" t="s">
-        <v>153</v>
-      </c>
-      <c r="H236" t="s">
-        <v>157</v>
+        <v>12</v>
+      </c>
+      <c r="B236" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>70</v>
-      </c>
-      <c r="B237">
-        <v>0.4487</v>
-      </c>
-      <c r="C237" t="s">
-        <v>131</v>
-      </c>
-      <c r="D237" t="s">
-        <v>147</v>
-      </c>
-      <c r="E237" t="s">
-        <v>99</v>
-      </c>
-      <c r="G237" t="s">
-        <v>153</v>
-      </c>
-      <c r="H237" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>71</v>
-      </c>
-      <c r="B238">
-        <v>0.20513</v>
+        <v>14</v>
+      </c>
+      <c r="B238" t="s">
+        <v>86</v>
       </c>
       <c r="C238" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="D238" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="E238" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="F238" t="s">
+        <v>149</v>
       </c>
       <c r="G238" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H238" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B239">
-        <v>0.1795</v>
+        <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D239" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E239" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G239" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H239" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -4331,348 +4328,348 @@
         <v>73</v>
       </c>
       <c r="B240">
-        <v>0.0128</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C240" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D240" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E240" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G240" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H240" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>74</v>
+      </c>
+      <c r="B241">
+        <v>0.271672758270046</v>
+      </c>
+      <c r="C241" t="s">
+        <v>133</v>
+      </c>
+      <c r="D241" t="s">
+        <v>145</v>
+      </c>
+      <c r="E241" t="s">
+        <v>88</v>
+      </c>
+      <c r="G241" t="s">
+        <v>152</v>
+      </c>
+      <c r="H241" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>8</v>
-      </c>
-      <c r="B242" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="B242">
+        <v>0.527439277456811</v>
+      </c>
+      <c r="C242" t="s">
+        <v>134</v>
+      </c>
+      <c r="D242" t="s">
+        <v>145</v>
+      </c>
+      <c r="E242" t="s">
+        <v>88</v>
+      </c>
+      <c r="G242" t="s">
+        <v>152</v>
+      </c>
+      <c r="H242" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
-        <v>10</v>
-      </c>
-      <c r="B244" t="s">
-        <v>100</v>
+        <v>0.159333833362503</v>
+      </c>
+      <c r="C243" t="s">
+        <v>135</v>
+      </c>
+      <c r="D243" t="s">
+        <v>145</v>
+      </c>
+      <c r="E243" t="s">
+        <v>88</v>
+      </c>
+      <c r="G243" t="s">
+        <v>152</v>
+      </c>
+      <c r="H243" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>12</v>
-      </c>
-      <c r="B246" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>87</v>
-      </c>
-      <c r="C248" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" t="s">
-        <v>11</v>
-      </c>
-      <c r="E248" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" t="s">
-        <v>150</v>
-      </c>
-      <c r="G248" t="s">
-        <v>151</v>
-      </c>
-      <c r="H248" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>22</v>
-      </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
-        <v>100</v>
-      </c>
-      <c r="D249" t="s">
-        <v>86</v>
-      </c>
-      <c r="E249" t="s">
-        <v>89</v>
-      </c>
-      <c r="G249" t="s">
-        <v>152</v>
-      </c>
-      <c r="H249" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="B249" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>74</v>
-      </c>
-      <c r="B250">
-        <v>0.0415541309106406</v>
-      </c>
-      <c r="C250" t="s">
-        <v>134</v>
-      </c>
-      <c r="D250" t="s">
-        <v>146</v>
-      </c>
-      <c r="E250" t="s">
-        <v>89</v>
-      </c>
-      <c r="G250" t="s">
-        <v>153</v>
-      </c>
-      <c r="H250" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>75</v>
-      </c>
-      <c r="B251">
-        <v>0.271672758270046</v>
+        <v>14</v>
+      </c>
+      <c r="B251" t="s">
+        <v>86</v>
       </c>
       <c r="C251" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="D251" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="E251" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="F251" t="s">
+        <v>149</v>
       </c>
       <c r="G251" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H251" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B252">
-        <v>0.527439277456811</v>
+        <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D252" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E252" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G252" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H252" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B253">
-        <v>0.159333833362503</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C253" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D253" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E253" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G253" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H253" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>75</v>
+      </c>
+      <c r="B254">
+        <v>0.527439277456811</v>
+      </c>
+      <c r="C254" t="s">
+        <v>134</v>
+      </c>
+      <c r="D254" t="s">
+        <v>145</v>
+      </c>
+      <c r="E254" t="s">
+        <v>88</v>
+      </c>
+      <c r="G254" t="s">
+        <v>152</v>
+      </c>
+      <c r="H254" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>8</v>
-      </c>
-      <c r="B255" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
-        <v>9</v>
-      </c>
-      <c r="B256">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B255">
+        <v>0.159333833362503</v>
+      </c>
+      <c r="C255" t="s">
+        <v>135</v>
+      </c>
+      <c r="D255" t="s">
+        <v>145</v>
+      </c>
+      <c r="E255" t="s">
+        <v>88</v>
+      </c>
+      <c r="G255" t="s">
+        <v>152</v>
+      </c>
+      <c r="H255" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>11</v>
-      </c>
-      <c r="B258" t="s">
-        <v>86</v>
+        <v>9</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B259" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B260" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>87</v>
-      </c>
-      <c r="C261" t="s">
-        <v>10</v>
-      </c>
-      <c r="D261" t="s">
-        <v>11</v>
-      </c>
-      <c r="E261" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" t="s">
-        <v>150</v>
-      </c>
-      <c r="G261" t="s">
-        <v>151</v>
-      </c>
-      <c r="H261" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>32</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-      <c r="C262" t="s">
-        <v>100</v>
-      </c>
-      <c r="D262" t="s">
-        <v>86</v>
-      </c>
-      <c r="E262" t="s">
-        <v>89</v>
-      </c>
-      <c r="G262" t="s">
-        <v>152</v>
-      </c>
-      <c r="H262" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>74</v>
-      </c>
-      <c r="B263">
-        <v>0.0415541309106406</v>
+        <v>14</v>
+      </c>
+      <c r="B263" t="s">
+        <v>86</v>
       </c>
       <c r="C263" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="D263" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="E263" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="F263" t="s">
+        <v>149</v>
       </c>
       <c r="G263" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H263" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B264">
-        <v>0.527439277456811</v>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D264" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E264" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G264" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H264" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -4680,529 +4677,412 @@
         <v>77</v>
       </c>
       <c r="B265">
-        <v>0.159333833362503</v>
+        <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="D265" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E265" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G265" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H265" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>78</v>
+      </c>
+      <c r="B266">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="C266" t="s">
+        <v>136</v>
+      </c>
+      <c r="D266" t="s">
+        <v>145</v>
+      </c>
+      <c r="E266" t="s">
+        <v>88</v>
+      </c>
+      <c r="G266" t="s">
+        <v>152</v>
+      </c>
+      <c r="H266" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>8</v>
-      </c>
-      <c r="B267" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="B267">
+        <v>-0.00727</v>
+      </c>
+      <c r="C267" t="s">
+        <v>134</v>
+      </c>
+      <c r="D267" t="s">
+        <v>145</v>
+      </c>
+      <c r="E267" t="s">
+        <v>88</v>
+      </c>
+      <c r="G267" t="s">
+        <v>152</v>
+      </c>
+      <c r="H267" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>-0.1470914457375</v>
+      </c>
+      <c r="C268" t="s">
+        <v>100</v>
+      </c>
+      <c r="D268" t="s">
+        <v>141</v>
+      </c>
+      <c r="E268" t="s">
+        <v>147</v>
+      </c>
+      <c r="G268" t="s">
+        <v>152</v>
+      </c>
+      <c r="H268" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>10</v>
-      </c>
-      <c r="B269" t="s">
-        <v>101</v>
+        <v>20</v>
+      </c>
+      <c r="B269">
+        <v>-2.647646023275</v>
+      </c>
+      <c r="C269" t="s">
+        <v>20</v>
+      </c>
+      <c r="D269" t="s">
+        <v>85</v>
+      </c>
+      <c r="E269" t="s">
+        <v>97</v>
+      </c>
+      <c r="G269" t="s">
+        <v>152</v>
+      </c>
+      <c r="H269" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>11</v>
-      </c>
-      <c r="B270" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" t="s">
-        <v>12</v>
-      </c>
-      <c r="B271" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="B270">
+        <v>-0.00316</v>
+      </c>
+      <c r="C270" t="s">
+        <v>137</v>
+      </c>
+      <c r="D270" t="s">
+        <v>144</v>
+      </c>
+      <c r="E270" t="s">
+        <v>88</v>
+      </c>
+      <c r="G270" t="s">
+        <v>152</v>
+      </c>
+      <c r="H270" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
         <v>14</v>
       </c>
-      <c r="B273" t="s">
-        <v>87</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="B278" t="s">
+        <v>86</v>
+      </c>
+      <c r="C278" t="s">
         <v>10</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D278" t="s">
         <v>11</v>
       </c>
-      <c r="E273" t="s">
-        <v>12</v>
-      </c>
-      <c r="F273" t="s">
+      <c r="E278" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" t="s">
         <v>150</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G278" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>77</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
+        <v>77</v>
+      </c>
+      <c r="D279" t="s">
+        <v>85</v>
+      </c>
+      <c r="E279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" t="s">
         <v>151</v>
       </c>
-      <c r="H273" t="s">
+      <c r="G279" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>30</v>
-      </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-      <c r="C274" t="s">
-        <v>101</v>
-      </c>
-      <c r="D274" t="s">
-        <v>86</v>
-      </c>
-      <c r="E274" t="s">
-        <v>12</v>
-      </c>
-      <c r="G274" t="s">
-        <v>152</v>
-      </c>
-      <c r="H274" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>78</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-      <c r="C275" t="s">
-        <v>78</v>
-      </c>
-      <c r="D275" t="s">
-        <v>86</v>
-      </c>
-      <c r="E275" t="s">
-        <v>12</v>
-      </c>
-      <c r="G275" t="s">
-        <v>153</v>
-      </c>
-      <c r="H275" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" t="s">
-        <v>79</v>
-      </c>
-      <c r="B276">
-        <v>-0.07099999999999999</v>
-      </c>
-      <c r="C276" t="s">
-        <v>138</v>
-      </c>
-      <c r="D276" t="s">
-        <v>147</v>
-      </c>
-      <c r="E276" t="s">
-        <v>89</v>
-      </c>
-      <c r="G276" t="s">
-        <v>153</v>
-      </c>
-      <c r="H276" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>76</v>
-      </c>
-      <c r="B277">
-        <v>-0.00727</v>
-      </c>
-      <c r="C277" t="s">
-        <v>136</v>
-      </c>
-      <c r="D277" t="s">
-        <v>147</v>
-      </c>
-      <c r="E277" t="s">
-        <v>89</v>
-      </c>
-      <c r="G277" t="s">
-        <v>153</v>
-      </c>
-      <c r="H277" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>64</v>
-      </c>
-      <c r="B278">
-        <v>-0.1470914457375</v>
-      </c>
-      <c r="C278" t="s">
-        <v>128</v>
-      </c>
-      <c r="D278" t="s">
-        <v>145</v>
-      </c>
-      <c r="E278" t="s">
-        <v>98</v>
-      </c>
-      <c r="G278" t="s">
-        <v>153</v>
-      </c>
-      <c r="H278" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>20</v>
-      </c>
-      <c r="B279">
-        <v>-2.647646023275</v>
-      </c>
-      <c r="C279" t="s">
-        <v>20</v>
-      </c>
-      <c r="D279" t="s">
-        <v>86</v>
-      </c>
-      <c r="E279" t="s">
-        <v>99</v>
-      </c>
-      <c r="G279" t="s">
-        <v>153</v>
-      </c>
-      <c r="H279" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>80</v>
       </c>
       <c r="B280">
-        <v>-0.00316</v>
+        <v>0.063</v>
       </c>
       <c r="C280" t="s">
+        <v>138</v>
+      </c>
+      <c r="D280" t="s">
+        <v>85</v>
+      </c>
+      <c r="E280" t="s">
+        <v>88</v>
+      </c>
+      <c r="F280" t="s">
+        <v>152</v>
+      </c>
+      <c r="G280" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>80</v>
+      </c>
+      <c r="B281">
+        <v>0.008</v>
+      </c>
+      <c r="C281" t="s">
+        <v>138</v>
+      </c>
+      <c r="D281" t="s">
+        <v>85</v>
+      </c>
+      <c r="E281" t="s">
+        <v>88</v>
+      </c>
+      <c r="F281" t="s">
+        <v>152</v>
+      </c>
+      <c r="G281" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>81</v>
+      </c>
+      <c r="B282">
+        <v>0.00727</v>
+      </c>
+      <c r="C282" t="s">
+        <v>112</v>
+      </c>
+      <c r="D282" t="s">
+        <v>143</v>
+      </c>
+      <c r="E282" t="s">
+        <v>88</v>
+      </c>
+      <c r="F282" t="s">
+        <v>152</v>
+      </c>
+      <c r="G282" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>44</v>
+      </c>
+      <c r="B283">
+        <v>0.0028</v>
+      </c>
+      <c r="C283" t="s">
+        <v>111</v>
+      </c>
+      <c r="D283" t="s">
+        <v>143</v>
+      </c>
+      <c r="E283" t="s">
+        <v>88</v>
+      </c>
+      <c r="F283" t="s">
+        <v>152</v>
+      </c>
+      <c r="G283" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>63</v>
+      </c>
+      <c r="B284">
+        <v>2.6E-05</v>
+      </c>
+      <c r="C284" t="s">
+        <v>126</v>
+      </c>
+      <c r="D284" t="s">
+        <v>143</v>
+      </c>
+      <c r="E284" t="s">
+        <v>96</v>
+      </c>
+      <c r="F284" t="s">
+        <v>152</v>
+      </c>
+      <c r="G284" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>82</v>
+      </c>
+      <c r="B285">
+        <v>0.000181</v>
+      </c>
+      <c r="C285" t="s">
         <v>139</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D285" t="s">
         <v>146</v>
       </c>
-      <c r="E280" t="s">
-        <v>89</v>
-      </c>
-      <c r="G280" t="s">
-        <v>153</v>
-      </c>
-      <c r="H280" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>8</v>
-      </c>
-      <c r="B282" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>9</v>
-      </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" t="s">
-        <v>10</v>
-      </c>
-      <c r="B284" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" t="s">
-        <v>11</v>
-      </c>
-      <c r="B285" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+      <c r="E285" t="s">
+        <v>96</v>
+      </c>
+      <c r="F285" t="s">
+        <v>152</v>
+      </c>
+      <c r="G285" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>12</v>
-      </c>
-      <c r="B286" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="B286">
+        <v>0.00333</v>
+      </c>
+      <c r="C286" t="s">
+        <v>140</v>
+      </c>
+      <c r="D286" t="s">
+        <v>85</v>
+      </c>
+      <c r="E286" t="s">
+        <v>96</v>
+      </c>
+      <c r="F286" t="s">
+        <v>152</v>
+      </c>
+      <c r="G286" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" t="s">
-        <v>14</v>
-      </c>
-      <c r="B288" t="s">
-        <v>87</v>
-      </c>
-      <c r="C288" t="s">
-        <v>10</v>
-      </c>
-      <c r="D288" t="s">
-        <v>11</v>
-      </c>
-      <c r="E288" t="s">
-        <v>12</v>
-      </c>
-      <c r="F288" t="s">
-        <v>151</v>
-      </c>
-      <c r="G288" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" t="s">
-        <v>78</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-      <c r="C289" t="s">
-        <v>78</v>
-      </c>
-      <c r="D289" t="s">
-        <v>86</v>
-      </c>
-      <c r="E289" t="s">
-        <v>12</v>
-      </c>
-      <c r="F289" t="s">
-        <v>152</v>
-      </c>
-      <c r="G289" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" t="s">
-        <v>81</v>
-      </c>
-      <c r="B290">
-        <v>0.063</v>
-      </c>
-      <c r="C290" t="s">
-        <v>140</v>
-      </c>
-      <c r="D290" t="s">
-        <v>86</v>
-      </c>
-      <c r="E290" t="s">
-        <v>89</v>
-      </c>
-      <c r="F290" t="s">
-        <v>153</v>
-      </c>
-      <c r="G290" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" t="s">
-        <v>81</v>
-      </c>
-      <c r="B291">
-        <v>0.008</v>
-      </c>
-      <c r="C291" t="s">
-        <v>140</v>
-      </c>
-      <c r="D291" t="s">
-        <v>86</v>
-      </c>
-      <c r="E291" t="s">
-        <v>89</v>
-      </c>
-      <c r="F291" t="s">
-        <v>153</v>
-      </c>
-      <c r="G291" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" t="s">
-        <v>82</v>
-      </c>
-      <c r="B292">
-        <v>0.00727</v>
-      </c>
-      <c r="C292" t="s">
-        <v>113</v>
-      </c>
-      <c r="D292" t="s">
-        <v>144</v>
-      </c>
-      <c r="E292" t="s">
-        <v>89</v>
-      </c>
-      <c r="F292" t="s">
-        <v>153</v>
-      </c>
-      <c r="G292" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" t="s">
-        <v>44</v>
-      </c>
-      <c r="B293">
-        <v>0.0028</v>
-      </c>
-      <c r="C293" t="s">
-        <v>112</v>
-      </c>
-      <c r="D293" t="s">
-        <v>144</v>
-      </c>
-      <c r="E293" t="s">
-        <v>89</v>
-      </c>
-      <c r="F293" t="s">
-        <v>153</v>
-      </c>
-      <c r="G293" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" t="s">
         <v>63</v>
       </c>
-      <c r="B294">
-        <v>2.6E-05</v>
-      </c>
-      <c r="C294" t="s">
-        <v>127</v>
-      </c>
-      <c r="D294" t="s">
-        <v>144</v>
-      </c>
-      <c r="E294" t="s">
-        <v>97</v>
-      </c>
-      <c r="F294" t="s">
-        <v>153</v>
-      </c>
-      <c r="G294" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" t="s">
-        <v>83</v>
-      </c>
-      <c r="B295">
-        <v>0.000181</v>
-      </c>
-      <c r="C295" t="s">
-        <v>141</v>
-      </c>
-      <c r="D295" t="s">
-        <v>148</v>
-      </c>
-      <c r="E295" t="s">
-        <v>97</v>
-      </c>
-      <c r="F295" t="s">
-        <v>153</v>
-      </c>
-      <c r="G295" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" t="s">
-        <v>84</v>
-      </c>
-      <c r="B296">
-        <v>0.00333</v>
-      </c>
-      <c r="C296" t="s">
-        <v>142</v>
-      </c>
-      <c r="D296" t="s">
-        <v>86</v>
-      </c>
-      <c r="E296" t="s">
-        <v>97</v>
-      </c>
-      <c r="F296" t="s">
-        <v>153</v>
-      </c>
-      <c r="G296" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" t="s">
-        <v>63</v>
-      </c>
-      <c r="B297">
+      <c r="B287">
         <v>4.13E-05</v>
       </c>
-      <c r="C297" t="s">
-        <v>127</v>
-      </c>
-      <c r="D297" t="s">
-        <v>144</v>
-      </c>
-      <c r="E297" t="s">
-        <v>97</v>
-      </c>
-      <c r="F297" t="s">
-        <v>153</v>
-      </c>
-      <c r="G297" t="s">
-        <v>157</v>
+      <c r="C287" t="s">
+        <v>126</v>
+      </c>
+      <c r="D287" t="s">
+        <v>143</v>
+      </c>
+      <c r="E287" t="s">
+        <v>96</v>
+      </c>
+      <c r="F287" t="s">
+        <v>152</v>
+      </c>
+      <c r="G287" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Data/databases/temp.xlsx
+++ b/Data/databases/temp.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="154">
   <si>
     <t>Database</t>
   </si>
   <si>
-    <t>case2_cut_off</t>
+    <t>case2_consq</t>
   </si>
   <si>
     <t>Unnamed: 2</t>
@@ -76,7 +76,7 @@
     <t>market for electricity, high voltage</t>
   </si>
   <si>
-    <t>mixed heating grid</t>
+    <t>marginal heating grid</t>
   </si>
   <si>
     <t>transport</t>
@@ -208,31 +208,16 @@
     <t>market for transport, freight, lorry 16-32 metric ton, EURO6</t>
   </si>
   <si>
-    <t>heat production from hot water</t>
-  </si>
-  <si>
-    <t>Energy, solar, converted</t>
-  </si>
-  <si>
-    <t>auxiliary heating unit production, electric, 5kW</t>
-  </si>
-  <si>
-    <t>solar collector system installation, Cu flat plate collector, multiple dwelling, hot water</t>
-  </si>
-  <si>
-    <t>heat production, at hard coal industrial furnace 1-10MW</t>
-  </si>
-  <si>
-    <t>heat production, hardwood chips from forest, at furnace 5000kW, state-of-the-art 2014</t>
-  </si>
-  <si>
-    <t>heat production, natural gas, at industrial furnace low-NOx &gt;100kW</t>
-  </si>
-  <si>
     <t>heat production, wood pellet, at furnace 300kW, state-of-the-art 2014</t>
   </si>
   <si>
-    <t>heavy fuel oil, burned in refinery furnace</t>
+    <t>heat production, hardwood chips from forest, at furnace 5000kW</t>
+  </si>
+  <si>
+    <t>heat production, air-water heat pump 10kW</t>
+  </si>
+  <si>
+    <t>heat production, at heat pump 30kW, allocation exergy</t>
   </si>
   <si>
     <t>treatment of hazardous waste, hazardous waste incineration</t>
@@ -247,25 +232,40 @@
     <t>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</t>
   </si>
   <si>
+    <t>market for electricity, for reuse in municipal waste incineration only</t>
+  </si>
+  <si>
+    <t>market for heat, for reuse in municipal waste incineration only</t>
+  </si>
+  <si>
     <t>H200</t>
   </si>
   <si>
+    <t>waste polypropylene</t>
+  </si>
+  <si>
+    <t>waste polyethylene</t>
+  </si>
+  <si>
+    <t>treatment of waste paper, unsorted, sorting</t>
+  </si>
+  <si>
+    <t>market for textile, nonwoven polypropylene</t>
+  </si>
+  <si>
+    <t>packaging film production, low density polyethylene</t>
+  </si>
+  <si>
+    <t>market for transport, freight train</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, container ship</t>
+  </si>
+  <si>
     <t>treatment of waste polypropylene, municipal incineration with fly ash extraction</t>
   </si>
   <si>
-    <t>treatment of waste paper, unsorted, sorting</t>
-  </si>
-  <si>
-    <t>market for textile, nonwoven polypropylene</t>
-  </si>
-  <si>
-    <t>packaging film production, low density polyethylene</t>
-  </si>
-  <si>
-    <t>market for transport, freight train</t>
-  </si>
-  <si>
-    <t>market for transport, freight, sea, container ship</t>
+    <t>market for heat pump, 30kW</t>
   </si>
   <si>
     <t>single use diathermy</t>
@@ -316,10 +316,19 @@
     <t>H2S</t>
   </si>
   <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, other than natural gas</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
     <t>electricity, high voltage</t>
   </si>
   <si>
-    <t>deinked pulp, wet lap</t>
+    <t>waste paper, unsorted</t>
   </si>
   <si>
     <t>electricity, medium voltage</t>
@@ -397,19 +406,10 @@
     <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
   </si>
   <si>
-    <t>auxiliary heating unit, electric, 5kW</t>
-  </si>
-  <si>
-    <t>solar collector system, Cu flat plate collector, multiple dwelling, hot water</t>
-  </si>
-  <si>
     <t>heat, district or industrial, other than natural gas</t>
   </si>
   <si>
-    <t>heat, district or industrial, natural gas</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, other than natural gas</t>
+    <t>heat, air-water heat pump 10kW</t>
   </si>
   <si>
     <t>hazardous waste, for incineration</t>
@@ -418,16 +418,13 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>waste polyethylene</t>
-  </si>
-  <si>
     <t>waste plastic, mixture</t>
   </si>
   <si>
-    <t>waste polypropylene</t>
-  </si>
-  <si>
-    <t>waste paper, sorted</t>
+    <t>electricity, for reuse in municipal waste incineration only</t>
+  </si>
+  <si>
+    <t>heat, for reuse in municipal waste incineration only</t>
   </si>
   <si>
     <t>textile, nonwoven polypropylene</t>
@@ -439,7 +436,7 @@
     <t>transport, freight, sea, container ship</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>heat pump, 30kW</t>
   </si>
   <si>
     <t>RoW</t>
@@ -451,7 +448,7 @@
     <t>Europe without Switzerland</t>
   </si>
   <si>
-    <t>CH</t>
+    <t>ROW</t>
   </si>
   <si>
     <t>US</t>
@@ -475,22 +472,10 @@
     <t>technosphere</t>
   </si>
   <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
     <t>database</t>
   </si>
   <si>
-    <t>case2_apos</t>
-  </si>
-  <si>
-    <t>ev391cutof</t>
-  </si>
-  <si>
-    <t>biosphere</t>
-  </si>
-  <si>
-    <t>biosphere3</t>
+    <t>ev391consq</t>
   </si>
 </sst>
 </file>
@@ -848,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,13 +927,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" t="s">
         <v>149</v>
       </c>
-      <c r="G9" t="s">
-        <v>150</v>
-      </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -968,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -991,7 +976,7 @@
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
@@ -1014,7 +999,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
@@ -1037,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
         <v>1</v>
@@ -1051,19 +1036,19 @@
         <v>-0.8410066</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1083,7 +1068,7 @@
         <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
         <v>1</v>
@@ -1106,7 +1091,7 @@
         <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
         <v>1</v>
@@ -1129,7 +1114,7 @@
         <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
         <v>1</v>
@@ -1152,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
@@ -1166,16 +1151,16 @@
         <v>-0.00147402197973334</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
         <v>1</v>
@@ -1243,13 +1228,13 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" t="s">
         <v>149</v>
       </c>
-      <c r="G27" t="s">
-        <v>150</v>
-      </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1269,7 +1254,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
         <v>1</v>
@@ -1292,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -1315,7 +1300,7 @@
         <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
         <v>1</v>
@@ -1338,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
         <v>1</v>
@@ -1361,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
         <v>1</v>
@@ -1384,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" t="s">
         <v>1</v>
@@ -1407,10 +1392,10 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1430,7 +1415,7 @@
         <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H35" t="s">
         <v>1</v>
@@ -1453,7 +1438,7 @@
         <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H36" t="s">
         <v>1</v>
@@ -1467,19 +1452,19 @@
         <v>-0.191017952219363</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1499,7 +1484,7 @@
         <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H38" t="s">
         <v>1</v>
@@ -1522,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H39" t="s">
         <v>1</v>
@@ -1545,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H40" t="s">
         <v>1</v>
@@ -1613,13 +1598,13 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" t="s">
         <v>149</v>
       </c>
-      <c r="G48" t="s">
-        <v>150</v>
-      </c>
       <c r="H48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1639,10 +1624,10 @@
         <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1653,19 +1638,19 @@
         <v>0.517616381850369</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
         <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1676,7 +1661,7 @@
         <v>503.113060897341</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
         <v>85</v>
@@ -1685,10 +1670,10 @@
         <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1699,19 +1684,19 @@
         <v>-0.472423164182603</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1776,13 +1761,13 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" t="s">
         <v>149</v>
       </c>
-      <c r="G60" t="s">
-        <v>150</v>
-      </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1802,10 +1787,10 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H61" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1816,7 +1801,7 @@
         <v>0.0081936987704918</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
         <v>85</v>
@@ -1825,10 +1810,10 @@
         <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H62" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -1839,7 +1824,7 @@
         <v>0.003849</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
         <v>85</v>
@@ -1848,10 +1833,10 @@
         <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -1862,19 +1847,19 @@
         <v>0.000306352459016393</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E64" t="s">
         <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -1885,7 +1870,7 @@
         <v>0.0081936987704918</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
         <v>85</v>
@@ -1894,10 +1879,10 @@
         <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1908,19 +1893,19 @@
         <v>0.00486127049180327</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
         <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -1931,7 +1916,7 @@
         <v>0.00936116803278688</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
         <v>85</v>
@@ -1940,10 +1925,10 @@
         <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H67" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2008,13 +1993,13 @@
         <v>12</v>
       </c>
       <c r="F75" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" t="s">
         <v>149</v>
       </c>
-      <c r="G75" t="s">
-        <v>150</v>
-      </c>
       <c r="H75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2034,10 +2019,10 @@
         <v>88</v>
       </c>
       <c r="G76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H76" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2048,19 +2033,19 @@
         <v>0.0488576587057554</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
         <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2071,7 +2056,7 @@
         <v>0.659432659451237</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
         <v>85</v>
@@ -2080,10 +2065,10 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2094,19 +2079,19 @@
         <v>0.291709681843007</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
         <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2171,13 +2156,13 @@
         <v>12</v>
       </c>
       <c r="F87" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87" t="s">
         <v>149</v>
       </c>
-      <c r="G87" t="s">
-        <v>150</v>
-      </c>
       <c r="H87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2197,10 +2182,10 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H88" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2211,7 +2196,7 @@
         <v>0.0452187</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D89" t="s">
         <v>85</v>
@@ -2220,10 +2205,10 @@
         <v>88</v>
       </c>
       <c r="G89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2234,7 +2219,7 @@
         <v>0.0002702</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
         <v>85</v>
@@ -2243,10 +2228,10 @@
         <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2266,10 +2251,10 @@
         <v>88</v>
       </c>
       <c r="G91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H91" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2289,10 +2274,10 @@
         <v>88</v>
       </c>
       <c r="G92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2303,19 +2288,19 @@
         <v>0.1601483</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D93" t="s">
         <v>85</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H93" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2380,13 +2365,13 @@
         <v>12</v>
       </c>
       <c r="F101" t="s">
+        <v>148</v>
+      </c>
+      <c r="G101" t="s">
         <v>149</v>
       </c>
-      <c r="G101" t="s">
-        <v>150</v>
-      </c>
       <c r="H101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2406,10 +2391,10 @@
         <v>88</v>
       </c>
       <c r="G102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H102" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -2420,7 +2405,7 @@
         <v>0.075</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
         <v>85</v>
@@ -2429,10 +2414,10 @@
         <v>88</v>
       </c>
       <c r="G103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H103" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2443,7 +2428,7 @@
         <v>0.925</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
         <v>85</v>
@@ -2452,10 +2437,10 @@
         <v>88</v>
       </c>
       <c r="G104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H104" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -2520,13 +2505,13 @@
         <v>12</v>
       </c>
       <c r="F112" t="s">
+        <v>148</v>
+      </c>
+      <c r="G112" t="s">
         <v>149</v>
       </c>
-      <c r="G112" t="s">
-        <v>150</v>
-      </c>
       <c r="H112" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -2546,10 +2531,10 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H113" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -2560,7 +2545,7 @@
         <v>3.2790945E-05</v>
       </c>
       <c r="C114" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D114" t="s">
         <v>85</v>
@@ -2569,10 +2554,10 @@
         <v>88</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H114" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -2583,19 +2568,19 @@
         <v>2.20411595174872E-05</v>
       </c>
       <c r="C115" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E115" t="s">
         <v>88</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H115" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -2606,19 +2591,19 @@
         <v>2.15801068272796E-07</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E116" t="s">
         <v>88</v>
       </c>
       <c r="G116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H116" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -2629,7 +2614,7 @@
         <v>5.22129092734137E-07</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D117" t="s">
         <v>85</v>
@@ -2638,10 +2623,10 @@
         <v>88</v>
       </c>
       <c r="G117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H117" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -2652,7 +2637,7 @@
         <v>3.10593519238663E-06</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D118" t="s">
         <v>85</v>
@@ -2661,10 +2646,10 @@
         <v>88</v>
       </c>
       <c r="G118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H118" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -2684,10 +2669,10 @@
         <v>88</v>
       </c>
       <c r="G119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -2752,13 +2737,13 @@
         <v>12</v>
       </c>
       <c r="F127" t="s">
+        <v>148</v>
+      </c>
+      <c r="G127" t="s">
         <v>149</v>
       </c>
-      <c r="G127" t="s">
-        <v>150</v>
-      </c>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -2778,10 +2763,10 @@
         <v>88</v>
       </c>
       <c r="G128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -2792,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D129" t="s">
         <v>85</v>
@@ -2801,10 +2786,10 @@
         <v>88</v>
       </c>
       <c r="G129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -2869,13 +2854,13 @@
         <v>12</v>
       </c>
       <c r="F137" t="s">
+        <v>148</v>
+      </c>
+      <c r="G137" t="s">
         <v>149</v>
       </c>
-      <c r="G137" t="s">
-        <v>150</v>
-      </c>
       <c r="H137" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -2895,10 +2880,10 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H138" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -2912,16 +2897,16 @@
         <v>56</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E139" t="s">
         <v>88</v>
       </c>
       <c r="G139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H139" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -2935,16 +2920,16 @@
         <v>57</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E140" t="s">
         <v>88</v>
       </c>
       <c r="G140" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H140" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -2955,7 +2940,7 @@
         <v>0.0001808748</v>
       </c>
       <c r="C141" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D141" t="s">
         <v>85</v>
@@ -2964,10 +2949,10 @@
         <v>88</v>
       </c>
       <c r="G141" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H141" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -2987,10 +2972,10 @@
         <v>88</v>
       </c>
       <c r="G142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H142" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3010,10 +2995,10 @@
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H143" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3024,7 +3009,7 @@
         <v>0.0277777777777777</v>
       </c>
       <c r="C144" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D144" t="s">
         <v>85</v>
@@ -3033,10 +3018,10 @@
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H144" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3101,13 +3086,13 @@
         <v>12</v>
       </c>
       <c r="F152" t="s">
+        <v>148</v>
+      </c>
+      <c r="G152" t="s">
         <v>149</v>
       </c>
-      <c r="G152" t="s">
-        <v>150</v>
-      </c>
       <c r="H152" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -3126,14 +3111,11 @@
       <c r="E153" t="s">
         <v>12</v>
       </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
       <c r="G153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H153" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -3144,7 +3126,7 @@
         <v>0.00167999999999999</v>
       </c>
       <c r="C154" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D154" t="s">
         <v>85</v>
@@ -3152,14 +3134,11 @@
       <c r="E154" t="s">
         <v>88</v>
       </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
       <c r="G154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H154" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -3178,14 +3157,11 @@
       <c r="E155" t="s">
         <v>88</v>
       </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
       <c r="G155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H155" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -3250,10 +3226,10 @@
         <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G163" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3273,10 +3249,10 @@
         <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G164" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3287,19 +3263,19 @@
         <v>0.0052</v>
       </c>
       <c r="C165" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E165" t="s">
         <v>88</v>
       </c>
       <c r="F165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G165" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3310,19 +3286,19 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D166" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E166" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F166" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G166" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -3333,19 +3309,19 @@
         <v>70</v>
       </c>
       <c r="C167" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E167" t="s">
         <v>88</v>
       </c>
       <c r="F167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G167" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3356,19 +3332,19 @@
         <v>140</v>
       </c>
       <c r="C168" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D168" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E168" t="s">
         <v>88</v>
       </c>
       <c r="F168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G168" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3379,19 +3355,19 @@
         <v>-0.21</v>
       </c>
       <c r="C169" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G169" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3456,13 +3432,13 @@
         <v>12</v>
       </c>
       <c r="F177" t="s">
+        <v>148</v>
+      </c>
+      <c r="G177" t="s">
         <v>149</v>
       </c>
-      <c r="G177" t="s">
-        <v>150</v>
-      </c>
       <c r="H177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -3482,10 +3458,10 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H178" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -3496,19 +3472,19 @@
         <v>10.9</v>
       </c>
       <c r="C179" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D179" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G179" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H179" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -3519,19 +3495,19 @@
         <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D180" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E180" t="s">
         <v>88</v>
       </c>
       <c r="G180" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H180" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -3542,19 +3518,19 @@
         <v>-0.28</v>
       </c>
       <c r="C181" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G181" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H181" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -3619,13 +3595,13 @@
         <v>12</v>
       </c>
       <c r="F189" t="s">
+        <v>148</v>
+      </c>
+      <c r="G189" t="s">
         <v>149</v>
       </c>
-      <c r="G189" t="s">
-        <v>150</v>
-      </c>
       <c r="H189" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -3645,10 +3621,10 @@
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H190" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -3659,19 +3635,19 @@
         <v>0.07066666666666667</v>
       </c>
       <c r="C191" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D191" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G191" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H191" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -3736,13 +3712,13 @@
         <v>12</v>
       </c>
       <c r="F199" t="s">
+        <v>148</v>
+      </c>
+      <c r="G199" t="s">
         <v>149</v>
       </c>
-      <c r="G199" t="s">
-        <v>150</v>
-      </c>
       <c r="H199" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -3762,10 +3738,10 @@
         <v>96</v>
       </c>
       <c r="G200" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H200" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -3776,19 +3752,19 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D201" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E201" t="s">
         <v>96</v>
       </c>
       <c r="G201" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H201" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -3796,7 +3772,7 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -3812,7 +3788,7 @@
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -3853,24 +3829,24 @@
         <v>12</v>
       </c>
       <c r="F209" t="s">
+        <v>148</v>
+      </c>
+      <c r="G209" t="s">
         <v>149</v>
       </c>
-      <c r="G209" t="s">
-        <v>150</v>
-      </c>
       <c r="H209" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D210" t="s">
         <v>85</v>
@@ -3879,44 +3855,47 @@
         <v>97</v>
       </c>
       <c r="G210" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H210" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B211">
-        <v>0.28851</v>
+        <v>0.135</v>
+      </c>
+      <c r="C211" t="s">
+        <v>101</v>
+      </c>
+      <c r="D211" t="s">
+        <v>100</v>
       </c>
       <c r="E211" t="s">
         <v>97</v>
       </c>
-      <c r="F211" t="s">
-        <v>153</v>
-      </c>
       <c r="G211" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H211" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0.135</v>
       </c>
       <c r="C212" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D212" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E212" t="s">
         <v>97</v>
@@ -3925,7 +3904,7 @@
         <v>151</v>
       </c>
       <c r="H212" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -3933,385 +3912,385 @@
         <v>66</v>
       </c>
       <c r="B213">
-        <v>6.5545E-08</v>
+        <v>0.365</v>
       </c>
       <c r="C213" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D213" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G213" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H213" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B214">
-        <v>0.23457</v>
+        <v>0.365</v>
       </c>
       <c r="C214" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D214" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E214" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="G214" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H214" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
-        <v>67</v>
-      </c>
-      <c r="B215">
-        <v>6.5545E-08</v>
-      </c>
-      <c r="C215" t="s">
-        <v>128</v>
-      </c>
-      <c r="D215" t="s">
-        <v>145</v>
-      </c>
-      <c r="E215" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" t="s">
-        <v>152</v>
-      </c>
-      <c r="H215" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>8</v>
-      </c>
-      <c r="B217" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>9</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>12</v>
-      </c>
-      <c r="B221" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>86</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" t="s">
+        <v>148</v>
+      </c>
+      <c r="G222" t="s">
+        <v>149</v>
+      </c>
+      <c r="H222" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>14</v>
-      </c>
-      <c r="B223" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D223" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E223" t="s">
-        <v>12</v>
-      </c>
-      <c r="F223" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="G223" t="s">
         <v>150</v>
       </c>
       <c r="H223" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="D224" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="E224" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G224" t="s">
         <v>151</v>
       </c>
       <c r="H224" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B225">
-        <v>0.1026</v>
+        <v>0.271672758270046</v>
       </c>
       <c r="C225" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="D225" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E225" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G225" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H225" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B226">
-        <v>0.0513</v>
+        <v>0.527439277456811</v>
       </c>
       <c r="C226" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="D226" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E226" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G226" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H226" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B227">
-        <v>0.4487</v>
+        <v>0.159333833362503</v>
       </c>
       <c r="C227" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D227" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E227" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G227" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H227" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B228">
-        <v>0.20513</v>
+        <v>-1.093036505196165</v>
       </c>
       <c r="C228" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D228" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E228" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="G228" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H228" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B229">
-        <v>0.1795</v>
+        <v>-7.635351927512012</v>
       </c>
       <c r="C229" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D229" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E229" t="s">
         <v>97</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>72</v>
-      </c>
-      <c r="B230">
-        <v>0.0128</v>
-      </c>
-      <c r="C230" t="s">
-        <v>72</v>
-      </c>
-      <c r="D230" t="s">
-        <v>144</v>
-      </c>
-      <c r="E230" t="s">
-        <v>97</v>
-      </c>
-      <c r="G230" t="s">
-        <v>152</v>
-      </c>
-      <c r="H230" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>8</v>
-      </c>
-      <c r="B232" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>9</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>12</v>
-      </c>
-      <c r="B236" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>86</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" t="s">
+        <v>148</v>
+      </c>
+      <c r="G237" t="s">
+        <v>149</v>
+      </c>
+      <c r="H237" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>14</v>
-      </c>
-      <c r="B238" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
-      </c>
-      <c r="F238" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="G238" t="s">
         <v>150</v>
       </c>
       <c r="H238" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C239" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D239" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="E239" t="s">
         <v>88</v>
@@ -4320,99 +4299,99 @@
         <v>151</v>
       </c>
       <c r="H239" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B240">
-        <v>0.0415541309106406</v>
+        <v>0.527439277456811</v>
       </c>
       <c r="C240" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D240" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E240" t="s">
         <v>88</v>
       </c>
       <c r="G240" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H240" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B241">
-        <v>0.271672758270046</v>
+        <v>0.159333833362503</v>
       </c>
       <c r="C241" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D241" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E241" t="s">
         <v>88</v>
       </c>
       <c r="G241" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H241" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B242">
-        <v>0.527439277456811</v>
+        <v>-0.9878692637422475</v>
       </c>
       <c r="C242" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D242" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E242" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="G242" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H242" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B243">
-        <v>0.159333833362503</v>
+        <v>-6.860948730063246</v>
       </c>
       <c r="C243" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D243" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E243" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G243" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H243" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -4420,7 +4399,7 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -4436,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="B247" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -4452,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -4477,59 +4456,59 @@
         <v>12</v>
       </c>
       <c r="F251" t="s">
+        <v>148</v>
+      </c>
+      <c r="G251" t="s">
         <v>149</v>
       </c>
-      <c r="G251" t="s">
-        <v>150</v>
-      </c>
       <c r="H251" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D252" t="s">
         <v>85</v>
       </c>
       <c r="E252" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G252" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H252" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B253">
-        <v>0.0415541309106406</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="D253" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="E253" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G253" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H253" t="s">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -4537,22 +4516,22 @@
         <v>75</v>
       </c>
       <c r="B254">
-        <v>0.527439277456811</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="C254" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="D254" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E254" t="s">
         <v>88</v>
       </c>
       <c r="G254" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H254" t="s">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -4560,231 +4539,231 @@
         <v>76</v>
       </c>
       <c r="B255">
-        <v>0.159333833362503</v>
+        <v>-0.00727</v>
       </c>
       <c r="C255" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="D255" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E255" t="s">
         <v>88</v>
       </c>
       <c r="G255" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H255" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>19</v>
+      </c>
+      <c r="B256">
+        <v>-0.1470914457375</v>
+      </c>
+      <c r="C256" t="s">
+        <v>103</v>
+      </c>
+      <c r="D256" t="s">
+        <v>102</v>
+      </c>
+      <c r="E256" t="s">
+        <v>146</v>
+      </c>
+      <c r="G256" t="s">
+        <v>151</v>
+      </c>
+      <c r="H256" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>8</v>
-      </c>
-      <c r="B257" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B257">
+        <v>-2.647646023275</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" t="s">
+        <v>85</v>
+      </c>
+      <c r="E257" t="s">
+        <v>97</v>
+      </c>
+      <c r="G257" t="s">
+        <v>151</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" t="s">
-        <v>10</v>
-      </c>
-      <c r="B259" t="s">
-        <v>99</v>
+        <v>-0.00316</v>
+      </c>
+      <c r="C258" t="s">
+        <v>104</v>
+      </c>
+      <c r="D258" t="s">
+        <v>144</v>
+      </c>
+      <c r="E258" t="s">
+        <v>88</v>
+      </c>
+      <c r="G258" t="s">
+        <v>151</v>
+      </c>
+      <c r="H258" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B260" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>12</v>
-      </c>
-      <c r="B261" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B262" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B263" t="s">
-        <v>86</v>
-      </c>
-      <c r="C263" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" t="s">
-        <v>11</v>
-      </c>
-      <c r="E263" t="s">
-        <v>12</v>
-      </c>
-      <c r="F263" t="s">
-        <v>149</v>
-      </c>
-      <c r="G263" t="s">
-        <v>150</v>
-      </c>
-      <c r="H263" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>30</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>99</v>
-      </c>
-      <c r="D264" t="s">
-        <v>85</v>
-      </c>
-      <c r="E264" t="s">
-        <v>12</v>
-      </c>
-      <c r="G264" t="s">
-        <v>151</v>
-      </c>
-      <c r="H264" t="s">
-        <v>155</v>
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>77</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="C265" t="s">
-        <v>77</v>
-      </c>
-      <c r="D265" t="s">
-        <v>85</v>
-      </c>
-      <c r="E265" t="s">
-        <v>12</v>
-      </c>
-      <c r="G265" t="s">
-        <v>152</v>
-      </c>
-      <c r="H265" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>78</v>
-      </c>
-      <c r="B266">
-        <v>-0.07099999999999999</v>
+        <v>14</v>
+      </c>
+      <c r="B266" t="s">
+        <v>86</v>
       </c>
       <c r="C266" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="D266" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="E266" t="s">
-        <v>88</v>
+        <v>12</v>
+      </c>
+      <c r="F266" t="s">
+        <v>148</v>
       </c>
       <c r="G266" t="s">
+        <v>149</v>
+      </c>
+      <c r="H266" t="s">
         <v>152</v>
-      </c>
-      <c r="H266" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B267">
-        <v>-0.00727</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D267" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="E267" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G267" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H267" t="s">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B268">
-        <v>-0.1470914457375</v>
+        <v>0.063</v>
       </c>
       <c r="C268" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D268" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="E268" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="G268" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H268" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B269">
-        <v>-2.647646023275</v>
+        <v>0.008</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D269" t="s">
         <v>85</v>
       </c>
       <c r="E269" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G269" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H269" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -4792,297 +4771,603 @@
         <v>79</v>
       </c>
       <c r="B270">
-        <v>-0.00316</v>
+        <v>0.00727</v>
       </c>
       <c r="C270" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D270" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E270" t="s">
         <v>88</v>
       </c>
       <c r="G270" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H270" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>44</v>
+      </c>
+      <c r="B271">
+        <v>0.0028</v>
+      </c>
+      <c r="C271" t="s">
+        <v>114</v>
+      </c>
+      <c r="D271" t="s">
+        <v>142</v>
+      </c>
+      <c r="E271" t="s">
+        <v>88</v>
+      </c>
+      <c r="G271" t="s">
+        <v>151</v>
+      </c>
+      <c r="H271" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
+        <v>63</v>
+      </c>
+      <c r="B272">
+        <v>2.6E-05</v>
+      </c>
+      <c r="C272" t="s">
+        <v>129</v>
+      </c>
+      <c r="D272" t="s">
+        <v>142</v>
+      </c>
+      <c r="E272" t="s">
+        <v>96</v>
+      </c>
+      <c r="G272" t="s">
+        <v>151</v>
+      </c>
+      <c r="H272" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>80</v>
+      </c>
+      <c r="B273">
+        <v>0.000181</v>
+      </c>
+      <c r="C273" t="s">
+        <v>138</v>
+      </c>
+      <c r="D273" t="s">
+        <v>145</v>
+      </c>
+      <c r="E273" t="s">
+        <v>96</v>
+      </c>
+      <c r="G273" t="s">
+        <v>151</v>
+      </c>
+      <c r="H273" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>81</v>
+      </c>
+      <c r="B274">
+        <v>0.00333</v>
+      </c>
+      <c r="C274" t="s">
+        <v>139</v>
+      </c>
+      <c r="D274" t="s">
+        <v>85</v>
+      </c>
+      <c r="E274" t="s">
+        <v>96</v>
+      </c>
+      <c r="G274" t="s">
+        <v>151</v>
+      </c>
+      <c r="H274" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>63</v>
+      </c>
+      <c r="B275">
+        <v>4.13E-05</v>
+      </c>
+      <c r="C275" t="s">
+        <v>129</v>
+      </c>
+      <c r="D275" t="s">
+        <v>142</v>
+      </c>
+      <c r="E275" t="s">
+        <v>96</v>
+      </c>
+      <c r="G275" t="s">
+        <v>151</v>
+      </c>
+      <c r="H275" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
         <v>8</v>
       </c>
-      <c r="B272" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" t="s">
+      <c r="B277" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
         <v>9</v>
       </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" t="s">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
         <v>10</v>
       </c>
-      <c r="B274" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" t="s">
+      <c r="B279" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
         <v>11</v>
       </c>
-      <c r="B275" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" t="s">
-        <v>12</v>
-      </c>
-      <c r="B276" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" t="s">
+      <c r="B280" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
-      <c r="A278" t="s">
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
         <v>14</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B283" t="s">
         <v>86</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C283" t="s">
         <v>10</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D283" t="s">
         <v>11</v>
       </c>
-      <c r="E278" t="s">
-        <v>12</v>
-      </c>
-      <c r="F278" t="s">
+      <c r="E283" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" t="s">
+        <v>148</v>
+      </c>
+      <c r="G283" t="s">
+        <v>149</v>
+      </c>
+      <c r="H283" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>76</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>76</v>
+      </c>
+      <c r="D284" t="s">
+        <v>100</v>
+      </c>
+      <c r="E284" t="s">
+        <v>88</v>
+      </c>
+      <c r="G284" t="s">
         <v>150</v>
       </c>
-      <c r="G278" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" t="s">
-        <v>77</v>
-      </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279" t="s">
-        <v>77</v>
-      </c>
-      <c r="D279" t="s">
-        <v>85</v>
-      </c>
-      <c r="E279" t="s">
-        <v>12</v>
-      </c>
-      <c r="F279" t="s">
-        <v>151</v>
-      </c>
-      <c r="G279" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" t="s">
-        <v>80</v>
-      </c>
-      <c r="B280">
-        <v>0.063</v>
-      </c>
-      <c r="C280" t="s">
-        <v>138</v>
-      </c>
-      <c r="D280" t="s">
-        <v>85</v>
-      </c>
-      <c r="E280" t="s">
-        <v>88</v>
-      </c>
-      <c r="F280" t="s">
+      <c r="H284" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>70</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>76</v>
+      </c>
+      <c r="D285" t="s">
+        <v>100</v>
+      </c>
+      <c r="E285" t="s">
+        <v>88</v>
+      </c>
+      <c r="G285" t="s">
+        <v>151</v>
+      </c>
+      <c r="H285" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>72</v>
+      </c>
+      <c r="B286">
+        <v>-1.5428</v>
+      </c>
+      <c r="C286" t="s">
+        <v>135</v>
+      </c>
+      <c r="D286" t="s">
+        <v>100</v>
+      </c>
+      <c r="E286" t="s">
+        <v>146</v>
+      </c>
+      <c r="G286" t="s">
+        <v>151</v>
+      </c>
+      <c r="H286" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>73</v>
+      </c>
+      <c r="B287">
+        <v>-10.694</v>
+      </c>
+      <c r="C287" t="s">
+        <v>136</v>
+      </c>
+      <c r="D287" t="s">
+        <v>100</v>
+      </c>
+      <c r="E287" t="s">
+        <v>97</v>
+      </c>
+      <c r="G287" t="s">
+        <v>151</v>
+      </c>
+      <c r="H287" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" t="s">
+        <v>86</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" t="s">
+        <v>148</v>
+      </c>
+      <c r="G295" t="s">
+        <v>149</v>
+      </c>
+      <c r="H295" t="s">
         <v>152</v>
       </c>
-      <c r="G280" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" t="s">
-        <v>80</v>
-      </c>
-      <c r="B281">
-        <v>0.008</v>
-      </c>
-      <c r="C281" t="s">
-        <v>138</v>
-      </c>
-      <c r="D281" t="s">
-        <v>85</v>
-      </c>
-      <c r="E281" t="s">
-        <v>88</v>
-      </c>
-      <c r="F281" t="s">
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" t="s">
+        <v>75</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>75</v>
+      </c>
+      <c r="D296" t="s">
+        <v>100</v>
+      </c>
+      <c r="E296" t="s">
+        <v>88</v>
+      </c>
+      <c r="G296" t="s">
+        <v>150</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
+        <v>82</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>75</v>
+      </c>
+      <c r="D297" t="s">
+        <v>100</v>
+      </c>
+      <c r="E297" t="s">
+        <v>88</v>
+      </c>
+      <c r="G297" t="s">
+        <v>151</v>
+      </c>
+      <c r="H297" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>72</v>
+      </c>
+      <c r="B298">
+        <v>-1.1687</v>
+      </c>
+      <c r="C298" t="s">
+        <v>135</v>
+      </c>
+      <c r="D298" t="s">
+        <v>100</v>
+      </c>
+      <c r="E298" t="s">
+        <v>146</v>
+      </c>
+      <c r="G298" t="s">
+        <v>151</v>
+      </c>
+      <c r="H298" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>73</v>
+      </c>
+      <c r="B299">
+        <v>-8.1515</v>
+      </c>
+      <c r="C299" t="s">
+        <v>136</v>
+      </c>
+      <c r="D299" t="s">
+        <v>100</v>
+      </c>
+      <c r="E299" t="s">
+        <v>97</v>
+      </c>
+      <c r="G299" t="s">
+        <v>151</v>
+      </c>
+      <c r="H299" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>8</v>
+      </c>
+      <c r="B301" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
+        <v>9</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>86</v>
+      </c>
+      <c r="C307" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" t="s">
+        <v>12</v>
+      </c>
+      <c r="F307" t="s">
+        <v>148</v>
+      </c>
+      <c r="G307" t="s">
+        <v>149</v>
+      </c>
+      <c r="H307" t="s">
         <v>152</v>
       </c>
-      <c r="G281" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" t="s">
-        <v>81</v>
-      </c>
-      <c r="B282">
-        <v>0.00727</v>
-      </c>
-      <c r="C282" t="s">
-        <v>112</v>
-      </c>
-      <c r="D282" t="s">
-        <v>143</v>
-      </c>
-      <c r="E282" t="s">
-        <v>88</v>
-      </c>
-      <c r="F282" t="s">
-        <v>152</v>
-      </c>
-      <c r="G282" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" t="s">
-        <v>44</v>
-      </c>
-      <c r="B283">
-        <v>0.0028</v>
-      </c>
-      <c r="C283" t="s">
-        <v>111</v>
-      </c>
-      <c r="D283" t="s">
-        <v>143</v>
-      </c>
-      <c r="E283" t="s">
-        <v>88</v>
-      </c>
-      <c r="F283" t="s">
-        <v>152</v>
-      </c>
-      <c r="G283" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" t="s">
-        <v>63</v>
-      </c>
-      <c r="B284">
-        <v>2.6E-05</v>
-      </c>
-      <c r="C284" t="s">
-        <v>126</v>
-      </c>
-      <c r="D284" t="s">
-        <v>143</v>
-      </c>
-      <c r="E284" t="s">
-        <v>96</v>
-      </c>
-      <c r="F284" t="s">
-        <v>152</v>
-      </c>
-      <c r="G284" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" t="s">
-        <v>82</v>
-      </c>
-      <c r="B285">
-        <v>0.000181</v>
-      </c>
-      <c r="C285" t="s">
-        <v>139</v>
-      </c>
-      <c r="D285" t="s">
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>67</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>101</v>
+      </c>
+      <c r="D308" t="s">
+        <v>102</v>
+      </c>
+      <c r="E308" t="s">
+        <v>97</v>
+      </c>
+      <c r="G308" t="s">
+        <v>150</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" t="s">
+        <v>59</v>
+      </c>
+      <c r="B309">
+        <v>0.0617</v>
+      </c>
+      <c r="C309" t="s">
+        <v>125</v>
+      </c>
+      <c r="D309" t="s">
+        <v>102</v>
+      </c>
+      <c r="E309" t="s">
         <v>146</v>
       </c>
-      <c r="E285" t="s">
-        <v>96</v>
-      </c>
-      <c r="F285" t="s">
-        <v>152</v>
-      </c>
-      <c r="G285" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" t="s">
+      <c r="G309" t="s">
+        <v>151</v>
+      </c>
+      <c r="H309" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" t="s">
         <v>83</v>
       </c>
-      <c r="B286">
-        <v>0.00333</v>
-      </c>
-      <c r="C286" t="s">
+      <c r="B310">
+        <v>3.47E-08</v>
+      </c>
+      <c r="C310" t="s">
         <v>140</v>
       </c>
-      <c r="D286" t="s">
-        <v>85</v>
-      </c>
-      <c r="E286" t="s">
-        <v>96</v>
-      </c>
-      <c r="F286" t="s">
-        <v>152</v>
-      </c>
-      <c r="G286" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" t="s">
-        <v>63</v>
-      </c>
-      <c r="B287">
-        <v>4.13E-05</v>
-      </c>
-      <c r="C287" t="s">
-        <v>126</v>
-      </c>
-      <c r="D287" t="s">
-        <v>143</v>
-      </c>
-      <c r="E287" t="s">
-        <v>96</v>
-      </c>
-      <c r="F287" t="s">
-        <v>152</v>
-      </c>
-      <c r="G287" t="s">
-        <v>156</v>
+      <c r="D310" t="s">
+        <v>85</v>
+      </c>
+      <c r="E310" t="s">
+        <v>12</v>
+      </c>
+      <c r="G310" t="s">
+        <v>151</v>
+      </c>
+      <c r="H310" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Data/databases/temp.xlsx
+++ b/Data/databases/temp.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="159">
   <si>
     <t>Database</t>
   </si>
   <si>
-    <t>case2_consq</t>
+    <t>case2_cut_off</t>
   </si>
   <si>
     <t>Unnamed: 2</t>
@@ -76,7 +76,7 @@
     <t>market for electricity, high voltage</t>
   </si>
   <si>
-    <t>marginal heating grid</t>
+    <t>mixed heating grid</t>
   </si>
   <si>
     <t>transport</t>
@@ -208,16 +208,31 @@
     <t>market for transport, freight, lorry 16-32 metric ton, EURO6</t>
   </si>
   <si>
+    <t>heat production from hot water</t>
+  </si>
+  <si>
+    <t>Energy, solar, converted</t>
+  </si>
+  <si>
+    <t>auxiliary heating unit production, electric, 5kW</t>
+  </si>
+  <si>
+    <t>solar collector system installation, Cu flat plate collector, multiple dwelling, hot water</t>
+  </si>
+  <si>
+    <t>heat production, at hard coal industrial furnace 1-10MW</t>
+  </si>
+  <si>
+    <t>heat production, hardwood chips from forest, at furnace 5000kW, state-of-the-art 2014</t>
+  </si>
+  <si>
+    <t>heat production, natural gas, at industrial furnace low-NOx &gt;100kW</t>
+  </si>
+  <si>
     <t>heat production, wood pellet, at furnace 300kW, state-of-the-art 2014</t>
   </si>
   <si>
-    <t>heat production, hardwood chips from forest, at furnace 5000kW</t>
-  </si>
-  <si>
-    <t>heat production, air-water heat pump 10kW</t>
-  </si>
-  <si>
-    <t>heat production, at heat pump 30kW, allocation exergy</t>
+    <t>heavy fuel oil, burned in refinery furnace</t>
   </si>
   <si>
     <t>treatment of hazardous waste, hazardous waste incineration</t>
@@ -232,225 +247,213 @@
     <t>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</t>
   </si>
   <si>
-    <t>market for electricity, for reuse in municipal waste incineration only</t>
-  </si>
-  <si>
-    <t>market for heat, for reuse in municipal waste incineration only</t>
-  </si>
-  <si>
     <t>H200</t>
   </si>
   <si>
+    <t>treatment of waste polypropylene, municipal incineration with fly ash extraction</t>
+  </si>
+  <si>
+    <t>treatment of waste paper, unsorted, sorting</t>
+  </si>
+  <si>
+    <t>market for textile, nonwoven polypropylene</t>
+  </si>
+  <si>
+    <t>packaging film production, low density polyethylene</t>
+  </si>
+  <si>
+    <t>market for transport, freight train</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>single use diathermy</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>multi-use diathermy</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>raw materials</t>
+  </si>
+  <si>
+    <t>packgaging materials</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>silveralloy</t>
+  </si>
+  <si>
+    <t>dishwaser cycle</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>autoclave cycle</t>
+  </si>
+  <si>
+    <t>electricity consumption</t>
+  </si>
+  <si>
+    <t>ton kilometer</t>
+  </si>
+  <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>eol</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>electricity, high voltage</t>
+  </si>
+  <si>
+    <t>deinked pulp, wet lap</t>
+  </si>
+  <si>
+    <t>electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>tap water</t>
+  </si>
+  <si>
+    <t>wastewater, unpolluted</t>
+  </si>
+  <si>
+    <t>acrylonitrile-butadiene-styrene copolymer</t>
+  </si>
+  <si>
+    <t>iron-nickel-chromium alloy</t>
+  </si>
+  <si>
+    <t>nylon 6</t>
+  </si>
+  <si>
+    <t>polycarbonate</t>
+  </si>
+  <si>
+    <t>silicone product</t>
+  </si>
+  <si>
+    <t>synthetic rubber</t>
+  </si>
+  <si>
+    <t>corrugated board box</t>
+  </si>
+  <si>
+    <t>packaging film, low density polyethylene</t>
+  </si>
+  <si>
+    <t>paper, woodfree, uncoated</t>
+  </si>
+  <si>
+    <t>cable, unspecified</t>
+  </si>
+  <si>
+    <t>electronic component, active, unspecified</t>
+  </si>
+  <si>
+    <t>copper, anode</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>nylon 6-6</t>
+  </si>
+  <si>
+    <t>polyphenylene sulfide</t>
+  </si>
+  <si>
+    <t>autoclave operation</t>
+  </si>
+  <si>
+    <t>alkylbenzene sulfonate, linear, petrochemical</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>water, deionised</t>
+  </si>
+  <si>
+    <t>water, completely softened</t>
+  </si>
+  <si>
+    <t>wastewater, average</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
+  </si>
+  <si>
+    <t>auxiliary heating unit, electric, 5kW</t>
+  </si>
+  <si>
+    <t>solar collector system, Cu flat plate collector, multiple dwelling, hot water</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, other than natural gas</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, other than natural gas</t>
+  </si>
+  <si>
+    <t>hazardous waste, for incineration</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>waste polyethylene</t>
+  </si>
+  <si>
+    <t>waste plastic, mixture</t>
+  </si>
+  <si>
     <t>waste polypropylene</t>
   </si>
   <si>
-    <t>waste polyethylene</t>
-  </si>
-  <si>
-    <t>treatment of waste paper, unsorted, sorting</t>
-  </si>
-  <si>
-    <t>market for textile, nonwoven polypropylene</t>
-  </si>
-  <si>
-    <t>packaging film production, low density polyethylene</t>
-  </si>
-  <si>
-    <t>market for transport, freight train</t>
-  </si>
-  <si>
-    <t>market for transport, freight, sea, container ship</t>
-  </si>
-  <si>
-    <t>treatment of waste polypropylene, municipal incineration with fly ash extraction</t>
-  </si>
-  <si>
-    <t>market for heat pump, 30kW</t>
-  </si>
-  <si>
-    <t>single use diathermy</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>multi-use diathermy</t>
-  </si>
-  <si>
-    <t>kilogram</t>
-  </si>
-  <si>
-    <t>raw materials</t>
-  </si>
-  <si>
-    <t>packgaging materials</t>
-  </si>
-  <si>
-    <t>manufacturing</t>
-  </si>
-  <si>
-    <t>silveralloy</t>
-  </si>
-  <si>
-    <t>dishwaser cycle</t>
-  </si>
-  <si>
-    <t>autoclave cycle</t>
-  </si>
-  <si>
-    <t>electricity consumption</t>
-  </si>
-  <si>
-    <t>ton kilometer</t>
-  </si>
-  <si>
-    <t>megajoule</t>
-  </si>
-  <si>
-    <t>eol</t>
-  </si>
-  <si>
-    <t>H2S</t>
+    <t>waste paper, sorted</t>
+  </si>
+  <si>
+    <t>textile, nonwoven polypropylene</t>
+  </si>
+  <si>
+    <t>transport, freight train</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
   </si>
   <si>
     <t>CH</t>
   </si>
   <si>
-    <t>heat, central or small-scale, other than natural gas</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>electricity, high voltage</t>
-  </si>
-  <si>
-    <t>waste paper, unsorted</t>
-  </si>
-  <si>
-    <t>electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>tap water</t>
-  </si>
-  <si>
-    <t>wastewater, unpolluted</t>
-  </si>
-  <si>
-    <t>acrylonitrile-butadiene-styrene copolymer</t>
-  </si>
-  <si>
-    <t>iron-nickel-chromium alloy</t>
-  </si>
-  <si>
-    <t>nylon 6</t>
-  </si>
-  <si>
-    <t>polycarbonate</t>
-  </si>
-  <si>
-    <t>silicone product</t>
-  </si>
-  <si>
-    <t>synthetic rubber</t>
-  </si>
-  <si>
-    <t>corrugated board box</t>
-  </si>
-  <si>
-    <t>packaging film, low density polyethylene</t>
-  </si>
-  <si>
-    <t>paper, woodfree, uncoated</t>
-  </si>
-  <si>
-    <t>cable, unspecified</t>
-  </si>
-  <si>
-    <t>electronic component, active, unspecified</t>
-  </si>
-  <si>
-    <t>copper, anode</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>nylon 6-6</t>
-  </si>
-  <si>
-    <t>polyphenylene sulfide</t>
-  </si>
-  <si>
-    <t>autoclave operation</t>
-  </si>
-  <si>
-    <t>alkylbenzene sulfonate, linear, petrochemical</t>
-  </si>
-  <si>
-    <t>electricity, low voltage</t>
-  </si>
-  <si>
-    <t>water, deionised</t>
-  </si>
-  <si>
-    <t>water, completely softened</t>
-  </si>
-  <si>
-    <t>wastewater, average</t>
-  </si>
-  <si>
-    <t>transport, freight, lorry 16-32 metric ton, EURO6</t>
-  </si>
-  <si>
-    <t>heat, district or industrial, other than natural gas</t>
-  </si>
-  <si>
-    <t>heat, air-water heat pump 10kW</t>
-  </si>
-  <si>
-    <t>hazardous waste, for incineration</t>
-  </si>
-  <si>
-    <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>waste plastic, mixture</t>
-  </si>
-  <si>
-    <t>electricity, for reuse in municipal waste incineration only</t>
-  </si>
-  <si>
-    <t>heat, for reuse in municipal waste incineration only</t>
-  </si>
-  <si>
-    <t>textile, nonwoven polypropylene</t>
-  </si>
-  <si>
-    <t>transport, freight train</t>
-  </si>
-  <si>
-    <t>transport, freight, sea, container ship</t>
-  </si>
-  <si>
-    <t>heat pump, 30kW</t>
-  </si>
-  <si>
-    <t>RoW</t>
-  </si>
-  <si>
-    <t>RER</t>
-  </si>
-  <si>
-    <t>Europe without Switzerland</t>
-  </si>
-  <si>
-    <t>ROW</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -472,10 +475,22 @@
     <t>technosphere</t>
   </si>
   <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
     <t>database</t>
   </si>
   <si>
-    <t>ev391consq</t>
+    <t>case2_apos</t>
+  </si>
+  <si>
+    <t>ev391cutof</t>
+  </si>
+  <si>
+    <t>biosphere</t>
+  </si>
+  <si>
+    <t>biosphere3</t>
   </si>
 </sst>
 </file>
@@ -833,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -927,13 +942,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -953,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -976,7 +991,7 @@
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
@@ -999,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
@@ -1022,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
         <v>1</v>
@@ -1036,19 +1051,19 @@
         <v>-0.8410066</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1062,13 +1077,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
         <v>1</v>
@@ -1088,10 +1103,10 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
         <v>1</v>
@@ -1105,7 +1120,7 @@
         <v>-0.190318021979733</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
         <v>85</v>
@@ -1114,7 +1129,7 @@
         <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
         <v>1</v>
@@ -1128,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
@@ -1151,16 +1166,16 @@
         <v>-0.00147402197973334</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
         <v>1</v>
@@ -1228,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1254,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
         <v>1</v>
@@ -1277,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -1300,7 +1315,7 @@
         <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
         <v>1</v>
@@ -1323,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H31" t="s">
         <v>1</v>
@@ -1340,13 +1355,13 @@
         <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H32" t="s">
         <v>1</v>
@@ -1360,7 +1375,7 @@
         <v>0.25</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
         <v>85</v>
@@ -1369,7 +1384,7 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H33" t="s">
         <v>1</v>
@@ -1383,19 +1398,19 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
         <v>94</v>
       </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
       <c r="E34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1412,10 +1427,10 @@
         <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
         <v>1</v>
@@ -1432,13 +1447,13 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H36" t="s">
         <v>1</v>
@@ -1452,19 +1467,19 @@
         <v>-0.191017952219363</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H37" t="s">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1475,7 +1490,7 @@
         <v>-0.00695778380725223</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
         <v>85</v>
@@ -1484,7 +1499,7 @@
         <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H38" t="s">
         <v>1</v>
@@ -1507,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
         <v>1</v>
@@ -1521,16 +1536,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
         <v>1</v>
@@ -1598,13 +1613,13 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1624,10 +1639,10 @@
         <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H49" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1638,19 +1653,19 @@
         <v>0.517616381850369</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1661,7 +1676,7 @@
         <v>503.113060897341</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
         <v>85</v>
@@ -1670,10 +1685,10 @@
         <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1684,19 +1699,19 @@
         <v>-0.472423164182603</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1761,13 +1776,13 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H60" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1787,10 +1802,10 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H61" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1801,7 +1816,7 @@
         <v>0.0081936987704918</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
         <v>85</v>
@@ -1810,10 +1825,10 @@
         <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H62" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -1824,7 +1839,7 @@
         <v>0.003849</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
         <v>85</v>
@@ -1833,10 +1848,10 @@
         <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H63" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -1847,19 +1862,19 @@
         <v>0.000306352459016393</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
         <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H64" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -1870,7 +1885,7 @@
         <v>0.0081936987704918</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
         <v>85</v>
@@ -1879,10 +1894,10 @@
         <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H65" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1893,19 +1908,19 @@
         <v>0.00486127049180327</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
         <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H66" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -1916,7 +1931,7 @@
         <v>0.00936116803278688</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
         <v>85</v>
@@ -1925,10 +1940,10 @@
         <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H67" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -1993,13 +2008,13 @@
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H75" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2019,10 +2034,10 @@
         <v>88</v>
       </c>
       <c r="G76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H76" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2033,19 +2048,19 @@
         <v>0.0488576587057554</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E77" t="s">
         <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H77" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2056,7 +2071,7 @@
         <v>0.659432659451237</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
         <v>85</v>
@@ -2065,10 +2080,10 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H78" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2079,19 +2094,19 @@
         <v>0.291709681843007</v>
       </c>
       <c r="C79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E79" t="s">
         <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H79" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2156,13 +2171,13 @@
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H87" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2182,10 +2197,10 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H88" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2196,7 +2211,7 @@
         <v>0.0452187</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
         <v>85</v>
@@ -2205,10 +2220,10 @@
         <v>88</v>
       </c>
       <c r="G89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H89" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2219,7 +2234,7 @@
         <v>0.0002702</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
         <v>85</v>
@@ -2228,10 +2243,10 @@
         <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H90" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2251,10 +2266,10 @@
         <v>88</v>
       </c>
       <c r="G91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H91" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2274,10 +2289,10 @@
         <v>88</v>
       </c>
       <c r="G92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H92" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2288,19 +2303,19 @@
         <v>0.1601483</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="E93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H93" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2365,13 +2380,13 @@
         <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G101" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H101" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2391,10 +2406,10 @@
         <v>88</v>
       </c>
       <c r="G102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H102" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -2405,7 +2420,7 @@
         <v>0.075</v>
       </c>
       <c r="C103" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D103" t="s">
         <v>85</v>
@@ -2414,10 +2429,10 @@
         <v>88</v>
       </c>
       <c r="G103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H103" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2428,7 +2443,7 @@
         <v>0.925</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D104" t="s">
         <v>85</v>
@@ -2437,10 +2452,10 @@
         <v>88</v>
       </c>
       <c r="G104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H104" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -2505,13 +2520,13 @@
         <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G112" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H112" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -2531,10 +2546,10 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H113" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -2545,7 +2560,7 @@
         <v>3.2790945E-05</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D114" t="s">
         <v>85</v>
@@ -2554,10 +2569,10 @@
         <v>88</v>
       </c>
       <c r="G114" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H114" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -2568,19 +2583,19 @@
         <v>2.20411595174872E-05</v>
       </c>
       <c r="C115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D115" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E115" t="s">
         <v>88</v>
       </c>
       <c r="G115" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H115" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -2591,19 +2606,19 @@
         <v>2.15801068272796E-07</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E116" t="s">
         <v>88</v>
       </c>
       <c r="G116" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -2614,7 +2629,7 @@
         <v>5.22129092734137E-07</v>
       </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D117" t="s">
         <v>85</v>
@@ -2623,10 +2638,10 @@
         <v>88</v>
       </c>
       <c r="G117" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -2637,7 +2652,7 @@
         <v>3.10593519238663E-06</v>
       </c>
       <c r="C118" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
         <v>85</v>
@@ -2646,10 +2661,10 @@
         <v>88</v>
       </c>
       <c r="G118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -2669,10 +2684,10 @@
         <v>88</v>
       </c>
       <c r="G119" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H119" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -2737,13 +2752,13 @@
         <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G127" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -2763,10 +2778,10 @@
         <v>88</v>
       </c>
       <c r="G128" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H128" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -2777,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D129" t="s">
         <v>85</v>
@@ -2786,10 +2801,10 @@
         <v>88</v>
       </c>
       <c r="G129" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -2854,13 +2869,13 @@
         <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G137" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H137" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -2880,10 +2895,10 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H138" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -2897,16 +2912,16 @@
         <v>56</v>
       </c>
       <c r="D139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E139" t="s">
         <v>88</v>
       </c>
       <c r="G139" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -2920,16 +2935,16 @@
         <v>57</v>
       </c>
       <c r="D140" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E140" t="s">
         <v>88</v>
       </c>
       <c r="G140" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H140" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -2940,7 +2955,7 @@
         <v>0.0001808748</v>
       </c>
       <c r="C141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D141" t="s">
         <v>85</v>
@@ -2949,10 +2964,10 @@
         <v>88</v>
       </c>
       <c r="G141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H141" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -2972,10 +2987,10 @@
         <v>88</v>
       </c>
       <c r="G142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H142" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -2989,16 +3004,16 @@
         <v>93</v>
       </c>
       <c r="D143" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H143" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3009,19 +3024,19 @@
         <v>0.0277777777777777</v>
       </c>
       <c r="C144" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D144" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E144" t="s">
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H144" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3086,13 +3101,13 @@
         <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G152" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H152" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -3111,11 +3126,14 @@
       <c r="E153" t="s">
         <v>12</v>
       </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
       <c r="G153" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H153" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -3126,7 +3144,7 @@
         <v>0.00167999999999999</v>
       </c>
       <c r="C154" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D154" t="s">
         <v>85</v>
@@ -3134,11 +3152,14 @@
       <c r="E154" t="s">
         <v>88</v>
       </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
       <c r="G154" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H154" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -3157,11 +3178,14 @@
       <c r="E155" t="s">
         <v>88</v>
       </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
       <c r="G155" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H155" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -3193,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3226,10 +3250,10 @@
         <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G163" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3243,16 +3267,16 @@
         <v>93</v>
       </c>
       <c r="D164" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E164" t="s">
         <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G164" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3263,19 +3287,19 @@
         <v>0.0052</v>
       </c>
       <c r="C165" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D165" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E165" t="s">
         <v>88</v>
       </c>
       <c r="F165" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G165" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3286,19 +3310,19 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D166" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E166" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F166" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G166" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -3309,19 +3333,19 @@
         <v>70</v>
       </c>
       <c r="C167" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D167" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E167" t="s">
         <v>88</v>
       </c>
       <c r="F167" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G167" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3332,19 +3356,19 @@
         <v>140</v>
       </c>
       <c r="C168" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D168" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E168" t="s">
         <v>88</v>
       </c>
       <c r="F168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G168" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3355,19 +3379,19 @@
         <v>-0.21</v>
       </c>
       <c r="C169" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D169" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E169" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F169" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G169" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3391,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3399,7 +3423,7 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -3432,13 +3456,13 @@
         <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G177" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H177" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -3449,19 +3473,19 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
+        <v>95</v>
+      </c>
+      <c r="D178" t="s">
         <v>94</v>
       </c>
-      <c r="D178" t="s">
-        <v>85</v>
-      </c>
       <c r="E178" t="s">
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H178" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -3472,19 +3496,19 @@
         <v>10.9</v>
       </c>
       <c r="C179" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D179" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E179" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G179" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H179" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -3495,19 +3519,19 @@
         <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D180" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E180" t="s">
         <v>88</v>
       </c>
       <c r="G180" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H180" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -3518,19 +3542,19 @@
         <v>-0.28</v>
       </c>
       <c r="C181" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D181" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E181" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G181" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H181" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -3554,7 +3578,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -3562,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -3595,13 +3619,13 @@
         <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G189" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H189" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -3612,19 +3636,19 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D190" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H190" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -3635,19 +3659,19 @@
         <v>0.07066666666666667</v>
       </c>
       <c r="C191" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D191" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E191" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G191" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H191" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -3687,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -3712,13 +3736,13 @@
         <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G199" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H199" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -3735,13 +3759,13 @@
         <v>85</v>
       </c>
       <c r="E200" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G200" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H200" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -3752,19 +3776,19 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D201" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E201" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G201" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H201" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -3772,7 +3796,7 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -3788,7 +3812,7 @@
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -3796,7 +3820,7 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -3804,7 +3828,7 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -3829,105 +3853,102 @@
         <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G209" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H209" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D210" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E210" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G210" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H210" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B211">
-        <v>0.135</v>
-      </c>
-      <c r="C211" t="s">
-        <v>101</v>
-      </c>
-      <c r="D211" t="s">
-        <v>100</v>
+        <v>0.28851</v>
       </c>
       <c r="E211" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="F211" t="s">
+        <v>153</v>
       </c>
       <c r="G211" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H211" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B212">
-        <v>0.135</v>
+        <v>6.5545E-08</v>
       </c>
       <c r="C212" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D212" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E212" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G212" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H212" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B213">
-        <v>0.365</v>
+        <v>0.23457</v>
       </c>
       <c r="C213" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D213" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E213" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="G213" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H213" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -3935,22 +3956,22 @@
         <v>67</v>
       </c>
       <c r="B214">
-        <v>0.365</v>
+        <v>6.5545E-08</v>
       </c>
       <c r="C214" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D214" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="E214" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G214" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H214" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -3958,7 +3979,7 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -3974,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="B218" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -3982,7 +4003,7 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -3990,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -4015,174 +4036,174 @@
         <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G222" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H222" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="C223" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" t="s">
+        <v>94</v>
+      </c>
+      <c r="E223" t="s">
         <v>98</v>
       </c>
-      <c r="D223" t="s">
-        <v>85</v>
-      </c>
-      <c r="E223" t="s">
-        <v>88</v>
-      </c>
       <c r="G223" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H223" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B224">
-        <v>0.0415541309106406</v>
+        <v>0.1026</v>
       </c>
       <c r="C224" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D224" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E224" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G224" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H224" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B225">
-        <v>0.271672758270046</v>
+        <v>0.0513</v>
       </c>
       <c r="C225" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D225" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="E225" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G225" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H225" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B226">
-        <v>0.527439277456811</v>
+        <v>0.4487</v>
       </c>
       <c r="C226" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D226" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E226" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G226" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H226" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B227">
-        <v>0.159333833362503</v>
+        <v>0.20513</v>
       </c>
       <c r="C227" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D227" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="E227" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G227" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H227" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B228">
-        <v>-1.093036505196165</v>
+        <v>0.1795</v>
       </c>
       <c r="C228" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D228" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E228" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="G228" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H228" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B229">
-        <v>-7.635351927512012</v>
+        <v>0.0128</v>
       </c>
       <c r="C229" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="D229" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="E229" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G229" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H229" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -4190,7 +4211,7 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -4206,7 +4227,7 @@
         <v>10</v>
       </c>
       <c r="B233" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -4247,24 +4268,24 @@
         <v>12</v>
       </c>
       <c r="F237" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G237" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H237" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D238" t="s">
         <v>85</v>
@@ -4273,1101 +4294,772 @@
         <v>88</v>
       </c>
       <c r="G238" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B239">
         <v>0.0415541309106406</v>
       </c>
       <c r="C239" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D239" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E239" t="s">
         <v>88</v>
       </c>
       <c r="G239" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H239" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B240">
-        <v>0.527439277456811</v>
+        <v>0.271672758270046</v>
       </c>
       <c r="C240" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="D240" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E240" t="s">
         <v>88</v>
       </c>
       <c r="G240" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H240" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B241">
-        <v>0.159333833362503</v>
+        <v>0.527439277456811</v>
       </c>
       <c r="C241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D241" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E241" t="s">
         <v>88</v>
       </c>
       <c r="G241" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H241" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B242">
-        <v>-0.9878692637422475</v>
+        <v>0.159333833362503</v>
       </c>
       <c r="C242" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D242" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E242" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="G242" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H242" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
-        <v>73</v>
-      </c>
-      <c r="B243">
-        <v>-6.860948730063246</v>
-      </c>
-      <c r="C243" t="s">
-        <v>136</v>
-      </c>
-      <c r="D243" t="s">
-        <v>100</v>
-      </c>
-      <c r="E243" t="s">
-        <v>97</v>
-      </c>
-      <c r="G243" t="s">
-        <v>151</v>
-      </c>
-      <c r="H243" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>8</v>
-      </c>
-      <c r="B245" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>9</v>
-      </c>
-      <c r="B246">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B247" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>12</v>
-      </c>
-      <c r="B249" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B250" t="s">
+        <v>86</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" t="s">
+        <v>149</v>
+      </c>
+      <c r="G250" t="s">
+        <v>150</v>
+      </c>
+      <c r="H250" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>14</v>
-      </c>
-      <c r="B251" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D251" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E251" t="s">
-        <v>12</v>
-      </c>
-      <c r="F251" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="G251" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H251" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C252" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D252" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E252" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G252" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H252" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0.527439277456811</v>
       </c>
       <c r="C253" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D253" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G253" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H253" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B254">
-        <v>-0.07099999999999999</v>
+        <v>0.159333833362503</v>
       </c>
       <c r="C254" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="D254" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E254" t="s">
         <v>88</v>
       </c>
       <c r="G254" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H254" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" t="s">
-        <v>76</v>
-      </c>
-      <c r="B255">
-        <v>-0.00727</v>
-      </c>
-      <c r="C255" t="s">
-        <v>76</v>
-      </c>
-      <c r="D255" t="s">
-        <v>100</v>
-      </c>
-      <c r="E255" t="s">
-        <v>88</v>
-      </c>
-      <c r="G255" t="s">
-        <v>151</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>19</v>
-      </c>
-      <c r="B256">
-        <v>-0.1470914457375</v>
-      </c>
-      <c r="C256" t="s">
-        <v>103</v>
-      </c>
-      <c r="D256" t="s">
-        <v>102</v>
-      </c>
-      <c r="E256" t="s">
-        <v>146</v>
-      </c>
-      <c r="G256" t="s">
-        <v>151</v>
-      </c>
-      <c r="H256" t="s">
-        <v>153</v>
+        <v>8</v>
+      </c>
+      <c r="B256" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B257">
-        <v>-2.647646023275</v>
-      </c>
-      <c r="C257" t="s">
-        <v>20</v>
-      </c>
-      <c r="D257" t="s">
-        <v>85</v>
-      </c>
-      <c r="E257" t="s">
-        <v>97</v>
-      </c>
-      <c r="G257" t="s">
-        <v>151</v>
-      </c>
-      <c r="H257" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>77</v>
-      </c>
-      <c r="B258">
-        <v>-0.00316</v>
-      </c>
-      <c r="C258" t="s">
-        <v>104</v>
-      </c>
-      <c r="D258" t="s">
-        <v>144</v>
-      </c>
-      <c r="E258" t="s">
-        <v>88</v>
-      </c>
-      <c r="G258" t="s">
-        <v>151</v>
-      </c>
-      <c r="H258" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="B258" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B260" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>9</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262" t="s">
+        <v>86</v>
+      </c>
+      <c r="C262" t="s">
         <v>10</v>
       </c>
-      <c r="B262" t="s">
-        <v>74</v>
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" t="s">
+        <v>149</v>
+      </c>
+      <c r="G262" t="s">
+        <v>150</v>
+      </c>
+      <c r="H262" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>11</v>
-      </c>
-      <c r="B263" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>100</v>
+      </c>
+      <c r="D263" t="s">
+        <v>85</v>
+      </c>
+      <c r="E263" t="s">
+        <v>12</v>
+      </c>
+      <c r="G263" t="s">
+        <v>151</v>
+      </c>
+      <c r="H263" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>12</v>
-      </c>
-      <c r="B264" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>77</v>
+      </c>
+      <c r="D264" t="s">
+        <v>85</v>
+      </c>
+      <c r="E264" t="s">
+        <v>12</v>
+      </c>
+      <c r="G264" t="s">
+        <v>152</v>
+      </c>
+      <c r="H264" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="B265">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="C265" t="s">
+        <v>137</v>
+      </c>
+      <c r="D265" t="s">
+        <v>145</v>
+      </c>
+      <c r="E265" t="s">
+        <v>88</v>
+      </c>
+      <c r="G265" t="s">
+        <v>152</v>
+      </c>
+      <c r="H265" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>14</v>
-      </c>
-      <c r="B266" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="B266">
+        <v>-0.00727</v>
       </c>
       <c r="C266" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D266" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E266" t="s">
-        <v>12</v>
-      </c>
-      <c r="F266" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="G266" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H266" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>-0.1470914457375</v>
       </c>
       <c r="C267" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D267" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E267" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G267" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H267" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B268">
-        <v>0.063</v>
+        <v>-2.647646023275</v>
       </c>
       <c r="C268" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="D268" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E268" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G268" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H268" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B269">
-        <v>0.008</v>
+        <v>-0.00316</v>
       </c>
       <c r="C269" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D269" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E269" t="s">
         <v>88</v>
       </c>
       <c r="G269" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H269" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" t="s">
-        <v>79</v>
-      </c>
-      <c r="B270">
-        <v>0.00727</v>
-      </c>
-      <c r="C270" t="s">
-        <v>115</v>
-      </c>
-      <c r="D270" t="s">
-        <v>142</v>
-      </c>
-      <c r="E270" t="s">
-        <v>88</v>
-      </c>
-      <c r="G270" t="s">
-        <v>151</v>
-      </c>
-      <c r="H270" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>44</v>
-      </c>
-      <c r="B271">
-        <v>0.0028</v>
-      </c>
-      <c r="C271" t="s">
-        <v>114</v>
-      </c>
-      <c r="D271" t="s">
-        <v>142</v>
-      </c>
-      <c r="E271" t="s">
-        <v>88</v>
-      </c>
-      <c r="G271" t="s">
-        <v>151</v>
-      </c>
-      <c r="H271" t="s">
-        <v>153</v>
+        <v>8</v>
+      </c>
+      <c r="B271" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>14</v>
+      </c>
+      <c r="B277" t="s">
+        <v>86</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" t="s">
+        <v>150</v>
+      </c>
+      <c r="G277" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>77</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>77</v>
+      </c>
+      <c r="D278" t="s">
+        <v>85</v>
+      </c>
+      <c r="E278" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" t="s">
+        <v>151</v>
+      </c>
+      <c r="G278" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>80</v>
+      </c>
+      <c r="B279">
+        <v>0.063</v>
+      </c>
+      <c r="C279" t="s">
+        <v>139</v>
+      </c>
+      <c r="D279" t="s">
+        <v>85</v>
+      </c>
+      <c r="E279" t="s">
+        <v>88</v>
+      </c>
+      <c r="F279" t="s">
+        <v>152</v>
+      </c>
+      <c r="G279" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>80</v>
+      </c>
+      <c r="B280">
+        <v>0.008</v>
+      </c>
+      <c r="C280" t="s">
+        <v>139</v>
+      </c>
+      <c r="D280" t="s">
+        <v>85</v>
+      </c>
+      <c r="E280" t="s">
+        <v>88</v>
+      </c>
+      <c r="F280" t="s">
+        <v>152</v>
+      </c>
+      <c r="G280" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>81</v>
+      </c>
+      <c r="B281">
+        <v>0.00727</v>
+      </c>
+      <c r="C281" t="s">
+        <v>113</v>
+      </c>
+      <c r="D281" t="s">
+        <v>143</v>
+      </c>
+      <c r="E281" t="s">
+        <v>88</v>
+      </c>
+      <c r="F281" t="s">
+        <v>152</v>
+      </c>
+      <c r="G281" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>44</v>
+      </c>
+      <c r="B282">
+        <v>0.0028</v>
+      </c>
+      <c r="C282" t="s">
+        <v>112</v>
+      </c>
+      <c r="D282" t="s">
+        <v>143</v>
+      </c>
+      <c r="E282" t="s">
+        <v>88</v>
+      </c>
+      <c r="F282" t="s">
+        <v>152</v>
+      </c>
+      <c r="G282" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
         <v>63</v>
       </c>
-      <c r="B272">
+      <c r="B283">
         <v>2.6E-05</v>
       </c>
-      <c r="C272" t="s">
-        <v>129</v>
-      </c>
-      <c r="D272" t="s">
-        <v>142</v>
-      </c>
-      <c r="E272" t="s">
-        <v>96</v>
-      </c>
-      <c r="G272" t="s">
-        <v>151</v>
-      </c>
-      <c r="H272" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
-        <v>80</v>
-      </c>
-      <c r="B273">
+      <c r="C283" t="s">
+        <v>127</v>
+      </c>
+      <c r="D283" t="s">
+        <v>143</v>
+      </c>
+      <c r="E283" t="s">
+        <v>97</v>
+      </c>
+      <c r="F283" t="s">
+        <v>152</v>
+      </c>
+      <c r="G283" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>82</v>
+      </c>
+      <c r="B284">
         <v>0.000181</v>
       </c>
-      <c r="C273" t="s">
-        <v>138</v>
-      </c>
-      <c r="D273" t="s">
-        <v>145</v>
-      </c>
-      <c r="E273" t="s">
-        <v>96</v>
-      </c>
-      <c r="G273" t="s">
-        <v>151</v>
-      </c>
-      <c r="H273" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>81</v>
-      </c>
-      <c r="B274">
+      <c r="C284" t="s">
+        <v>140</v>
+      </c>
+      <c r="D284" t="s">
+        <v>146</v>
+      </c>
+      <c r="E284" t="s">
+        <v>97</v>
+      </c>
+      <c r="F284" t="s">
+        <v>152</v>
+      </c>
+      <c r="G284" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>83</v>
+      </c>
+      <c r="B285">
         <v>0.00333</v>
       </c>
-      <c r="C274" t="s">
-        <v>139</v>
-      </c>
-      <c r="D274" t="s">
-        <v>85</v>
-      </c>
-      <c r="E274" t="s">
-        <v>96</v>
-      </c>
-      <c r="G274" t="s">
-        <v>151</v>
-      </c>
-      <c r="H274" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
+      <c r="C285" t="s">
+        <v>141</v>
+      </c>
+      <c r="D285" t="s">
+        <v>85</v>
+      </c>
+      <c r="E285" t="s">
+        <v>97</v>
+      </c>
+      <c r="F285" t="s">
+        <v>152</v>
+      </c>
+      <c r="G285" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
         <v>63</v>
       </c>
-      <c r="B275">
+      <c r="B286">
         <v>4.13E-05</v>
       </c>
-      <c r="C275" t="s">
-        <v>129</v>
-      </c>
-      <c r="D275" t="s">
-        <v>142</v>
-      </c>
-      <c r="E275" t="s">
-        <v>96</v>
-      </c>
-      <c r="G275" t="s">
-        <v>151</v>
-      </c>
-      <c r="H275" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>8</v>
-      </c>
-      <c r="B277" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>9</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>10</v>
-      </c>
-      <c r="B279" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>11</v>
-      </c>
-      <c r="B280" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" t="s">
-        <v>12</v>
-      </c>
-      <c r="B281" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>14</v>
-      </c>
-      <c r="B283" t="s">
-        <v>86</v>
-      </c>
-      <c r="C283" t="s">
-        <v>10</v>
-      </c>
-      <c r="D283" t="s">
-        <v>11</v>
-      </c>
-      <c r="E283" t="s">
-        <v>12</v>
-      </c>
-      <c r="F283" t="s">
-        <v>148</v>
-      </c>
-      <c r="G283" t="s">
-        <v>149</v>
-      </c>
-      <c r="H283" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" t="s">
-        <v>76</v>
-      </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-      <c r="C284" t="s">
-        <v>76</v>
-      </c>
-      <c r="D284" t="s">
-        <v>100</v>
-      </c>
-      <c r="E284" t="s">
-        <v>88</v>
-      </c>
-      <c r="G284" t="s">
-        <v>150</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" t="s">
-        <v>70</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="C285" t="s">
-        <v>76</v>
-      </c>
-      <c r="D285" t="s">
-        <v>100</v>
-      </c>
-      <c r="E285" t="s">
-        <v>88</v>
-      </c>
-      <c r="G285" t="s">
-        <v>151</v>
-      </c>
-      <c r="H285" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>72</v>
-      </c>
-      <c r="B286">
-        <v>-1.5428</v>
-      </c>
       <c r="C286" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D286" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E286" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="F286" t="s">
+        <v>152</v>
       </c>
       <c r="G286" t="s">
-        <v>151</v>
-      </c>
-      <c r="H286" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287" t="s">
-        <v>73</v>
-      </c>
-      <c r="B287">
-        <v>-10.694</v>
-      </c>
-      <c r="C287" t="s">
-        <v>136</v>
-      </c>
-      <c r="D287" t="s">
-        <v>100</v>
-      </c>
-      <c r="E287" t="s">
-        <v>97</v>
-      </c>
-      <c r="G287" t="s">
-        <v>151</v>
-      </c>
-      <c r="H287" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>8</v>
-      </c>
-      <c r="B289" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" t="s">
-        <v>9</v>
-      </c>
-      <c r="B290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" t="s">
-        <v>10</v>
-      </c>
-      <c r="B291" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" t="s">
-        <v>12</v>
-      </c>
-      <c r="B293" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>14</v>
-      </c>
-      <c r="B295" t="s">
-        <v>86</v>
-      </c>
-      <c r="C295" t="s">
-        <v>10</v>
-      </c>
-      <c r="D295" t="s">
-        <v>11</v>
-      </c>
-      <c r="E295" t="s">
-        <v>12</v>
-      </c>
-      <c r="F295" t="s">
-        <v>148</v>
-      </c>
-      <c r="G295" t="s">
-        <v>149</v>
-      </c>
-      <c r="H295" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" t="s">
-        <v>75</v>
-      </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-      <c r="C296" t="s">
-        <v>75</v>
-      </c>
-      <c r="D296" t="s">
-        <v>100</v>
-      </c>
-      <c r="E296" t="s">
-        <v>88</v>
-      </c>
-      <c r="G296" t="s">
-        <v>150</v>
-      </c>
-      <c r="H296" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="s">
-        <v>82</v>
-      </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
-      <c r="C297" t="s">
-        <v>75</v>
-      </c>
-      <c r="D297" t="s">
-        <v>100</v>
-      </c>
-      <c r="E297" t="s">
-        <v>88</v>
-      </c>
-      <c r="G297" t="s">
-        <v>151</v>
-      </c>
-      <c r="H297" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
-        <v>72</v>
-      </c>
-      <c r="B298">
-        <v>-1.1687</v>
-      </c>
-      <c r="C298" t="s">
-        <v>135</v>
-      </c>
-      <c r="D298" t="s">
-        <v>100</v>
-      </c>
-      <c r="E298" t="s">
-        <v>146</v>
-      </c>
-      <c r="G298" t="s">
-        <v>151</v>
-      </c>
-      <c r="H298" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" t="s">
-        <v>73</v>
-      </c>
-      <c r="B299">
-        <v>-8.1515</v>
-      </c>
-      <c r="C299" t="s">
-        <v>136</v>
-      </c>
-      <c r="D299" t="s">
-        <v>100</v>
-      </c>
-      <c r="E299" t="s">
-        <v>97</v>
-      </c>
-      <c r="G299" t="s">
-        <v>151</v>
-      </c>
-      <c r="H299" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>8</v>
-      </c>
-      <c r="B301" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
-        <v>9</v>
-      </c>
-      <c r="B302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
-        <v>10</v>
-      </c>
-      <c r="B303" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
-        <v>11</v>
-      </c>
-      <c r="B304" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
-        <v>12</v>
-      </c>
-      <c r="B305" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>14</v>
-      </c>
-      <c r="B307" t="s">
-        <v>86</v>
-      </c>
-      <c r="C307" t="s">
-        <v>10</v>
-      </c>
-      <c r="D307" t="s">
-        <v>11</v>
-      </c>
-      <c r="E307" t="s">
-        <v>12</v>
-      </c>
-      <c r="F307" t="s">
-        <v>148</v>
-      </c>
-      <c r="G307" t="s">
-        <v>149</v>
-      </c>
-      <c r="H307" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>67</v>
-      </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-      <c r="C308" t="s">
-        <v>101</v>
-      </c>
-      <c r="D308" t="s">
-        <v>102</v>
-      </c>
-      <c r="E308" t="s">
-        <v>97</v>
-      </c>
-      <c r="G308" t="s">
-        <v>150</v>
-      </c>
-      <c r="H308" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" t="s">
-        <v>59</v>
-      </c>
-      <c r="B309">
-        <v>0.0617</v>
-      </c>
-      <c r="C309" t="s">
-        <v>125</v>
-      </c>
-      <c r="D309" t="s">
-        <v>102</v>
-      </c>
-      <c r="E309" t="s">
-        <v>146</v>
-      </c>
-      <c r="G309" t="s">
-        <v>151</v>
-      </c>
-      <c r="H309" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>83</v>
-      </c>
-      <c r="B310">
-        <v>3.47E-08</v>
-      </c>
-      <c r="C310" t="s">
-        <v>140</v>
-      </c>
-      <c r="D310" t="s">
-        <v>85</v>
-      </c>
-      <c r="E310" t="s">
-        <v>12</v>
-      </c>
-      <c r="G310" t="s">
-        <v>151</v>
-      </c>
-      <c r="H310" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Data/databases/temp.xlsx
+++ b/Data/databases/temp.xlsx
@@ -1395,7 +1395,7 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.02083333333333333</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C34" t="s">
         <v>95</v>
@@ -1441,7 +1441,7 @@
         <v>20</v>
       </c>
       <c r="B36">
-        <v>-0.955089761096813</v>
+        <v>-0.174003878594387</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -1464,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <v>-0.191017952219363</v>
+        <v>0.03480077571887744</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>

--- a/Data/databases/temp.xlsx
+++ b/Data/databases/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="177">
   <si>
     <t>Database</t>
   </si>
@@ -67,7 +67,7 @@
     <t>SUD</t>
   </si>
   <si>
-    <t>SUD packgaging materials</t>
+    <t>packgaging materials</t>
   </si>
   <si>
     <t>SUD manufacturing</t>
@@ -100,9 +100,6 @@
     <t>MUD manufacturing</t>
   </si>
   <si>
-    <t>MUD packgaging materials</t>
-  </si>
-  <si>
     <t>MUD raw materials</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
   </si>
   <si>
     <t>raw materials</t>
-  </si>
-  <si>
-    <t>packgaging materials</t>
   </si>
   <si>
     <t>manufacturing</t>
@@ -908,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -972,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -993,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1005,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1022,16 +1016,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -1042,19 +1036,19 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0302</v>
+        <v>0.0301697219797333</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
@@ -1068,16 +1062,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
@@ -1091,16 +1085,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
         <v>1</v>
@@ -1114,19 +1108,19 @@
         <v>-0.8410066</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1140,13 +1134,13 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
         <v>1</v>
@@ -1163,13 +1157,13 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s">
         <v>1</v>
@@ -1183,16 +1177,16 @@
         <v>-0.190318021979733</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H17" t="s">
         <v>1</v>
@@ -1206,16 +1200,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
@@ -1229,16 +1223,16 @@
         <v>-0.00147402197973334</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
         <v>1</v>
@@ -1265,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1273,7 +1267,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1294,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1306,13 +1300,13 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1323,16 +1317,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
         <v>1</v>
@@ -1346,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -1363,22 +1357,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>0.005126815</v>
+        <v>2.25135248272347E-05</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H30" t="s">
         <v>1</v>
@@ -1386,22 +1380,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H31" t="s">
         <v>1</v>
@@ -1409,22 +1403,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>0.03125</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
         <v>1</v>
@@ -1432,22 +1426,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>0.25</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H33" t="s">
         <v>1</v>
@@ -1455,25 +1449,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>0.01785714285714286</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1487,13 +1481,13 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H35" t="s">
         <v>1</v>
@@ -1510,13 +1504,13 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H36" t="s">
         <v>1</v>
@@ -1530,16 +1524,16 @@
         <v>0.03480077571887744</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H37" t="s">
         <v>1</v>
@@ -1547,22 +1541,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38">
         <v>-0.00695778380725223</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H38" t="s">
         <v>1</v>
@@ -1570,22 +1564,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H39" t="s">
         <v>1</v>
@@ -1599,16 +1593,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H40" t="s">
         <v>1</v>
@@ -1619,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1635,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1643,7 +1637,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1651,7 +1645,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1664,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1676,105 +1670,105 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <v>0.517616381850369</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51">
         <v>503.113060897341</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52">
         <v>-0.472423164182603</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1798,7 +1792,7 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1806,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1827,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -1839,13 +1833,13 @@
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1856,157 +1850,157 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62">
-        <v>0.0081936987704918</v>
+        <v>0.008193698770491789</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63">
         <v>0.003849</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64">
-        <v>0.000306352459016393</v>
+        <v>0.0003063524590163926</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65">
-        <v>0.0081936987704918</v>
+        <v>0.008193698770491789</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66">
-        <v>0.00486127049180327</v>
+        <v>0.004861270491803275</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67">
-        <v>0.00936116803278688</v>
+        <v>0.009361168032786863</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2030,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2038,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2046,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2059,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -2071,13 +2065,13 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2088,88 +2082,88 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>0.0488576587057554</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78">
         <v>0.659432659451237</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79">
         <v>0.291709681843007</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2193,7 +2187,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2201,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2222,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -2234,13 +2228,13 @@
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2251,134 +2245,134 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89">
         <v>0.0452187</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90">
         <v>0.0002702</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91">
         <v>0.1108104</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H91" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92">
         <v>0.003849</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93">
         <v>0.1601483</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E93" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2386,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2402,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2410,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2418,7 +2412,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2431,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -2443,82 +2437,82 @@
         <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H102" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B103">
         <v>0.075</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H103" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104">
         <v>0.925</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -2526,7 +2520,7 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -2542,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -2550,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -2571,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -2583,174 +2577,174 @@
         <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H112" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H113" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B114">
         <v>3.2790945E-05</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H114" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B115">
         <v>2.20411595174872E-05</v>
       </c>
       <c r="C115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H115" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B116">
         <v>2.15801068272796E-07</v>
       </c>
       <c r="C116" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E116" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B117">
         <v>5.22129092734137E-07</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H117" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B118">
         <v>3.10593519238663E-06</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H118" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B119">
         <v>1.01033619739448E-06</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -2758,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -2774,7 +2768,7 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -2782,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -2790,7 +2784,7 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -2803,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
@@ -2815,809 +2809,809 @@
         <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G127" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H127" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E128" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H128" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2.53E-05</v>
       </c>
       <c r="C129" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D129" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="E129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H129" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130">
+        <v>3.2790945E-05</v>
+      </c>
+      <c r="C130" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" t="s">
+        <v>155</v>
+      </c>
+      <c r="E130" t="s">
+        <v>96</v>
+      </c>
+      <c r="G130" t="s">
+        <v>164</v>
+      </c>
+      <c r="H130" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="B131">
+        <v>0.0001808748</v>
+      </c>
+      <c r="C131" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131" t="s">
+        <v>96</v>
+      </c>
+      <c r="G131" t="s">
+        <v>164</v>
+      </c>
+      <c r="H131" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0.000239976081173181</v>
+      </c>
+      <c r="C132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>93</v>
+      </c>
+      <c r="E132" t="s">
+        <v>96</v>
+      </c>
+      <c r="G132" t="s">
+        <v>164</v>
+      </c>
+      <c r="H132" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133">
+        <v>0.03125</v>
+      </c>
+      <c r="C133" t="s">
         <v>100</v>
+      </c>
+      <c r="D133" t="s">
+        <v>101</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>164</v>
+      </c>
+      <c r="H133" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="B134">
+        <v>0.0277777777777777</v>
+      </c>
+      <c r="C134" t="s">
+        <v>132</v>
+      </c>
+      <c r="D134" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>164</v>
+      </c>
+      <c r="H134" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" t="s">
-        <v>95</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" t="s">
-        <v>163</v>
-      </c>
-      <c r="G137" t="s">
-        <v>164</v>
-      </c>
-      <c r="H137" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>100</v>
-      </c>
-      <c r="D138" t="s">
-        <v>94</v>
-      </c>
-      <c r="E138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s">
-        <v>165</v>
-      </c>
-      <c r="H138" t="s">
-        <v>171</v>
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>58</v>
-      </c>
-      <c r="B139">
-        <v>2.53E-05</v>
-      </c>
-      <c r="C139" t="s">
-        <v>58</v>
-      </c>
-      <c r="D139" t="s">
-        <v>157</v>
-      </c>
-      <c r="E139" t="s">
-        <v>97</v>
-      </c>
-      <c r="G139" t="s">
-        <v>166</v>
-      </c>
-      <c r="H139" t="s">
-        <v>172</v>
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>59</v>
-      </c>
-      <c r="B140">
-        <v>3.2790945E-05</v>
-      </c>
-      <c r="C140" t="s">
-        <v>59</v>
-      </c>
-      <c r="D140" t="s">
-        <v>157</v>
-      </c>
-      <c r="E140" t="s">
-        <v>97</v>
-      </c>
-      <c r="G140" t="s">
-        <v>166</v>
-      </c>
-      <c r="H140" t="s">
-        <v>172</v>
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141">
-        <v>0.0001808748</v>
-      </c>
-      <c r="C141" t="s">
-        <v>127</v>
-      </c>
-      <c r="D141" t="s">
-        <v>94</v>
-      </c>
-      <c r="E141" t="s">
-        <v>97</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
-      <c r="H141" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>35</v>
-      </c>
-      <c r="B142">
-        <v>0.000239976081173181</v>
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>161</v>
       </c>
       <c r="G142" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B143">
-        <v>0.03125</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="D143" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
       </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
       <c r="G143" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B144">
-        <v>0.0277777777777777</v>
+        <v>0.00167999999999999</v>
       </c>
       <c r="C144" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D144" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>96</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H144" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146" t="s">
-        <v>34</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145">
+        <v>0.00167999999999999</v>
+      </c>
+      <c r="C145" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145" t="s">
+        <v>96</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>164</v>
+      </c>
+      <c r="H145" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" t="s">
-        <v>95</v>
-      </c>
-      <c r="C152" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" t="s">
-        <v>163</v>
-      </c>
-      <c r="G152" t="s">
-        <v>164</v>
-      </c>
-      <c r="H152" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>34</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B153" t="s">
+        <v>94</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
       </c>
-      <c r="F153">
-        <v>0</v>
+      <c r="F153" t="s">
+        <v>162</v>
       </c>
       <c r="G153" t="s">
-        <v>165</v>
-      </c>
-      <c r="H153" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B154">
-        <v>0.00167999999999999</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D154" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="E154" t="s">
-        <v>97</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>163</v>
       </c>
       <c r="G154" t="s">
-        <v>166</v>
-      </c>
-      <c r="H154" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B155">
-        <v>0.00167999999999999</v>
+        <v>0.0052</v>
       </c>
       <c r="C155" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="D155" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="E155" t="s">
-        <v>97</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="F155" t="s">
+        <v>164</v>
       </c>
       <c r="G155" t="s">
-        <v>166</v>
-      </c>
-      <c r="H155" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>134</v>
+      </c>
+      <c r="D156" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+      <c r="F156" t="s">
+        <v>164</v>
+      </c>
+      <c r="G156" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="B157">
+        <v>70</v>
+      </c>
+      <c r="C157" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157" t="s">
+        <v>156</v>
+      </c>
+      <c r="E157" t="s">
+        <v>96</v>
+      </c>
+      <c r="F157" t="s">
+        <v>164</v>
+      </c>
+      <c r="G157" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="C158" t="s">
+        <v>136</v>
+      </c>
+      <c r="D158" t="s">
+        <v>155</v>
+      </c>
+      <c r="E158" t="s">
+        <v>96</v>
+      </c>
+      <c r="F158" t="s">
+        <v>164</v>
+      </c>
+      <c r="G158" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
+        <v>63</v>
+      </c>
+      <c r="B159">
+        <v>-0.21</v>
+      </c>
+      <c r="C159" t="s">
+        <v>137</v>
+      </c>
+      <c r="D159" t="s">
+        <v>156</v>
+      </c>
+      <c r="E159" t="s">
+        <v>160</v>
+      </c>
+      <c r="F159" t="s">
+        <v>164</v>
+      </c>
+      <c r="G159" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
         <v>11</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B163" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
         <v>12</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B164" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>161</v>
+      </c>
+      <c r="G167" t="s">
+        <v>162</v>
+      </c>
+      <c r="H167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>102</v>
+      </c>
+      <c r="D168" t="s">
+        <v>101</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s">
+        <v>163</v>
+      </c>
+      <c r="H168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169">
+        <v>10.9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>134</v>
+      </c>
+      <c r="D169" t="s">
+        <v>101</v>
+      </c>
+      <c r="E169" t="s">
+        <v>159</v>
+      </c>
+      <c r="G169" t="s">
+        <v>164</v>
+      </c>
+      <c r="H169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>61</v>
+      </c>
+      <c r="B170">
+        <v>280</v>
+      </c>
+      <c r="C170" t="s">
+        <v>135</v>
+      </c>
+      <c r="D170" t="s">
+        <v>156</v>
+      </c>
+      <c r="E170" t="s">
+        <v>96</v>
+      </c>
+      <c r="G170" t="s">
+        <v>164</v>
+      </c>
+      <c r="H170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>63</v>
+      </c>
+      <c r="B171">
+        <v>-0.28</v>
+      </c>
+      <c r="C171" t="s">
+        <v>137</v>
+      </c>
+      <c r="D171" t="s">
+        <v>156</v>
+      </c>
+      <c r="E171" t="s">
+        <v>160</v>
+      </c>
+      <c r="G171" t="s">
+        <v>164</v>
+      </c>
+      <c r="H171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" t="s">
-        <v>13</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" t="s">
-        <v>95</v>
-      </c>
-      <c r="C163" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s">
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
         <v>12</v>
       </c>
-      <c r="E163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>164</v>
-      </c>
-      <c r="G163" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" t="s">
-        <v>30</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>102</v>
-      </c>
-      <c r="D164" t="s">
-        <v>103</v>
-      </c>
-      <c r="E164" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" t="s">
-        <v>165</v>
-      </c>
-      <c r="G164" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
-        <v>60</v>
-      </c>
-      <c r="B165">
-        <v>0.0052</v>
-      </c>
-      <c r="C165" t="s">
-        <v>135</v>
-      </c>
-      <c r="D165" t="s">
-        <v>157</v>
-      </c>
-      <c r="E165" t="s">
-        <v>97</v>
-      </c>
-      <c r="F165" t="s">
-        <v>166</v>
-      </c>
-      <c r="G165" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
-        <v>61</v>
-      </c>
-      <c r="B166">
-        <v>15</v>
-      </c>
-      <c r="C166" t="s">
-        <v>136</v>
-      </c>
-      <c r="D166" t="s">
-        <v>103</v>
-      </c>
-      <c r="E166" t="s">
-        <v>161</v>
-      </c>
-      <c r="F166" t="s">
-        <v>166</v>
-      </c>
-      <c r="G166" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" t="s">
-        <v>62</v>
-      </c>
-      <c r="B167">
-        <v>70</v>
-      </c>
-      <c r="C167" t="s">
-        <v>137</v>
-      </c>
-      <c r="D167" t="s">
-        <v>158</v>
-      </c>
-      <c r="E167" t="s">
-        <v>97</v>
-      </c>
-      <c r="F167" t="s">
-        <v>166</v>
-      </c>
-      <c r="G167" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
-        <v>63</v>
-      </c>
-      <c r="B168">
-        <v>140</v>
-      </c>
-      <c r="C168" t="s">
-        <v>138</v>
-      </c>
-      <c r="D168" t="s">
-        <v>157</v>
-      </c>
-      <c r="E168" t="s">
-        <v>97</v>
-      </c>
-      <c r="F168" t="s">
-        <v>166</v>
-      </c>
-      <c r="G168" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" t="s">
-        <v>64</v>
-      </c>
-      <c r="B169">
-        <v>-0.21</v>
-      </c>
-      <c r="C169" t="s">
-        <v>139</v>
-      </c>
-      <c r="D169" t="s">
-        <v>158</v>
-      </c>
-      <c r="E169" t="s">
-        <v>162</v>
-      </c>
-      <c r="F169" t="s">
-        <v>166</v>
-      </c>
-      <c r="G169" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" t="s">
-        <v>10</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>12</v>
-      </c>
-      <c r="B174" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
-        <v>14</v>
+      <c r="B176" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>95</v>
-      </c>
-      <c r="C177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s">
-        <v>12</v>
-      </c>
-      <c r="E177" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
-        <v>163</v>
-      </c>
-      <c r="G177" t="s">
-        <v>164</v>
-      </c>
-      <c r="H177" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>32</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>104</v>
-      </c>
-      <c r="D178" t="s">
-        <v>103</v>
-      </c>
-      <c r="E178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" t="s">
-        <v>165</v>
-      </c>
-      <c r="H178" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>61</v>
-      </c>
-      <c r="B179">
-        <v>10.9</v>
+        <v>15</v>
+      </c>
+      <c r="B179" t="s">
+        <v>94</v>
       </c>
       <c r="C179" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D179" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
         <v>161</v>
       </c>
       <c r="G179" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H179" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B180">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="D180" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="E180" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B181">
-        <v>-0.28</v>
+        <v>0.07066666666666667</v>
       </c>
       <c r="C181" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D181" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="E181" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G181" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H181" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -3625,7 +3619,7 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -3641,7 +3635,7 @@
         <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -3649,7 +3643,7 @@
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -3657,7 +3651,7 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -3670,7 +3664,7 @@
         <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C189" t="s">
         <v>11</v>
@@ -3682,59 +3676,59 @@
         <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G189" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H189" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E190" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="G190" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H190" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B191">
-        <v>0.07066666666666667</v>
+        <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D191" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="E191" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="G191" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H191" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -3742,7 +3736,7 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -3758,7 +3752,7 @@
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -3766,7 +3760,7 @@
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -3774,7 +3768,7 @@
         <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -3787,7 +3781,7 @@
         <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C199" t="s">
         <v>11</v>
@@ -3799,36 +3793,36 @@
         <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G199" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H199" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D200" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E200" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G200" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H200" t="s">
-        <v>171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -3836,277 +3830,277 @@
         <v>65</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="C201" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D201" t="s">
         <v>157</v>
       </c>
       <c r="E201" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G201" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H201" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>66</v>
+      </c>
+      <c r="B202">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="C202" t="s">
+        <v>140</v>
+      </c>
+      <c r="D202" t="s">
+        <v>101</v>
+      </c>
+      <c r="E202" t="s">
+        <v>105</v>
+      </c>
+      <c r="G202" t="s">
+        <v>164</v>
+      </c>
+      <c r="H202" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>9</v>
-      </c>
-      <c r="B203" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="B203">
+        <v>0.0512820512820513</v>
+      </c>
+      <c r="C203" t="s">
+        <v>110</v>
+      </c>
+      <c r="D203" t="s">
+        <v>101</v>
+      </c>
+      <c r="E203" t="s">
+        <v>105</v>
+      </c>
+      <c r="G203" t="s">
+        <v>164</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>0.0512820512820513</v>
+      </c>
+      <c r="C204" t="s">
+        <v>139</v>
+      </c>
+      <c r="D204" t="s">
+        <v>101</v>
+      </c>
+      <c r="E204" t="s">
+        <v>105</v>
+      </c>
+      <c r="G204" t="s">
+        <v>164</v>
+      </c>
+      <c r="H204" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>11</v>
-      </c>
-      <c r="B205" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="B205">
+        <v>0.141025641025641</v>
+      </c>
+      <c r="C205" t="s">
+        <v>139</v>
+      </c>
+      <c r="D205" t="s">
+        <v>155</v>
+      </c>
+      <c r="E205" t="s">
+        <v>105</v>
+      </c>
+      <c r="G205" t="s">
+        <v>164</v>
+      </c>
+      <c r="H205" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>12</v>
-      </c>
-      <c r="B206" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="B206">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="C206" t="s">
+        <v>70</v>
+      </c>
+      <c r="D206" t="s">
+        <v>157</v>
+      </c>
+      <c r="E206" t="s">
+        <v>105</v>
+      </c>
+      <c r="G206" t="s">
+        <v>164</v>
+      </c>
+      <c r="H206" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>13</v>
-      </c>
-      <c r="B207" t="s">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="B207">
+        <v>0.0641025641025641</v>
+      </c>
+      <c r="C207" t="s">
+        <v>108</v>
+      </c>
+      <c r="D207" t="s">
+        <v>101</v>
+      </c>
+      <c r="E207" t="s">
+        <v>105</v>
+      </c>
+      <c r="G207" t="s">
+        <v>164</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" t="s">
-        <v>95</v>
-      </c>
-      <c r="C209" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s">
-        <v>12</v>
-      </c>
-      <c r="E209" t="s">
-        <v>13</v>
-      </c>
-      <c r="F209" t="s">
-        <v>163</v>
-      </c>
-      <c r="G209" t="s">
-        <v>164</v>
-      </c>
-      <c r="H209" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="B208">
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="C208" t="s">
+        <v>109</v>
+      </c>
+      <c r="D208" t="s">
+        <v>101</v>
+      </c>
+      <c r="E208" t="s">
+        <v>105</v>
+      </c>
+      <c r="G208" t="s">
+        <v>164</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>21</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
-        <v>21</v>
-      </c>
-      <c r="D210" t="s">
-        <v>103</v>
-      </c>
-      <c r="E210" t="s">
-        <v>107</v>
-      </c>
-      <c r="G210" t="s">
-        <v>165</v>
-      </c>
-      <c r="H210" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B211">
-        <v>0.487179487179487</v>
-      </c>
-      <c r="C211" t="s">
-        <v>141</v>
-      </c>
-      <c r="D211" t="s">
-        <v>159</v>
-      </c>
-      <c r="E211" t="s">
-        <v>107</v>
-      </c>
-      <c r="G211" t="s">
-        <v>166</v>
-      </c>
-      <c r="H211" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>67</v>
-      </c>
-      <c r="B212">
-        <v>0.153846153846154</v>
-      </c>
-      <c r="C212" t="s">
-        <v>142</v>
-      </c>
-      <c r="D212" t="s">
-        <v>103</v>
-      </c>
-      <c r="E212" t="s">
-        <v>107</v>
-      </c>
-      <c r="G212" t="s">
-        <v>166</v>
-      </c>
-      <c r="H212" t="s">
-        <v>172</v>
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>68</v>
-      </c>
-      <c r="B213">
-        <v>0.0512820512820513</v>
-      </c>
-      <c r="C213" t="s">
-        <v>112</v>
-      </c>
-      <c r="D213" t="s">
-        <v>103</v>
-      </c>
-      <c r="E213" t="s">
-        <v>107</v>
-      </c>
-      <c r="G213" t="s">
-        <v>166</v>
-      </c>
-      <c r="H213" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B213" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>69</v>
-      </c>
-      <c r="B214">
-        <v>0.0512820512820513</v>
-      </c>
-      <c r="C214" t="s">
-        <v>141</v>
-      </c>
-      <c r="D214" t="s">
-        <v>103</v>
-      </c>
-      <c r="E214" t="s">
-        <v>107</v>
-      </c>
-      <c r="G214" t="s">
-        <v>166</v>
-      </c>
-      <c r="H214" t="s">
-        <v>172</v>
+        <v>13</v>
+      </c>
+      <c r="B214" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>70</v>
-      </c>
-      <c r="B215">
-        <v>0.141025641025641</v>
-      </c>
-      <c r="C215" t="s">
-        <v>141</v>
-      </c>
-      <c r="D215" t="s">
-        <v>157</v>
-      </c>
-      <c r="E215" t="s">
-        <v>107</v>
-      </c>
-      <c r="G215" t="s">
-        <v>166</v>
-      </c>
-      <c r="H215" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>71</v>
-      </c>
-      <c r="B216">
-        <v>0.0128205128205128</v>
+        <v>15</v>
+      </c>
+      <c r="B216" t="s">
+        <v>94</v>
       </c>
       <c r="C216" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D216" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="E216" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
+        <v>161</v>
       </c>
       <c r="G216" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H216" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B217">
-        <v>0.0641025641025641</v>
+        <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D217" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E217" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G217" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H217" t="s">
-        <v>1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -4114,348 +4108,348 @@
         <v>73</v>
       </c>
       <c r="B218">
-        <v>0.0384615384615385</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C218" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D218" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="E218" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G218" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H218" t="s">
-        <v>1</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>74</v>
+      </c>
+      <c r="B219">
+        <v>0.271672758270046</v>
+      </c>
+      <c r="C219" t="s">
+        <v>142</v>
+      </c>
+      <c r="D219" t="s">
+        <v>157</v>
+      </c>
+      <c r="E219" t="s">
+        <v>96</v>
+      </c>
+      <c r="G219" t="s">
+        <v>164</v>
+      </c>
+      <c r="H219" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>9</v>
-      </c>
-      <c r="B220" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="B220">
+        <v>0.527439277456811</v>
+      </c>
+      <c r="C220" t="s">
+        <v>143</v>
+      </c>
+      <c r="D220" t="s">
+        <v>157</v>
+      </c>
+      <c r="E220" t="s">
+        <v>96</v>
+      </c>
+      <c r="G220" t="s">
+        <v>164</v>
+      </c>
+      <c r="H220" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" t="s">
-        <v>108</v>
+        <v>0.159333833362503</v>
+      </c>
+      <c r="C221" t="s">
+        <v>144</v>
+      </c>
+      <c r="D221" t="s">
+        <v>157</v>
+      </c>
+      <c r="E221" t="s">
+        <v>96</v>
+      </c>
+      <c r="G221" t="s">
+        <v>164</v>
+      </c>
+      <c r="H221" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>13</v>
-      </c>
-      <c r="B224" t="s">
-        <v>97</v>
+        <v>10</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B226" t="s">
-        <v>95</v>
-      </c>
-      <c r="C226" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s">
-        <v>12</v>
-      </c>
-      <c r="E226" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" t="s">
-        <v>163</v>
-      </c>
-      <c r="G226" t="s">
-        <v>164</v>
-      </c>
-      <c r="H226" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>23</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>108</v>
-      </c>
-      <c r="D227" t="s">
-        <v>94</v>
-      </c>
-      <c r="E227" t="s">
-        <v>97</v>
-      </c>
-      <c r="G227" t="s">
-        <v>165</v>
-      </c>
-      <c r="H227" t="s">
-        <v>171</v>
+        <v>13</v>
+      </c>
+      <c r="B227" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>74</v>
-      </c>
-      <c r="B228">
-        <v>0.0415541309106406</v>
-      </c>
-      <c r="C228" t="s">
-        <v>143</v>
-      </c>
-      <c r="D228" t="s">
-        <v>158</v>
-      </c>
-      <c r="E228" t="s">
-        <v>97</v>
-      </c>
-      <c r="G228" t="s">
-        <v>166</v>
-      </c>
-      <c r="H228" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>75</v>
-      </c>
-      <c r="B229">
-        <v>0.271672758270046</v>
+        <v>15</v>
+      </c>
+      <c r="B229" t="s">
+        <v>94</v>
       </c>
       <c r="C229" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="E229" t="s">
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
+        <v>161</v>
       </c>
       <c r="G229" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H229" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B230">
-        <v>0.527439277456811</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="E230" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G230" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H230" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B231">
-        <v>0.159333833362503</v>
+        <v>0.0415541309106406</v>
       </c>
       <c r="C231" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D231" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E231" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G231" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H231" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>75</v>
+      </c>
+      <c r="B232">
+        <v>0.527439277456811</v>
+      </c>
+      <c r="C232" t="s">
+        <v>143</v>
+      </c>
+      <c r="D232" t="s">
+        <v>157</v>
+      </c>
+      <c r="E232" t="s">
+        <v>96</v>
+      </c>
+      <c r="G232" t="s">
+        <v>164</v>
+      </c>
+      <c r="H232" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>9</v>
-      </c>
-      <c r="B233" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>10</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B233">
+        <v>0.159333833362503</v>
+      </c>
+      <c r="C233" t="s">
+        <v>144</v>
+      </c>
+      <c r="D233" t="s">
+        <v>157</v>
+      </c>
+      <c r="E233" t="s">
+        <v>96</v>
+      </c>
+      <c r="G233" t="s">
+        <v>164</v>
+      </c>
+      <c r="H233" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>12</v>
-      </c>
-      <c r="B236" t="s">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B238" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B239" t="s">
-        <v>95</v>
-      </c>
-      <c r="C239" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s">
-        <v>12</v>
-      </c>
-      <c r="E239" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" t="s">
-        <v>163</v>
-      </c>
-      <c r="G239" t="s">
-        <v>164</v>
-      </c>
-      <c r="H239" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>33</v>
-      </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-      <c r="C240" t="s">
-        <v>108</v>
-      </c>
-      <c r="D240" t="s">
-        <v>94</v>
-      </c>
-      <c r="E240" t="s">
-        <v>97</v>
-      </c>
-      <c r="G240" t="s">
-        <v>165</v>
-      </c>
-      <c r="H240" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>74</v>
-      </c>
-      <c r="B241">
-        <v>0.0415541309106406</v>
+        <v>15</v>
+      </c>
+      <c r="B241" t="s">
+        <v>94</v>
       </c>
       <c r="C241" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="D241" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="E241" t="s">
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="F241" t="s">
+        <v>161</v>
       </c>
       <c r="G241" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H241" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B242">
-        <v>0.527439277456811</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D242" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="E242" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="G242" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H242" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -4463,1076 +4457,959 @@
         <v>77</v>
       </c>
       <c r="B243">
-        <v>0.159333833362503</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D243" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="E243" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="G243" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H243" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>78</v>
+      </c>
+      <c r="B244">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="C244" t="s">
+        <v>145</v>
+      </c>
+      <c r="D244" t="s">
+        <v>157</v>
+      </c>
+      <c r="E244" t="s">
+        <v>96</v>
+      </c>
+      <c r="G244" t="s">
+        <v>164</v>
+      </c>
+      <c r="H244" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>9</v>
-      </c>
-      <c r="B245" t="s">
-        <v>31</v>
+        <v>75</v>
+      </c>
+      <c r="B245">
+        <v>-0.00727</v>
+      </c>
+      <c r="C245" t="s">
+        <v>143</v>
+      </c>
+      <c r="D245" t="s">
+        <v>157</v>
+      </c>
+      <c r="E245" t="s">
+        <v>96</v>
+      </c>
+      <c r="G245" t="s">
+        <v>164</v>
+      </c>
+      <c r="H245" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>-0.1470914457375</v>
+      </c>
+      <c r="C246" t="s">
+        <v>111</v>
+      </c>
+      <c r="D246" t="s">
+        <v>101</v>
+      </c>
+      <c r="E246" t="s">
+        <v>159</v>
+      </c>
+      <c r="G246" t="s">
+        <v>164</v>
+      </c>
+      <c r="H246" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>11</v>
-      </c>
-      <c r="B247" t="s">
-        <v>109</v>
+        <v>21</v>
+      </c>
+      <c r="B247">
+        <v>-2.647646023275</v>
+      </c>
+      <c r="C247" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" t="s">
+        <v>101</v>
+      </c>
+      <c r="E247" t="s">
+        <v>105</v>
+      </c>
+      <c r="G247" t="s">
+        <v>164</v>
+      </c>
+      <c r="H247" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>12</v>
-      </c>
-      <c r="B248" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" t="s">
-        <v>13</v>
-      </c>
-      <c r="B249" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="B248">
+        <v>-0.00316</v>
+      </c>
+      <c r="C248" t="s">
+        <v>146</v>
+      </c>
+      <c r="D248" t="s">
+        <v>156</v>
+      </c>
+      <c r="E248" t="s">
+        <v>96</v>
+      </c>
+      <c r="G248" t="s">
+        <v>164</v>
+      </c>
+      <c r="H248" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" t="s">
-        <v>95</v>
-      </c>
-      <c r="C251" t="s">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s">
-        <v>12</v>
-      </c>
-      <c r="E251" t="s">
-        <v>13</v>
-      </c>
-      <c r="F251" t="s">
-        <v>163</v>
-      </c>
-      <c r="G251" t="s">
-        <v>164</v>
-      </c>
-      <c r="H251" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>31</v>
-      </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-      <c r="C252" t="s">
-        <v>109</v>
-      </c>
-      <c r="D252" t="s">
-        <v>94</v>
-      </c>
-      <c r="E252" t="s">
-        <v>13</v>
-      </c>
-      <c r="G252" t="s">
-        <v>165</v>
-      </c>
-      <c r="H252" t="s">
-        <v>171</v>
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>78</v>
-      </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253" t="s">
-        <v>78</v>
-      </c>
-      <c r="D253" t="s">
-        <v>94</v>
-      </c>
-      <c r="E253" t="s">
-        <v>13</v>
-      </c>
-      <c r="G253" t="s">
-        <v>166</v>
-      </c>
-      <c r="H253" t="s">
-        <v>171</v>
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>79</v>
-      </c>
-      <c r="B254">
-        <v>-0.07099999999999999</v>
-      </c>
-      <c r="C254" t="s">
-        <v>147</v>
-      </c>
-      <c r="D254" t="s">
-        <v>159</v>
-      </c>
-      <c r="E254" t="s">
-        <v>97</v>
-      </c>
-      <c r="G254" t="s">
-        <v>166</v>
-      </c>
-      <c r="H254" t="s">
-        <v>172</v>
+        <v>13</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>76</v>
-      </c>
-      <c r="B255">
-        <v>-0.00727</v>
-      </c>
-      <c r="C255" t="s">
-        <v>145</v>
-      </c>
-      <c r="D255" t="s">
-        <v>159</v>
-      </c>
-      <c r="E255" t="s">
-        <v>97</v>
-      </c>
-      <c r="G255" t="s">
-        <v>166</v>
-      </c>
-      <c r="H255" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>20</v>
-      </c>
-      <c r="B256">
-        <v>-0.1470914457375</v>
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>94</v>
       </c>
       <c r="C256" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="D256" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="E256" t="s">
-        <v>161</v>
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>162</v>
       </c>
       <c r="G256" t="s">
-        <v>166</v>
-      </c>
-      <c r="H256" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B257">
-        <v>-2.647646023275</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D257" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E257" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="F257" t="s">
+        <v>163</v>
       </c>
       <c r="G257" t="s">
-        <v>166</v>
-      </c>
-      <c r="H257" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>80</v>
       </c>
       <c r="B258">
-        <v>-0.00316</v>
+        <v>0.063</v>
       </c>
       <c r="C258" t="s">
+        <v>147</v>
+      </c>
+      <c r="D258" t="s">
+        <v>93</v>
+      </c>
+      <c r="E258" t="s">
+        <v>96</v>
+      </c>
+      <c r="F258" t="s">
+        <v>164</v>
+      </c>
+      <c r="G258" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>80</v>
+      </c>
+      <c r="B259">
+        <v>0.008</v>
+      </c>
+      <c r="C259" t="s">
+        <v>147</v>
+      </c>
+      <c r="D259" t="s">
+        <v>93</v>
+      </c>
+      <c r="E259" t="s">
+        <v>96</v>
+      </c>
+      <c r="F259" t="s">
+        <v>164</v>
+      </c>
+      <c r="G259" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>81</v>
+      </c>
+      <c r="B260">
+        <v>0.00727</v>
+      </c>
+      <c r="C260" t="s">
+        <v>123</v>
+      </c>
+      <c r="D260" t="s">
+        <v>155</v>
+      </c>
+      <c r="E260" t="s">
+        <v>96</v>
+      </c>
+      <c r="F260" t="s">
+        <v>164</v>
+      </c>
+      <c r="G260" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>44</v>
+      </c>
+      <c r="B261">
+        <v>0.0028</v>
+      </c>
+      <c r="C261" t="s">
+        <v>122</v>
+      </c>
+      <c r="D261" t="s">
+        <v>155</v>
+      </c>
+      <c r="E261" t="s">
+        <v>96</v>
+      </c>
+      <c r="F261" t="s">
+        <v>164</v>
+      </c>
+      <c r="G261" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>64</v>
+      </c>
+      <c r="B262">
+        <v>2.6E-05</v>
+      </c>
+      <c r="C262" t="s">
+        <v>138</v>
+      </c>
+      <c r="D262" t="s">
+        <v>155</v>
+      </c>
+      <c r="E262" t="s">
+        <v>104</v>
+      </c>
+      <c r="F262" t="s">
+        <v>164</v>
+      </c>
+      <c r="G262" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>82</v>
+      </c>
+      <c r="B263">
+        <v>0.000181</v>
+      </c>
+      <c r="C263" t="s">
         <v>148</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D263" t="s">
         <v>158</v>
       </c>
-      <c r="E258" t="s">
-        <v>97</v>
-      </c>
-      <c r="G258" t="s">
-        <v>166</v>
-      </c>
-      <c r="H258" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
+      <c r="E263" t="s">
+        <v>104</v>
+      </c>
+      <c r="F263" t="s">
+        <v>164</v>
+      </c>
+      <c r="G263" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>83</v>
+      </c>
+      <c r="B264">
+        <v>0.00333</v>
+      </c>
+      <c r="C264" t="s">
+        <v>149</v>
+      </c>
+      <c r="D264" t="s">
+        <v>93</v>
+      </c>
+      <c r="E264" t="s">
+        <v>104</v>
+      </c>
+      <c r="F264" t="s">
+        <v>164</v>
+      </c>
+      <c r="G264" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>64</v>
+      </c>
+      <c r="B265">
+        <v>4.13E-05</v>
+      </c>
+      <c r="C265" t="s">
+        <v>138</v>
+      </c>
+      <c r="D265" t="s">
+        <v>155</v>
+      </c>
+      <c r="E265" t="s">
+        <v>104</v>
+      </c>
+      <c r="F265" t="s">
+        <v>164</v>
+      </c>
+      <c r="G265" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
         <v>9</v>
       </c>
-      <c r="B260" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" t="s">
+      <c r="B267" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
         <v>10</v>
       </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" t="s">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
         <v>11</v>
       </c>
-      <c r="B262" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" t="s">
+      <c r="B269" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
         <v>12</v>
       </c>
-      <c r="B263" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" t="s">
-        <v>13</v>
-      </c>
-      <c r="B264" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
+      <c r="B270" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" t="s">
-        <v>15</v>
-      </c>
-      <c r="B266" t="s">
-        <v>95</v>
-      </c>
-      <c r="C266" t="s">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s">
-        <v>12</v>
-      </c>
-      <c r="E266" t="s">
-        <v>13</v>
-      </c>
-      <c r="F266" t="s">
-        <v>164</v>
-      </c>
-      <c r="G266" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" t="s">
-        <v>78</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-      <c r="C267" t="s">
-        <v>78</v>
-      </c>
-      <c r="D267" t="s">
-        <v>94</v>
-      </c>
-      <c r="E267" t="s">
-        <v>13</v>
-      </c>
-      <c r="F267" t="s">
-        <v>165</v>
-      </c>
-      <c r="G267" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>81</v>
-      </c>
-      <c r="B268">
-        <v>0.063</v>
-      </c>
-      <c r="C268" t="s">
-        <v>149</v>
-      </c>
-      <c r="D268" t="s">
-        <v>94</v>
-      </c>
-      <c r="E268" t="s">
-        <v>97</v>
-      </c>
-      <c r="F268" t="s">
-        <v>166</v>
-      </c>
-      <c r="G268" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" t="s">
-        <v>81</v>
-      </c>
-      <c r="B269">
-        <v>0.008</v>
-      </c>
-      <c r="C269" t="s">
-        <v>149</v>
-      </c>
-      <c r="D269" t="s">
-        <v>94</v>
-      </c>
-      <c r="E269" t="s">
-        <v>97</v>
-      </c>
-      <c r="F269" t="s">
-        <v>166</v>
-      </c>
-      <c r="G269" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" t="s">
-        <v>82</v>
-      </c>
-      <c r="B270">
-        <v>0.00727</v>
-      </c>
-      <c r="C270" t="s">
-        <v>125</v>
-      </c>
-      <c r="D270" t="s">
-        <v>157</v>
-      </c>
-      <c r="E270" t="s">
-        <v>97</v>
-      </c>
-      <c r="F270" t="s">
-        <v>166</v>
-      </c>
-      <c r="G270" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" t="s">
-        <v>45</v>
-      </c>
-      <c r="B271">
-        <v>0.0028</v>
-      </c>
-      <c r="C271" t="s">
-        <v>124</v>
-      </c>
-      <c r="D271" t="s">
-        <v>157</v>
-      </c>
-      <c r="E271" t="s">
-        <v>97</v>
-      </c>
-      <c r="F271" t="s">
-        <v>166</v>
-      </c>
-      <c r="G271" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" t="s">
-        <v>65</v>
-      </c>
-      <c r="B272">
-        <v>2.6E-05</v>
-      </c>
-      <c r="C272" t="s">
-        <v>140</v>
-      </c>
-      <c r="D272" t="s">
-        <v>157</v>
-      </c>
-      <c r="E272" t="s">
-        <v>106</v>
-      </c>
-      <c r="F272" t="s">
-        <v>166</v>
-      </c>
-      <c r="G272" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>83</v>
-      </c>
-      <c r="B273">
-        <v>0.000181</v>
+        <v>15</v>
+      </c>
+      <c r="B273" t="s">
+        <v>94</v>
       </c>
       <c r="C273" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="D273" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="E273" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F273" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G273" t="s">
-        <v>172</v>
+        <v>162</v>
+      </c>
+      <c r="H273" t="s">
+        <v>168</v>
+      </c>
+      <c r="I273" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B274">
-        <v>0.00333</v>
+        <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="D274" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E274" t="s">
-        <v>106</v>
-      </c>
-      <c r="F274" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="G274" t="s">
-        <v>172</v>
+        <v>163</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1</v>
+      </c>
+      <c r="I274" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B275">
-        <v>4.13E-05</v>
+        <v>0.0617</v>
       </c>
       <c r="C275" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D275" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="E275" t="s">
-        <v>106</v>
-      </c>
-      <c r="F275" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G275" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="H275" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>84</v>
+      </c>
+      <c r="B276">
+        <v>3.47E-08</v>
+      </c>
+      <c r="C276" t="s">
+        <v>150</v>
+      </c>
+      <c r="D276" t="s">
+        <v>93</v>
+      </c>
+      <c r="E276" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276" t="s">
+        <v>164</v>
+      </c>
+      <c r="H276" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>9</v>
-      </c>
-      <c r="B277" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" t="s">
-        <v>10</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="B277">
+        <v>3.93E-07</v>
+      </c>
+      <c r="E277" t="s">
+        <v>96</v>
+      </c>
+      <c r="F277" t="s">
+        <v>165</v>
+      </c>
+      <c r="G277" t="s">
+        <v>171</v>
+      </c>
+      <c r="H277" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>12</v>
-      </c>
-      <c r="B280" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B281" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B282" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B283" t="s">
-        <v>95</v>
-      </c>
-      <c r="C283" t="s">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s">
-        <v>12</v>
-      </c>
-      <c r="E283" t="s">
-        <v>13</v>
-      </c>
-      <c r="F283" t="s">
-        <v>163</v>
-      </c>
-      <c r="G283" t="s">
-        <v>164</v>
-      </c>
-      <c r="H283" t="s">
-        <v>170</v>
-      </c>
-      <c r="I283" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>72</v>
-      </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-      <c r="C284" t="s">
-        <v>110</v>
-      </c>
-      <c r="D284" t="s">
-        <v>103</v>
-      </c>
-      <c r="E284" t="s">
-        <v>107</v>
-      </c>
-      <c r="G284" t="s">
-        <v>165</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1</v>
-      </c>
-      <c r="I284" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>61</v>
-      </c>
-      <c r="B285">
-        <v>0.0617</v>
+        <v>15</v>
+      </c>
+      <c r="B285" t="s">
+        <v>94</v>
       </c>
       <c r="C285" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D285" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="E285" t="s">
+        <v>13</v>
+      </c>
+      <c r="F285" t="s">
         <v>161</v>
       </c>
       <c r="G285" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H285" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="I285" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B286">
-        <v>3.47E-08</v>
+        <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="D286" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E286" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G286" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H286" t="s">
-        <v>172</v>
+        <v>1</v>
+      </c>
+      <c r="I286" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="s">
+        <v>60</v>
+      </c>
+      <c r="B287">
+        <v>0.0015579</v>
+      </c>
+      <c r="C287" t="s">
+        <v>134</v>
+      </c>
+      <c r="D287" t="s">
+        <v>101</v>
+      </c>
+      <c r="E287" t="s">
+        <v>159</v>
+      </c>
+      <c r="G287" t="s">
+        <v>164</v>
+      </c>
+      <c r="H287" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
         <v>86</v>
       </c>
-      <c r="B287">
-        <v>3.93E-07</v>
-      </c>
-      <c r="E287" t="s">
-        <v>97</v>
-      </c>
-      <c r="F287" t="s">
-        <v>167</v>
-      </c>
-      <c r="G287" t="s">
-        <v>173</v>
-      </c>
-      <c r="H287" t="s">
-        <v>174</v>
+      <c r="B288">
+        <v>2.5707E-07</v>
+      </c>
+      <c r="C288" t="s">
+        <v>151</v>
+      </c>
+      <c r="D288" t="s">
+        <v>157</v>
+      </c>
+      <c r="E288" t="s">
+        <v>13</v>
+      </c>
+      <c r="G288" t="s">
+        <v>164</v>
+      </c>
+      <c r="H288" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>9</v>
-      </c>
-      <c r="B289" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="A290" t="s">
-        <v>10</v>
-      </c>
-      <c r="B290">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="B289">
+        <v>1.1315</v>
+      </c>
+      <c r="E289" t="s">
+        <v>105</v>
+      </c>
+      <c r="F289" t="s">
+        <v>166</v>
+      </c>
+      <c r="G289" t="s">
+        <v>171</v>
+      </c>
+      <c r="H289" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>12</v>
-      </c>
-      <c r="B292" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B294" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B295" t="s">
-        <v>95</v>
-      </c>
-      <c r="C295" t="s">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s">
-        <v>12</v>
-      </c>
-      <c r="E295" t="s">
-        <v>13</v>
-      </c>
-      <c r="F295" t="s">
-        <v>163</v>
-      </c>
-      <c r="G295" t="s">
-        <v>164</v>
-      </c>
-      <c r="H295" t="s">
-        <v>170</v>
-      </c>
-      <c r="I295" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>73</v>
-      </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-      <c r="C296" t="s">
-        <v>111</v>
-      </c>
-      <c r="D296" t="s">
-        <v>103</v>
-      </c>
-      <c r="E296" t="s">
-        <v>107</v>
-      </c>
-      <c r="G296" t="s">
-        <v>165</v>
-      </c>
-      <c r="H296" t="s">
-        <v>1</v>
-      </c>
-      <c r="I296" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>61</v>
-      </c>
-      <c r="B297">
-        <v>0.0015579</v>
+        <v>15</v>
+      </c>
+      <c r="B297" t="s">
+        <v>94</v>
       </c>
       <c r="C297" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D297" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="E297" t="s">
+        <v>13</v>
+      </c>
+      <c r="F297" t="s">
         <v>161</v>
       </c>
       <c r="G297" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H297" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="I297" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B298">
-        <v>2.5707E-07</v>
+        <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D298" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="E298" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G298" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H298" t="s">
-        <v>172</v>
+        <v>1</v>
+      </c>
+      <c r="I298" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" t="s">
+        <v>66</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
+        <v>140</v>
+      </c>
+      <c r="D299" t="s">
+        <v>101</v>
+      </c>
+      <c r="E299" t="s">
+        <v>105</v>
+      </c>
+      <c r="G299" t="s">
+        <v>164</v>
+      </c>
+      <c r="H299" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" t="s">
         <v>88</v>
       </c>
-      <c r="B299">
-        <v>1.1315</v>
-      </c>
-      <c r="E299" t="s">
-        <v>107</v>
-      </c>
-      <c r="F299" t="s">
-        <v>168</v>
-      </c>
-      <c r="G299" t="s">
-        <v>173</v>
-      </c>
-      <c r="H299" t="s">
-        <v>174</v>
+      <c r="B300">
+        <v>-0.0123797167117415</v>
+      </c>
+      <c r="C300" t="s">
+        <v>152</v>
+      </c>
+      <c r="D300" t="s">
+        <v>101</v>
+      </c>
+      <c r="E300" t="s">
+        <v>160</v>
+      </c>
+      <c r="G300" t="s">
+        <v>164</v>
+      </c>
+      <c r="H300" t="s">
+        <v>170</v>
+      </c>
+      <c r="I300" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>9</v>
-      </c>
-      <c r="B301" t="s">
-        <v>68</v>
+        <v>89</v>
+      </c>
+      <c r="B301">
+        <v>0.01960711841718847</v>
+      </c>
+      <c r="C301" t="s">
+        <v>153</v>
+      </c>
+      <c r="D301" t="s">
+        <v>154</v>
+      </c>
+      <c r="E301" t="s">
+        <v>160</v>
+      </c>
+      <c r="G301" t="s">
+        <v>164</v>
+      </c>
+      <c r="H301" t="s">
+        <v>170</v>
+      </c>
+      <c r="I301" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>-0.0237987674066518</v>
+      </c>
+      <c r="E302" t="s">
+        <v>96</v>
+      </c>
+      <c r="F302" t="s">
+        <v>167</v>
+      </c>
+      <c r="G302" t="s">
+        <v>171</v>
+      </c>
+      <c r="H302" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>11</v>
-      </c>
-      <c r="B303" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" t="s">
-        <v>12</v>
-      </c>
-      <c r="B304" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" t="s">
-        <v>13</v>
-      </c>
-      <c r="B305" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" t="s">
-        <v>15</v>
-      </c>
-      <c r="B307" t="s">
-        <v>95</v>
-      </c>
-      <c r="C307" t="s">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s">
-        <v>12</v>
-      </c>
-      <c r="E307" t="s">
-        <v>13</v>
-      </c>
-      <c r="F307" t="s">
-        <v>163</v>
-      </c>
-      <c r="G307" t="s">
-        <v>164</v>
-      </c>
-      <c r="H307" t="s">
-        <v>170</v>
-      </c>
-      <c r="I307" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" t="s">
-        <v>68</v>
-      </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-      <c r="C308" t="s">
-        <v>112</v>
-      </c>
-      <c r="D308" t="s">
-        <v>103</v>
-      </c>
-      <c r="E308" t="s">
-        <v>107</v>
-      </c>
-      <c r="G308" t="s">
-        <v>165</v>
-      </c>
-      <c r="H308" t="s">
-        <v>1</v>
-      </c>
-      <c r="I308" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" t="s">
-        <v>67</v>
-      </c>
-      <c r="B309">
-        <v>1</v>
-      </c>
-      <c r="C309" t="s">
-        <v>142</v>
-      </c>
-      <c r="D309" t="s">
-        <v>103</v>
-      </c>
-      <c r="E309" t="s">
-        <v>107</v>
-      </c>
-      <c r="G309" t="s">
-        <v>166</v>
-      </c>
-      <c r="H309" t="s">
+        <v>91</v>
+      </c>
+      <c r="B303">
+        <v>-8.91339603245388E-06</v>
+      </c>
+      <c r="E303" t="s">
+        <v>96</v>
+      </c>
+      <c r="F303" t="s">
+        <v>167</v>
+      </c>
+      <c r="G303" t="s">
+        <v>171</v>
+      </c>
+      <c r="H303" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" t="s">
-        <v>89</v>
-      </c>
-      <c r="B310">
-        <v>-0.0123797167117415</v>
-      </c>
-      <c r="C310" t="s">
-        <v>154</v>
-      </c>
-      <c r="D310" t="s">
-        <v>103</v>
-      </c>
-      <c r="E310" t="s">
-        <v>162</v>
-      </c>
-      <c r="G310" t="s">
-        <v>166</v>
-      </c>
-      <c r="H310" t="s">
-        <v>172</v>
-      </c>
-      <c r="I310" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" t="s">
-        <v>90</v>
-      </c>
-      <c r="B311">
-        <v>0.01960711841718847</v>
-      </c>
-      <c r="C311" t="s">
-        <v>155</v>
-      </c>
-      <c r="D311" t="s">
-        <v>156</v>
-      </c>
-      <c r="E311" t="s">
-        <v>162</v>
-      </c>
-      <c r="G311" t="s">
-        <v>166</v>
-      </c>
-      <c r="H311" t="s">
-        <v>172</v>
-      </c>
-      <c r="I311" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" t="s">
-        <v>91</v>
-      </c>
-      <c r="B312">
-        <v>-0.0237987674066518</v>
-      </c>
-      <c r="E312" t="s">
-        <v>97</v>
-      </c>
-      <c r="F312" t="s">
-        <v>169</v>
-      </c>
-      <c r="G312" t="s">
-        <v>173</v>
-      </c>
-      <c r="H312" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" t="s">
-        <v>92</v>
-      </c>
-      <c r="B313">
-        <v>-8.91339603245388E-06</v>
-      </c>
-      <c r="E313" t="s">
-        <v>97</v>
-      </c>
-      <c r="F313" t="s">
-        <v>169</v>
-      </c>
-      <c r="G313" t="s">
-        <v>173</v>
-      </c>
-      <c r="H313" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
